--- a/data_picipennis.xlsx
+++ b/data_picipennis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mendelu-my.sharepoint.com/personal/xstoces_mendelu_cz1/Documents/SSD_21.12.2024/Maďarsko/excel/H.picipennis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="11_AD4D80C4656A4B7AC02E7484B35F43565BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2843205D-5BFD-4A6A-A896-FED4779BE878}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="11_AD4D80C4656A4B7AC02E7484B35F43565BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45C82729-F998-4252-BFBB-57D73795B1D8}"/>
   <bookViews>
-    <workbookView xWindow="26865" yWindow="4470" windowWidth="23745" windowHeight="16110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26295" yWindow="1260" windowWidth="25545" windowHeight="18105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -248,12 +248,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -268,12 +274,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -561,15 +568,16 @@
   <dimension ref="A1:AE233"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z25" sqref="Z25"/>
+      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -719,7 +727,7 @@
         <v>0.15501635986205489</v>
       </c>
       <c r="R2" s="2">
-        <v>0.16979419218752589</v>
+        <v>0.19464381301094619</v>
       </c>
       <c r="S2" s="2">
         <v>0.16079812521735051</v>
@@ -735,19 +743,19 @@
       </c>
       <c r="W2">
         <f>SQRT(ABS(X2-$Y$2))</f>
-        <v>0.32760256878548361</v>
+        <v>0.47668265449718378</v>
       </c>
       <c r="X2">
         <f>(R2-O2)/(0.5*(O2+R2))</f>
-        <v>9.8584273162312969E-2</v>
+        <v>0.2341694998722233</v>
       </c>
       <c r="Y2">
         <f>SUM(X2:X233)/232</f>
-        <v>-8.7391699125345564E-3</v>
+        <v>6.9431467737418439E-3</v>
       </c>
       <c r="Z2">
         <f>SQRT(ABS(AA2-$AB$2))</f>
-        <v>0.36973831655296679</v>
+        <v>0.36979603608474282</v>
       </c>
       <c r="AA2">
         <f>(S2-P2)/(0.5*(P2+S2))</f>
@@ -755,11 +763,11 @@
       </c>
       <c r="AB2">
         <f>SUM(AA2:AA233)/230</f>
-        <v>2.4313651604547452E-2</v>
+        <v>2.4356337181113977E-2</v>
       </c>
       <c r="AC2">
         <f>SQRT(ABS(AD2-$AE$2))</f>
-        <v>0.26523521393829669</v>
+        <v>0.26517432700830507</v>
       </c>
       <c r="AD2">
         <f>(T2-Q2)/(0.5*(Q2+T2))</f>
@@ -767,7 +775,7 @@
       </c>
       <c r="AE2">
         <f>SUM(AA2:AA79)/304</f>
-        <v>8.9711033038202947E-4</v>
+        <v>9.294053389685427E-4</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -820,7 +828,7 @@
         <v>0.15545454909775391</v>
       </c>
       <c r="R3" s="2">
-        <v>0.16995342324974197</v>
+        <v>0.18035200733885706</v>
       </c>
       <c r="S3" s="2">
         <v>0.15963732189678681</v>
@@ -836,15 +844,15 @@
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W66" si="0">SQRT(ABS(X3-$Y$2))</f>
-        <v>0.33860108801844607</v>
+        <v>0.39758979677251383</v>
       </c>
       <c r="X3">
         <f t="shared" ref="X3:X66" si="1">(R3-O3)/(0.5*(O3+R3))</f>
-        <v>0.10591152689474093</v>
+        <v>0.16502079327135069</v>
       </c>
       <c r="Z3">
         <f t="shared" ref="Z3:Z66" si="2">SQRT(ABS(AA3-$AB$2))</f>
-        <v>0.40145404161457415</v>
+        <v>0.4015072018099336</v>
       </c>
       <c r="AA3">
         <f t="shared" ref="AA3:AA66" si="3">(S3-P3)/(0.5*(P3+S3))</f>
@@ -852,7 +860,7 @@
       </c>
       <c r="AC3">
         <f t="shared" ref="AC3:AC66" si="4">SQRT(ABS(AD3-$AE$2))</f>
-        <v>0.38964209664807459</v>
+        <v>0.38960065255556359</v>
       </c>
       <c r="AD3">
         <f t="shared" ref="AD3:AD66" si="5">(T3-Q3)/(0.5*(Q3+T3))</f>
@@ -909,7 +917,7 @@
         <v>0.16832361192377968</v>
       </c>
       <c r="R4" s="2">
-        <v>0.1691447647370542</v>
+        <v>0.18035200733885706</v>
       </c>
       <c r="S4" s="2">
         <v>0.1572063736689869</v>
@@ -925,15 +933,15 @@
       </c>
       <c r="W4">
         <f t="shared" si="0"/>
-        <v>0.10698250776636624</v>
+        <v>0.24473176660187537</v>
       </c>
       <c r="X4">
         <f t="shared" si="1"/>
-        <v>2.706087055446056E-3</v>
+        <v>6.6836784357816648E-2</v>
       </c>
       <c r="Z4">
         <f t="shared" si="2"/>
-        <v>0.40412696501366857</v>
+        <v>0.40417977364995078</v>
       </c>
       <c r="AA4">
         <f t="shared" si="3"/>
@@ -941,7 +949,7 @@
       </c>
       <c r="AC4">
         <f>SQRT(ABS(AD4-$AE$2))</f>
-        <v>0.35889135983511272</v>
+        <v>0.35893634975143279</v>
       </c>
       <c r="AD4">
         <f t="shared" si="5"/>
@@ -988,8 +996,8 @@
       <c r="N5">
         <v>1.5</v>
       </c>
-      <c r="O5" s="2">
-        <v>0.17355976009334342</v>
+      <c r="O5" s="3">
+        <v>0.16649462626753295</v>
       </c>
       <c r="P5" s="2">
         <v>0.1821611255030112</v>
@@ -998,7 +1006,7 @@
         <v>0.16798662727217525</v>
       </c>
       <c r="R5" s="2">
-        <v>0.16794737917381972</v>
+        <v>0.20519976969126569</v>
       </c>
       <c r="S5" s="2">
         <v>0.16244046915968846</v>
@@ -1014,15 +1022,15 @@
       </c>
       <c r="W5">
         <f t="shared" si="0"/>
-        <v>0.15533556608713286</v>
+        <v>0.44868710012857338</v>
       </c>
       <c r="X5">
         <f t="shared" si="1"/>
-        <v>-3.2868308004144579E-2</v>
+        <v>0.20826326059553024</v>
       </c>
       <c r="Z5">
         <f t="shared" si="2"/>
-        <v>0.37251640135258496</v>
+        <v>0.37257369050061317</v>
       </c>
       <c r="AA5">
         <f t="shared" si="3"/>
@@ -1030,7 +1038,7 @@
       </c>
       <c r="AC5">
         <f t="shared" si="4"/>
-        <v>0.4224426794829565</v>
+        <v>0.42248090188472004</v>
       </c>
       <c r="AD5">
         <f t="shared" si="5"/>
@@ -1087,7 +1095,7 @@
         <v>0.17598491936641295</v>
       </c>
       <c r="R6" s="2">
-        <v>0.18210842957705664</v>
+        <v>0.20519976969126569</v>
       </c>
       <c r="S6" s="2">
         <v>0.20645495693010008</v>
@@ -1103,15 +1111,15 @@
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
-        <v>0.12361766155318114</v>
+        <v>0.34469495870262745</v>
       </c>
       <c r="X6">
         <f t="shared" si="1"/>
-        <v>6.5421563353422812E-3</v>
+        <v>0.12575776132874789</v>
       </c>
       <c r="Z6">
         <f t="shared" si="2"/>
-        <v>0.27796892373208409</v>
+        <v>0.27789213192209428</v>
       </c>
       <c r="AA6">
         <f t="shared" si="3"/>
@@ -1119,7 +1127,7 @@
       </c>
       <c r="AC6">
         <f t="shared" si="4"/>
-        <v>0.19665706413864481</v>
+        <v>0.19673915696733471</v>
       </c>
       <c r="AD6">
         <f t="shared" si="5"/>
@@ -1176,10 +1184,10 @@
         <v>0.17598491936641295</v>
       </c>
       <c r="R7" s="2">
-        <v>0.18425711902941619</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0.20223708964224799</v>
+        <v>0.23015901769992106</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0.20423708964224799</v>
       </c>
       <c r="T7" s="2">
         <v>0.1685259039296971</v>
@@ -1192,23 +1200,23 @@
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
-        <v>0.17737138214944564</v>
+        <v>0.48682333904703651</v>
       </c>
       <c r="X7">
         <f t="shared" si="1"/>
-        <v>2.2721437293070135E-2</v>
+        <v>0.24394011021464768</v>
       </c>
       <c r="Z7">
         <f t="shared" si="2"/>
-        <v>0.26014906122046799</v>
+        <v>0.27830294839908615</v>
       </c>
       <c r="AA7">
         <f t="shared" si="3"/>
-        <v>9.1991185658438251E-2</v>
+        <v>0.10180886826873839</v>
       </c>
       <c r="AC7">
         <f t="shared" si="4"/>
-        <v>0.21023600472120732</v>
+        <v>0.21031279725618698</v>
       </c>
       <c r="AD7">
         <f t="shared" si="5"/>
@@ -1265,7 +1273,7 @@
         <v>0.17751380367522451</v>
       </c>
       <c r="R8" s="2">
-        <v>0.16742654762529049</v>
+        <v>0.23141983796002405</v>
       </c>
       <c r="S8" s="2">
         <v>0.19019293805441631</v>
@@ -1281,15 +1289,15 @@
       </c>
       <c r="W8">
         <f t="shared" si="0"/>
-        <v>0.17123926729487882</v>
+        <v>0.57790097835609688</v>
       </c>
       <c r="X8">
         <f t="shared" si="1"/>
-        <v>2.0583716751152396E-2</v>
+        <v>0.34091268755867582</v>
       </c>
       <c r="Z8">
         <f t="shared" si="2"/>
-        <v>0.17312765190657239</v>
+        <v>0.17325088580220829</v>
       </c>
       <c r="AA8">
         <f t="shared" si="3"/>
@@ -1297,7 +1305,7 @@
       </c>
       <c r="AC8">
         <f t="shared" si="4"/>
-        <v>0.13410007761244705</v>
+        <v>0.13422043743130488</v>
       </c>
       <c r="AD8">
         <f t="shared" si="5"/>
@@ -1354,7 +1362,7 @@
         <v>0.17751380367522451</v>
       </c>
       <c r="R9" s="2">
-        <v>0.16742654762529049</v>
+        <v>0.24764233911922676</v>
       </c>
       <c r="S9" s="2">
         <v>0.19019293805441631</v>
@@ -1370,15 +1378,15 @@
       </c>
       <c r="W9">
         <f t="shared" si="0"/>
-        <v>0.13683675027008263</v>
+        <v>0.62384112398880265</v>
       </c>
       <c r="X9">
         <f t="shared" si="1"/>
-        <v>9.9851263119424029E-3</v>
+        <v>0.39612089475335449</v>
       </c>
       <c r="Z9">
         <f t="shared" si="2"/>
-        <v>0.14101607585132828</v>
+        <v>0.14116734475463544</v>
       </c>
       <c r="AA9">
         <f t="shared" si="3"/>
@@ -1386,7 +1394,7 @@
       </c>
       <c r="AC9">
         <f t="shared" si="4"/>
-        <v>0.13410007761244705</v>
+        <v>0.13422043743130488</v>
       </c>
       <c r="AD9">
         <f t="shared" si="5"/>
@@ -1443,7 +1451,7 @@
         <v>0.26691132865328249</v>
       </c>
       <c r="R10" s="2">
-        <v>0.208072110342296</v>
+        <v>0.24764233911922676</v>
       </c>
       <c r="S10" s="2">
         <v>0.26342512054327966</v>
@@ -1459,15 +1467,15 @@
       </c>
       <c r="W10">
         <f t="shared" si="0"/>
-        <v>0.21524959292693441</v>
+        <v>0.45162840813696831</v>
       </c>
       <c r="X10">
         <f t="shared" si="1"/>
-        <v>3.7593217342676413E-2</v>
+        <v>0.21091136581007383</v>
       </c>
       <c r="Z10">
         <f t="shared" si="2"/>
-        <v>0.28627341628341563</v>
+        <v>0.28634796043824773</v>
       </c>
       <c r="AA10">
         <f t="shared" si="3"/>
@@ -1475,7 +1483,7 @@
       </c>
       <c r="AC10">
         <f t="shared" si="4"/>
-        <v>0.1884635630286251</v>
+        <v>0.18854922327612772</v>
       </c>
       <c r="AD10">
         <f t="shared" si="5"/>
@@ -1532,7 +1540,7 @@
         <v>0.26691132865328249</v>
       </c>
       <c r="R11" s="2">
-        <v>0.208072110342296</v>
+        <v>0.21961688420117131</v>
       </c>
       <c r="S11" s="2">
         <v>0.26342512054327966</v>
@@ -1548,15 +1556,15 @@
       </c>
       <c r="W11">
         <f t="shared" si="0"/>
-        <v>0.21524959292693441</v>
+        <v>0.290844285989936</v>
       </c>
       <c r="X11">
         <f t="shared" si="1"/>
-        <v>3.7593217342676413E-2</v>
+        <v>9.1533545466737531E-2</v>
       </c>
       <c r="Z11">
         <f t="shared" si="2"/>
-        <v>0.28627341628341563</v>
+        <v>0.28634796043824773</v>
       </c>
       <c r="AA11">
         <f t="shared" si="3"/>
@@ -1564,7 +1572,7 @@
       </c>
       <c r="AC11">
         <f t="shared" si="4"/>
-        <v>0.1884635630286251</v>
+        <v>0.18854922327612772</v>
       </c>
       <c r="AD11">
         <f t="shared" si="5"/>
@@ -1621,7 +1629,7 @@
         <v>0.17068392531560675</v>
       </c>
       <c r="R12" s="2">
-        <v>0.18154830058125737</v>
+        <v>0.23811271783350538</v>
       </c>
       <c r="S12" s="2">
         <v>0.17094913882280205</v>
@@ -1637,15 +1645,15 @@
       </c>
       <c r="W12">
         <f t="shared" si="0"/>
-        <v>0.50230646422134984</v>
+        <v>0.70563030763879464</v>
       </c>
       <c r="X12">
         <f t="shared" si="1"/>
-        <v>0.24357261408601971</v>
+        <v>0.50485727783216183</v>
       </c>
       <c r="Z12">
         <f t="shared" si="2"/>
-        <v>0.21422291429120591</v>
+        <v>0.21432252001127619</v>
       </c>
       <c r="AA12">
         <f t="shared" si="3"/>
@@ -1653,7 +1661,7 @@
       </c>
       <c r="AC12">
         <f t="shared" si="4"/>
-        <v>0.15190701665394074</v>
+        <v>0.15180068082888865</v>
       </c>
       <c r="AD12">
         <f t="shared" si="5"/>
@@ -1710,7 +1718,7 @@
         <v>0.16288071616646149</v>
       </c>
       <c r="R13" s="2">
-        <v>0.18154830058125737</v>
+        <v>0.19658009628972339</v>
       </c>
       <c r="S13" s="2">
         <v>0.17094913882280205</v>
@@ -1726,15 +1734,15 @@
       </c>
       <c r="W13">
         <f t="shared" si="0"/>
-        <v>0.50175960342469239</v>
+        <v>0.56038933285193293</v>
       </c>
       <c r="X13">
         <f t="shared" si="1"/>
-        <v>0.24302352971637009</v>
+        <v>0.32097935114797638</v>
       </c>
       <c r="Z13">
         <f t="shared" si="2"/>
-        <v>0.341407136488725</v>
+        <v>0.34146964494958765</v>
       </c>
       <c r="AA13">
         <f t="shared" si="3"/>
@@ -1742,7 +1750,7 @@
       </c>
       <c r="AC13">
         <f t="shared" si="4"/>
-        <v>0.2642776843407364</v>
+        <v>0.26421657675459237</v>
       </c>
       <c r="AD13">
         <f t="shared" si="5"/>
@@ -1799,7 +1807,7 @@
         <v>0.15794061010631544</v>
       </c>
       <c r="R14" s="2">
-        <v>0.17238276461561391</v>
+        <v>0.19658009628972339</v>
       </c>
       <c r="S14" s="2">
         <v>0.17874121869462739</v>
@@ -1815,15 +1823,15 @@
       </c>
       <c r="W14">
         <f t="shared" si="0"/>
-        <v>0.1528906511456396</v>
+        <v>0.37254173316355316</v>
       </c>
       <c r="X14">
         <f t="shared" si="1"/>
-        <v>1.4636381295203114E-2</v>
+        <v>0.14573048972224587</v>
       </c>
       <c r="Z14">
         <f t="shared" si="2"/>
-        <v>0.1346890284422608</v>
+        <v>0.13484739507786817</v>
       </c>
       <c r="AA14">
         <f t="shared" si="3"/>
@@ -1831,7 +1839,7 @@
       </c>
       <c r="AC14">
         <f t="shared" si="4"/>
-        <v>0.14758806069416658</v>
+        <v>0.14747861082502264</v>
       </c>
       <c r="AD14">
         <f t="shared" si="5"/>
@@ -1888,7 +1896,7 @@
         <v>0.16488172373439908</v>
       </c>
       <c r="R15" s="2">
-        <v>0.17238276461561391</v>
+        <v>0.19789865631158265</v>
       </c>
       <c r="S15" s="2">
         <v>0.17874121869462739</v>
@@ -1904,15 +1912,15 @@
       </c>
       <c r="W15">
         <f t="shared" si="0"/>
-        <v>0.22538974190933508</v>
+        <v>0.41554401176446132</v>
       </c>
       <c r="X15">
         <f t="shared" si="1"/>
-        <v>4.2061365845422125E-2</v>
+        <v>0.17961997248704459</v>
       </c>
       <c r="Z15">
         <f t="shared" si="2"/>
-        <v>0.16675161143044329</v>
+        <v>0.16687955384413056</v>
       </c>
       <c r="AA15">
         <f t="shared" si="3"/>
@@ -1920,7 +1928,7 @@
       </c>
       <c r="AC15">
         <f t="shared" si="4"/>
-        <v>0.14568941667154689</v>
+        <v>0.14580020966611165</v>
       </c>
       <c r="AD15">
         <f t="shared" si="5"/>
@@ -1967,8 +1975,8 @@
       <c r="N16">
         <v>1.5</v>
       </c>
-      <c r="O16" s="2">
-        <v>0.19090173485722489</v>
+      <c r="O16" s="3">
+        <v>0.18967868005453775</v>
       </c>
       <c r="P16" s="2">
         <v>0.17442994591767455</v>
@@ -1977,7 +1985,7 @@
         <v>0.1807635205054676</v>
       </c>
       <c r="R16" s="2">
-        <v>0.18533363556323451</v>
+        <v>0.19789865631158265</v>
       </c>
       <c r="S16" s="2">
         <v>0.18719834780496689</v>
@@ -1993,15 +2001,15 @@
       </c>
       <c r="W16">
         <f t="shared" si="0"/>
-        <v>0.14442939789299938</v>
+        <v>0.18834561742152664</v>
       </c>
       <c r="X16">
         <f t="shared" si="1"/>
-        <v>-2.9599020888268889E-2</v>
+        <v>4.241721837563793E-2</v>
       </c>
       <c r="Z16">
         <f t="shared" si="2"/>
-        <v>0.21518019152197321</v>
+        <v>0.21508098299679249</v>
       </c>
       <c r="AA16">
         <f t="shared" si="3"/>
@@ -2009,7 +2017,7 @@
       </c>
       <c r="AC16">
         <f t="shared" si="4"/>
-        <v>0.2183052662696871</v>
+        <v>0.21837922128642528</v>
       </c>
       <c r="AD16">
         <f t="shared" si="5"/>
@@ -2056,8 +2064,8 @@
       <c r="N17">
         <v>1.5</v>
       </c>
-      <c r="O17" s="2">
-        <v>0.18512635946185396</v>
+      <c r="O17" s="3">
+        <v>0.18985256045794024</v>
       </c>
       <c r="P17" s="2">
         <v>0.18521391991979422</v>
@@ -2066,7 +2074,7 @@
         <v>0.18714146984831004</v>
       </c>
       <c r="R17" s="2">
-        <v>0.18533363556323451</v>
+        <v>0.16946092040003535</v>
       </c>
       <c r="S17" s="2">
         <v>0.18719834780496689</v>
@@ -2082,15 +2090,15 @@
       </c>
       <c r="W17">
         <f t="shared" si="0"/>
-        <v>9.9288418620410449E-2</v>
+        <v>0.34705401104558914</v>
       </c>
       <c r="X17">
         <f t="shared" si="1"/>
-        <v>1.119020159607311E-3</v>
+        <v>-0.11350333980909007</v>
       </c>
       <c r="Z17">
         <f t="shared" si="2"/>
-        <v>0.11686100819766271</v>
+        <v>0.11704349966376054</v>
       </c>
       <c r="AA17">
         <f t="shared" si="3"/>
@@ -2098,7 +2106,7 @@
       </c>
       <c r="AC17">
         <f t="shared" si="4"/>
-        <v>0.22020203699491037</v>
+        <v>0.22027535519275504</v>
       </c>
       <c r="AD17">
         <f t="shared" si="5"/>
@@ -2155,7 +2163,7 @@
         <v>0.17243074142742013</v>
       </c>
       <c r="R18" s="2">
-        <v>0.14899134401961814</v>
+        <v>0.16946092040003535</v>
       </c>
       <c r="S18" s="2">
         <v>0.18340861023327576</v>
@@ -2171,15 +2179,15 @@
       </c>
       <c r="W18">
         <f t="shared" si="0"/>
-        <v>0.37167011692647212</v>
+        <v>0.15922075751529768</v>
       </c>
       <c r="X18">
         <f t="shared" si="1"/>
-        <v>-0.14687784572867202</v>
+        <v>-1.8408102850003379E-2</v>
       </c>
       <c r="Z18">
         <f t="shared" si="2"/>
-        <v>0.12852234514991273</v>
+        <v>0.12835617486613868</v>
       </c>
       <c r="AA18">
         <f t="shared" si="3"/>
@@ -2187,7 +2195,7 @@
       </c>
       <c r="AC18">
         <f t="shared" si="4"/>
-        <v>0.21931494365930543</v>
+        <v>0.21938855831804638</v>
       </c>
       <c r="AD18">
         <f t="shared" si="5"/>
@@ -2244,7 +2252,7 @@
         <v>0.16581126123322606</v>
       </c>
       <c r="R19" s="2">
-        <v>0.15355965728310489</v>
+        <v>0.18505083316313295</v>
       </c>
       <c r="S19" s="2">
         <v>0.18381267169309834</v>
@@ -2260,15 +2268,15 @@
       </c>
       <c r="W19">
         <f t="shared" si="0"/>
-        <v>0.30688142469050345</v>
+        <v>0.27666473200494812</v>
       </c>
       <c r="X19">
         <f t="shared" si="1"/>
-        <v>-0.10291537873260768</v>
+        <v>8.3486520709111611E-2</v>
       </c>
       <c r="Z19">
         <f t="shared" si="2"/>
-        <v>0.1333773305487051</v>
+        <v>0.13353725278312814</v>
       </c>
       <c r="AA19">
         <f t="shared" si="3"/>
@@ -2276,7 +2284,7 @@
       </c>
       <c r="AC19">
         <f t="shared" si="4"/>
-        <v>0.22030687193169229</v>
+        <v>0.22038015525204077</v>
       </c>
       <c r="AD19">
         <f t="shared" si="5"/>
@@ -2333,7 +2341,7 @@
         <v>0.16221645056966533</v>
       </c>
       <c r="R20" s="2">
-        <v>0.14313258191699005</v>
+        <v>0.18505083316313295</v>
       </c>
       <c r="S20" s="2">
         <v>0.17319821698756341</v>
@@ -2349,15 +2357,15 @@
       </c>
       <c r="W20">
         <f t="shared" si="0"/>
-        <v>0.16427378909457521</v>
+        <v>0.46183386916783165</v>
       </c>
       <c r="X20">
         <f t="shared" si="1"/>
-        <v>-3.5725047696023533E-2</v>
+        <v>0.22023366948427167</v>
       </c>
       <c r="Z20">
         <f t="shared" si="2"/>
-        <v>0.18914414777128027</v>
+        <v>0.18903127534764555</v>
       </c>
       <c r="AA20">
         <f t="shared" si="3"/>
@@ -2365,7 +2373,7 @@
       </c>
       <c r="AC20">
         <f t="shared" si="4"/>
-        <v>2.5172462449791558E-2</v>
+        <v>2.4522598907939036E-2</v>
       </c>
       <c r="AD20">
         <f t="shared" si="5"/>
@@ -2422,7 +2430,7 @@
         <v>0.16221645056966533</v>
       </c>
       <c r="R21" s="2">
-        <v>0.14524400000000001</v>
+        <v>0.20385188471867258</v>
       </c>
       <c r="S21" s="2">
         <v>0.17319821698756341</v>
@@ -2438,15 +2446,15 @@
       </c>
       <c r="W21">
         <f t="shared" si="0"/>
-        <v>0.11967416760610702</v>
+        <v>0.55350866879761607</v>
       </c>
       <c r="X21">
         <f t="shared" si="1"/>
-        <v>-2.3061076304749153E-2</v>
+        <v>0.31331499320785094</v>
       </c>
       <c r="Z21">
         <f t="shared" si="2"/>
-        <v>0.18914414777128027</v>
+        <v>0.18903127534764555</v>
       </c>
       <c r="AA21">
         <f t="shared" si="3"/>
@@ -2454,7 +2462,7 @@
       </c>
       <c r="AC21">
         <f t="shared" si="4"/>
-        <v>2.5172462449791558E-2</v>
+        <v>2.4522598907939036E-2</v>
       </c>
       <c r="AD21">
         <f t="shared" si="5"/>
@@ -2511,7 +2519,7 @@
         <v>0.2370094872460104</v>
       </c>
       <c r="R22" s="2">
-        <v>0.19340646031248793</v>
+        <v>0.20385188471867258</v>
       </c>
       <c r="S22" s="2">
         <v>0.21981205211996091</v>
@@ -2527,15 +2535,15 @@
       </c>
       <c r="W22">
         <f t="shared" si="0"/>
-        <v>0.40755193886038388</v>
+        <v>0.35982632406461723</v>
       </c>
       <c r="X22">
         <f t="shared" si="1"/>
-        <v>-0.17483775278139266</v>
+        <v>-0.12253183671611312</v>
       </c>
       <c r="Z22">
         <f t="shared" si="2"/>
-        <v>0.3514004731584906</v>
+        <v>0.35146120427805061</v>
       </c>
       <c r="AA22">
         <f t="shared" si="3"/>
@@ -2543,7 +2551,7 @@
       </c>
       <c r="AC22">
         <f t="shared" si="4"/>
-        <v>0.49995368575827009</v>
+        <v>0.49998598271538131</v>
       </c>
       <c r="AD22">
         <f t="shared" si="5"/>
@@ -2600,7 +2608,7 @@
         <v>0.23998601235654868</v>
       </c>
       <c r="R23" s="2">
-        <v>0.19340646031248793</v>
+        <v>0.2232676340949111</v>
       </c>
       <c r="S23" s="2">
         <v>0.2138971957644942</v>
@@ -2616,15 +2624,15 @@
       </c>
       <c r="W23">
         <f t="shared" si="0"/>
-        <v>0.37487331155407561</v>
+        <v>0.11363612706604481</v>
       </c>
       <c r="X23">
         <f t="shared" si="1"/>
-        <v>-0.14926916962805359</v>
+        <v>-5.9700226008284384E-3</v>
       </c>
       <c r="Z23">
         <f t="shared" si="2"/>
-        <v>0.40561543282635487</v>
+        <v>0.40566804769845716</v>
       </c>
       <c r="AA23">
         <f t="shared" si="3"/>
@@ -2632,7 +2640,7 @@
       </c>
       <c r="AC23">
         <f t="shared" si="4"/>
-        <v>0.48013336347596602</v>
+        <v>0.48016699358799186</v>
       </c>
       <c r="AD23">
         <f t="shared" si="5"/>
@@ -2689,7 +2697,7 @@
         <v>0.2350017866901451</v>
       </c>
       <c r="R24" s="2">
-        <v>0.2299702812860526</v>
+        <v>0.2232676340949111</v>
       </c>
       <c r="S24" s="2">
         <v>0.24332523108153614</v>
@@ -2705,15 +2713,15 @@
       </c>
       <c r="W24">
         <f t="shared" si="0"/>
-        <v>9.7482497932942808E-2</v>
+        <v>0.18909354729613218</v>
       </c>
       <c r="X24">
         <f t="shared" si="1"/>
-        <v>7.6366749071164178E-4</v>
+        <v>-2.8813222855292735E-2</v>
       </c>
       <c r="Z24">
         <f t="shared" si="2"/>
-        <v>0.10245513017062848</v>
+        <v>0.10266323234170521</v>
       </c>
       <c r="AA24">
         <f t="shared" si="3"/>
@@ -2721,7 +2729,7 @@
       </c>
       <c r="AC24">
         <f t="shared" si="4"/>
-        <v>0.25572217585972873</v>
+        <v>0.25578531278206834</v>
       </c>
       <c r="AD24">
         <f t="shared" si="5"/>
@@ -2778,7 +2786,7 @@
         <v>0.22781593186096194</v>
       </c>
       <c r="R25" s="2">
-        <v>0.2299702812860526</v>
+        <v>0.19158722448236082</v>
       </c>
       <c r="S25" s="2">
         <v>0.24332523108153614</v>
@@ -2794,15 +2802,15 @@
       </c>
       <c r="W25">
         <f t="shared" si="0"/>
-        <v>0.15207057662228421</v>
+        <v>0.41805255439290673</v>
       </c>
       <c r="X25">
         <f t="shared" si="1"/>
-        <v>1.4386290361699453E-2</v>
+        <v>-0.1678247914606924</v>
       </c>
       <c r="Z25">
         <f t="shared" si="2"/>
-        <v>0.21854730644181783</v>
+        <v>0.2186449421540328</v>
       </c>
       <c r="AA25">
         <f t="shared" si="3"/>
@@ -2810,7 +2818,7 @@
       </c>
       <c r="AC25">
         <f t="shared" si="4"/>
-        <v>0.18535897623388331</v>
+        <v>0.18544607054089829</v>
       </c>
       <c r="AD25">
         <f t="shared" si="5"/>
@@ -2867,7 +2875,7 @@
         <v>0.19607933902676655</v>
       </c>
       <c r="R26" s="2">
-        <v>0.21316738804034027</v>
+        <v>0.19075299431024681</v>
       </c>
       <c r="S26" s="2">
         <v>0.23425754088949491</v>
@@ -2883,15 +2891,15 @@
       </c>
       <c r="W26">
         <f t="shared" si="0"/>
-        <v>0.3140028012972329</v>
+        <v>0.16769489321975703</v>
       </c>
       <c r="X26">
         <f t="shared" si="1"/>
-        <v>8.9858589309974979E-2</v>
+        <v>-2.1178430438243866E-2</v>
       </c>
       <c r="Z26">
         <f t="shared" si="2"/>
-        <v>9.8897645858547739E-2</v>
+        <v>9.9113217750859295E-2</v>
       </c>
       <c r="AA26">
         <f t="shared" si="3"/>
@@ -2899,7 +2907,7 @@
       </c>
       <c r="AC26">
         <f t="shared" si="4"/>
-        <v>0.37494628315881351</v>
+        <v>0.37490321450478742</v>
       </c>
       <c r="AD26">
         <f t="shared" si="5"/>
@@ -2955,8 +2963,8 @@
       <c r="Q27" s="2">
         <v>0.19607933902676655</v>
       </c>
-      <c r="R27" s="2">
-        <v>0.21316738804034027</v>
+      <c r="R27" s="3">
+        <v>0.21328708482603681</v>
       </c>
       <c r="S27" s="2">
         <v>0.23425754088949491</v>
@@ -2972,15 +2980,15 @@
       </c>
       <c r="W27">
         <f t="shared" si="0"/>
-        <v>0.25363713673910671</v>
+        <v>0.22183417277008888</v>
       </c>
       <c r="X27">
         <f t="shared" si="1"/>
-        <v>5.5592627220677766E-2</v>
+        <v>5.6153546982331486E-2</v>
       </c>
       <c r="Z27">
         <f t="shared" si="2"/>
-        <v>0.14649577439060427</v>
+        <v>0.14635001311150025</v>
       </c>
       <c r="AA27">
         <f t="shared" si="3"/>
@@ -2988,7 +2996,7 @@
       </c>
       <c r="AC27">
         <f t="shared" si="4"/>
-        <v>0.37494628315881351</v>
+        <v>0.37490321450478742</v>
       </c>
       <c r="AD27">
         <f t="shared" si="5"/>
@@ -3045,7 +3053,7 @@
         <v>0.21667928159793334</v>
       </c>
       <c r="R28" s="2">
-        <v>0.22499283654138075</v>
+        <v>0.21026524351536</v>
       </c>
       <c r="S28" s="2">
         <v>0.22611619068056238</v>
@@ -3061,15 +3069,15 @@
       </c>
       <c r="W28">
         <f t="shared" si="0"/>
-        <v>0.22690454054361497</v>
+        <v>0.17857101603118714</v>
       </c>
       <c r="X28">
         <f t="shared" si="1"/>
-        <v>4.274650060677445E-2</v>
+        <v>-2.494446099266865E-2</v>
       </c>
       <c r="Z28">
         <f t="shared" si="2"/>
-        <v>0.22988552815666469</v>
+        <v>0.22997835035593067</v>
       </c>
       <c r="AA28">
         <f t="shared" si="3"/>
@@ -3077,7 +3085,7 @@
       </c>
       <c r="AC28">
         <f t="shared" si="4"/>
-        <v>0.27962349298704725</v>
+        <v>0.27956573971374027</v>
       </c>
       <c r="AD28">
         <f t="shared" si="5"/>
@@ -3133,8 +3141,8 @@
       <c r="Q29" s="2">
         <v>0.21667928159793334</v>
       </c>
-      <c r="R29" s="2">
-        <v>0.22153845496221553</v>
+      <c r="R29" s="3">
+        <v>0.24047038871930182</v>
       </c>
       <c r="S29" s="2">
         <v>0.22540076990378619</v>
@@ -3150,15 +3158,15 @@
       </c>
       <c r="W29">
         <f t="shared" si="0"/>
-        <v>0.18978438153331645</v>
+        <v>0.31973368821816145</v>
       </c>
       <c r="X29">
         <f t="shared" si="1"/>
-        <v>2.7278941561448868E-2</v>
+        <v>0.1091727781553303</v>
       </c>
       <c r="Z29">
         <f t="shared" si="2"/>
-        <v>0.23667615987942903</v>
+        <v>0.23676631988490165</v>
       </c>
       <c r="AA29">
         <f t="shared" si="3"/>
@@ -3166,7 +3174,7 @@
       </c>
       <c r="AC29">
         <f t="shared" si="4"/>
-        <v>0.26104294111038645</v>
+        <v>0.26098107612425503</v>
       </c>
       <c r="AD29">
         <f t="shared" si="5"/>
@@ -3222,8 +3230,8 @@
       <c r="Q30" s="2">
         <v>0.19622030177910013</v>
       </c>
-      <c r="R30" s="2">
-        <v>0.20081431052970042</v>
+      <c r="R30" s="3">
+        <v>0.23880963090434401</v>
       </c>
       <c r="S30" s="2">
         <v>0.2217624474908782</v>
@@ -3239,15 +3247,15 @@
       </c>
       <c r="W30">
         <f t="shared" si="0"/>
-        <v>6.836558633624884E-2</v>
+        <v>0.39062774488356011</v>
       </c>
       <c r="X30">
         <f t="shared" si="1"/>
-        <v>-1.3413023307633651E-2</v>
+        <v>0.15953318184655757</v>
       </c>
       <c r="Z30">
         <f t="shared" si="2"/>
-        <v>5.8141772091544884E-2</v>
+        <v>5.8507702386195883E-2</v>
       </c>
       <c r="AA30">
         <f t="shared" si="3"/>
@@ -3255,7 +3263,7 @@
       </c>
       <c r="AC30">
         <f t="shared" si="4"/>
-        <v>6.7786272546773732E-2</v>
+        <v>6.8024067464185073E-2</v>
       </c>
       <c r="AD30">
         <f t="shared" si="5"/>
@@ -3312,7 +3320,7 @@
         <v>0.20126198587290722</v>
       </c>
       <c r="R31" s="2">
-        <v>0.19886213145634499</v>
+        <v>0.23610352190617082</v>
       </c>
       <c r="S31" s="2">
         <v>0.21562871586562082</v>
@@ -3328,15 +3336,15 @@
       </c>
       <c r="W31">
         <f t="shared" si="0"/>
-        <v>8.5951059298337781E-2</v>
+        <v>0.40367487230755805</v>
       </c>
       <c r="X31">
         <f t="shared" si="1"/>
-        <v>-1.3515853180281795E-3</v>
+        <v>0.16989654930626513</v>
       </c>
       <c r="Z31">
         <f t="shared" si="2"/>
-        <v>0.13635454612285389</v>
+        <v>0.13651098060206004</v>
       </c>
       <c r="AA31">
         <f t="shared" si="3"/>
@@ -3344,7 +3352,7 @@
       </c>
       <c r="AC31">
         <f t="shared" si="4"/>
-        <v>0.17309648028750022</v>
+        <v>0.17318974131428069</v>
       </c>
       <c r="AD31">
         <f t="shared" si="5"/>
@@ -3401,7 +3409,7 @@
         <v>0.20677338988816457</v>
       </c>
       <c r="R32" s="2">
-        <v>0.20170091167841511</v>
+        <v>0.23610352190617082</v>
       </c>
       <c r="S32" s="2">
         <v>0.22133632955028457</v>
@@ -3417,15 +3425,15 @@
       </c>
       <c r="W32">
         <f t="shared" si="0"/>
-        <v>0.29995945585396822</v>
+        <v>0.22744072890199177</v>
       </c>
       <c r="X32">
         <f t="shared" si="1"/>
-        <v>-9.871484506874327E-2</v>
+        <v>5.8672431937211153E-2</v>
       </c>
       <c r="Z32">
         <f t="shared" si="2"/>
-        <v>0.19786123030005309</v>
+        <v>0.1979690683728576</v>
       </c>
       <c r="AA32">
         <f t="shared" si="3"/>
@@ -3433,7 +3441,7 @@
       </c>
       <c r="AC32">
         <f t="shared" si="4"/>
-        <v>0.17886444820217215</v>
+        <v>0.17877414752161735</v>
       </c>
       <c r="AD32">
         <f t="shared" si="5"/>
@@ -3490,7 +3498,7 @@
         <v>0.20761443000347762</v>
       </c>
       <c r="R33" s="2">
-        <v>0.19464381301094619</v>
+        <v>0.19090705013275633</v>
       </c>
       <c r="S33" s="2">
         <v>0.20359161044993626</v>
@@ -3506,15 +3514,15 @@
       </c>
       <c r="W33">
         <f t="shared" si="0"/>
-        <v>0.32513017297391777</v>
+        <v>0.37510236098777378</v>
       </c>
       <c r="X33">
         <f t="shared" si="1"/>
-        <v>-0.11444879929058423</v>
+        <v>-0.13375863444486033</v>
       </c>
       <c r="Z33">
         <f t="shared" si="2"/>
-        <v>0.27256348146133186</v>
+        <v>0.27264177413391427</v>
       </c>
       <c r="AA33">
         <f t="shared" si="3"/>
@@ -3522,7 +3530,7 @@
       </c>
       <c r="AC33">
         <f t="shared" si="4"/>
-        <v>6.5206208806075361E-2</v>
+        <v>6.4958099250786161E-2</v>
       </c>
       <c r="AD33">
         <f t="shared" si="5"/>
@@ -3579,7 +3587,7 @@
         <v>0.19947490827118722</v>
       </c>
       <c r="R34" s="2">
-        <v>0.18035200733885706</v>
+        <v>0.19090705013275633</v>
       </c>
       <c r="S34" s="2">
         <v>0.22520177578811987</v>
@@ -3595,15 +3603,15 @@
       </c>
       <c r="W34">
         <f t="shared" si="0"/>
-        <v>0.22281816304973784</v>
+        <v>9.2036526331563895E-2</v>
       </c>
       <c r="X34">
         <f t="shared" si="1"/>
-        <v>-5.838710369739411E-2</v>
+        <v>-1.5275754054388099E-3</v>
       </c>
       <c r="Z34">
         <f t="shared" si="2"/>
-        <v>0.1618185036391154</v>
+        <v>0.16168655647095673</v>
       </c>
       <c r="AA34">
         <f t="shared" si="3"/>
@@ -3611,7 +3619,7 @@
       </c>
       <c r="AC34">
         <f t="shared" si="4"/>
-        <v>0.21000042737523322</v>
+        <v>0.21007730602415656</v>
       </c>
       <c r="AD34">
         <f t="shared" si="5"/>
@@ -3668,7 +3676,7 @@
         <v>0.19947490827118722</v>
       </c>
       <c r="R35" s="2">
-        <v>0.18035200733885706</v>
+        <v>0.22679848620548801</v>
       </c>
       <c r="S35" s="2">
         <v>0.22520177578811987</v>
@@ -3684,15 +3692,15 @@
       </c>
       <c r="W35">
         <f t="shared" si="0"/>
-        <v>0.22281816304973784</v>
+        <v>0.40421637435963587</v>
       </c>
       <c r="X35">
         <f t="shared" si="1"/>
-        <v>-5.838710369739411E-2</v>
+        <v>0.1703340240741911</v>
       </c>
       <c r="Z35">
         <f t="shared" si="2"/>
-        <v>0.1618185036391154</v>
+        <v>0.16168655647095673</v>
       </c>
       <c r="AA35">
         <f t="shared" si="3"/>
@@ -3700,7 +3708,7 @@
       </c>
       <c r="AC35">
         <f t="shared" si="4"/>
-        <v>0.21000042737523322</v>
+        <v>0.21007730602415656</v>
       </c>
       <c r="AD35">
         <f t="shared" si="5"/>
@@ -3753,7 +3761,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2">
-        <v>0.20519976969126569</v>
+        <v>0.23573080429346596</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
@@ -3765,11 +3773,11 @@
       </c>
       <c r="W36">
         <f t="shared" si="0"/>
-        <v>0.24565944308479704</v>
+        <v>0.25023999010317277</v>
       </c>
       <c r="X36">
         <f t="shared" si="1"/>
-        <v>-6.9087731889267187E-2</v>
+        <v>6.9563199420577843E-2</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
@@ -3818,7 +3826,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2">
-        <v>0.20519976969126569</v>
+        <v>0.20781947370817902</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
@@ -3830,11 +3838,11 @@
       </c>
       <c r="W37">
         <f t="shared" si="0"/>
-        <v>0.24565944308479704</v>
+        <v>0.25170938093010636</v>
       </c>
       <c r="X37">
         <f t="shared" si="1"/>
-        <v>-6.9087731889267187E-2</v>
+        <v>-5.6414465674475556E-2</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
@@ -3887,7 +3895,7 @@
         <v>0.21474404156017646</v>
       </c>
       <c r="R38" s="2">
-        <v>0.23015901769992106</v>
+        <v>0.20781947370817902</v>
       </c>
       <c r="S38" s="2">
         <v>0.24464268149802104</v>
@@ -3903,15 +3911,15 @@
       </c>
       <c r="W38">
         <f t="shared" si="0"/>
-        <v>0.15641776352172815</v>
+        <v>0.37689054308175579</v>
       </c>
       <c r="X38">
         <f t="shared" si="1"/>
-        <v>-3.3205686657673823E-2</v>
+        <v>-0.13510333469071897</v>
       </c>
       <c r="Z38">
         <f t="shared" si="2"/>
-        <v>0.27270985320263447</v>
+        <v>0.27263158008058408</v>
       </c>
       <c r="AA38">
         <f t="shared" si="3"/>
@@ -3919,7 +3927,7 @@
       </c>
       <c r="AC38">
         <f t="shared" si="4"/>
-        <v>0.16217442534834847</v>
+        <v>0.16227396354823398</v>
       </c>
       <c r="AD38">
         <f t="shared" si="5"/>
@@ -3976,7 +3984,7 @@
         <v>0.21374625660331531</v>
       </c>
       <c r="R39" s="2">
-        <v>0.23141983796002405</v>
+        <v>0.20602503953709175</v>
       </c>
       <c r="S39" s="2">
         <v>0.24464268274002399</v>
@@ -3992,15 +4000,15 @@
       </c>
       <c r="W39">
         <f t="shared" si="0"/>
-        <v>0.10964603161929885</v>
+        <v>0.37911380190793076</v>
       </c>
       <c r="X39">
         <f t="shared" si="1"/>
-        <v>-2.0761422162394839E-2</v>
+        <v>-0.13678412802334391</v>
       </c>
       <c r="Z39">
         <f t="shared" si="2"/>
-        <v>0.21406054366511992</v>
+        <v>0.2139608159865731</v>
       </c>
       <c r="AA39">
         <f t="shared" si="3"/>
@@ -4008,7 +4016,7 @@
       </c>
       <c r="AC39">
         <f t="shared" si="4"/>
-        <v>0.180146202134818</v>
+        <v>0.18023581539800909</v>
       </c>
       <c r="AD39">
         <f t="shared" si="5"/>
@@ -4065,7 +4073,7 @@
         <v>0.20869977574947976</v>
       </c>
       <c r="R40" s="2">
-        <v>0.24764233911922676</v>
+        <v>0.20380160809013076</v>
       </c>
       <c r="S40" s="2">
         <v>0.24039665866724813</v>
@@ -4081,15 +4089,15 @@
       </c>
       <c r="W40">
         <f t="shared" si="0"/>
-        <v>0.38721079510453038</v>
+        <v>0.24564338033480465</v>
       </c>
       <c r="X40">
         <f t="shared" si="1"/>
-        <v>0.14119302993294805</v>
+        <v>-5.339752352856765E-2</v>
       </c>
       <c r="Z40">
         <f t="shared" si="2"/>
-        <v>0.37761115999704908</v>
+        <v>0.37755463522217614</v>
       </c>
       <c r="AA40">
         <f t="shared" si="3"/>
@@ -4097,7 +4105,7 @@
       </c>
       <c r="AC40">
         <f t="shared" si="4"/>
-        <v>0.32813505041569557</v>
+        <v>0.32808583679080777</v>
       </c>
       <c r="AD40">
         <f t="shared" si="5"/>
@@ -4154,7 +4162,7 @@
         <v>0.18277221350443534</v>
       </c>
       <c r="R41" s="2">
-        <v>0.24764233911922676</v>
+        <v>0.21012830490066739</v>
       </c>
       <c r="S41" s="2">
         <v>0.24039665866724813</v>
@@ -4170,15 +4178,15 @@
       </c>
       <c r="W41">
         <f t="shared" si="0"/>
-        <v>0.39410552846151486</v>
+        <v>0.15609809687424336</v>
       </c>
       <c r="X41">
         <f t="shared" si="1"/>
-        <v>0.14657999765139532</v>
+        <v>-1.7423469074018823E-2</v>
       </c>
       <c r="Z41">
         <f t="shared" si="2"/>
-        <v>0.16182766553985936</v>
+        <v>0.16169572584800768</v>
       </c>
       <c r="AA41">
         <f t="shared" si="3"/>
@@ -4186,7 +4194,7 @@
       </c>
       <c r="AC41">
         <f t="shared" si="4"/>
-        <v>0.48915337904304823</v>
+        <v>0.48912036680212517</v>
       </c>
       <c r="AD41">
         <f t="shared" si="5"/>
@@ -4243,7 +4251,7 @@
         <v>0.22005113063662304</v>
       </c>
       <c r="R42" s="2">
-        <v>0.21961688420117131</v>
+        <v>0.21012830490066739</v>
       </c>
       <c r="S42" s="2">
         <v>0.23860435411710157</v>
@@ -4259,15 +4267,15 @@
       </c>
       <c r="W42">
         <f t="shared" si="0"/>
-        <v>0.15925277851856157</v>
+        <v>0.29184483595708255</v>
       </c>
       <c r="X42">
         <f t="shared" si="1"/>
-        <v>-3.4100617378416583E-2</v>
+        <v>-7.823026150107458E-2</v>
       </c>
       <c r="Z42">
         <f t="shared" si="2"/>
-        <v>0.12871848799242822</v>
+        <v>0.12888419114702707</v>
       </c>
       <c r="AA42">
         <f t="shared" si="3"/>
@@ -4275,7 +4283,7 @@
       </c>
       <c r="AC42">
         <f t="shared" si="4"/>
-        <v>0.2537625021520466</v>
+        <v>0.25382612652572623</v>
       </c>
       <c r="AD42">
         <f t="shared" si="5"/>
@@ -4332,7 +4340,7 @@
         <v>0.21091414703382111</v>
       </c>
       <c r="R43" s="2">
-        <v>0.23811271783350538</v>
+        <v>0.2446555964649838</v>
       </c>
       <c r="S43" s="2">
         <v>0.22914890772746593</v>
@@ -4348,15 +4356,15 @@
       </c>
       <c r="W43">
         <f t="shared" si="0"/>
-        <v>0.23069914961767243</v>
+        <v>0.25421226436710559</v>
       </c>
       <c r="X43">
         <f t="shared" si="1"/>
-        <v>4.4482927721782646E-2</v>
+        <v>7.1567022128393026E-2</v>
       </c>
       <c r="Z43">
         <f t="shared" si="2"/>
-        <v>0.15918983422942803</v>
+        <v>0.1593238491204606</v>
       </c>
       <c r="AA43">
         <f t="shared" si="3"/>
@@ -4364,7 +4372,7 @@
       </c>
       <c r="AC43">
         <f t="shared" si="4"/>
-        <v>0.27430236356392729</v>
+        <v>0.27424348970972934</v>
       </c>
       <c r="AD43">
         <f t="shared" si="5"/>
@@ -4421,7 +4429,7 @@
         <v>0.18512595374091267</v>
       </c>
       <c r="R44" s="2">
-        <v>0.19658009628972339</v>
+        <v>0.2446555964649838</v>
       </c>
       <c r="S44" s="2">
         <v>0.20577981536247161</v>
@@ -4437,15 +4445,15 @@
       </c>
       <c r="W44">
         <f t="shared" si="0"/>
-        <v>0.31201358093530213</v>
+        <v>0.32485115635593936</v>
       </c>
       <c r="X44">
         <f t="shared" si="1"/>
-        <v>-0.10609164460060487</v>
+        <v>0.11247142055953281</v>
       </c>
       <c r="Z44">
         <f t="shared" si="2"/>
-        <v>0.30723736047903161</v>
+        <v>0.30730681940153709</v>
       </c>
       <c r="AA44">
         <f t="shared" si="3"/>
@@ -4453,7 +4461,7 @@
       </c>
       <c r="AC44">
         <f t="shared" si="4"/>
-        <v>4.3463285911516512E-2</v>
+        <v>4.3090163769005527E-2</v>
       </c>
       <c r="AD44">
         <f t="shared" si="5"/>
@@ -4526,7 +4534,7 @@
       </c>
       <c r="W45">
         <f t="shared" si="0"/>
-        <v>0.24428101862858892</v>
+        <v>0.27450962232405879</v>
       </c>
       <c r="X45">
         <f t="shared" si="1"/>
@@ -4534,7 +4542,7 @@
       </c>
       <c r="Z45">
         <f t="shared" si="2"/>
-        <v>0.24464220633015646</v>
+        <v>0.24472943160693478</v>
       </c>
       <c r="AA45">
         <f t="shared" si="3"/>
@@ -4542,7 +4550,7 @@
       </c>
       <c r="AC45">
         <f t="shared" si="4"/>
-        <v>4.3463285911516512E-2</v>
+        <v>4.3090163769005527E-2</v>
       </c>
       <c r="AD45">
         <f t="shared" si="5"/>
@@ -4615,7 +4623,7 @@
       </c>
       <c r="W46">
         <f t="shared" si="0"/>
-        <v>0.25106428263327923</v>
+        <v>0.28056298882860425</v>
       </c>
       <c r="X46">
         <f t="shared" si="1"/>
@@ -4623,7 +4631,7 @@
       </c>
       <c r="Z46">
         <f t="shared" si="2"/>
-        <v>0.3585241867144407</v>
+        <v>0.35858371133644323</v>
       </c>
       <c r="AA46">
         <f t="shared" si="3"/>
@@ -4631,7 +4639,7 @@
       </c>
       <c r="AC46">
         <f t="shared" si="4"/>
-        <v>8.0474952069260877E-2</v>
+        <v>8.027404874530325E-2</v>
       </c>
       <c r="AD46">
         <f t="shared" si="5"/>
@@ -4704,7 +4712,7 @@
       </c>
       <c r="W47">
         <f t="shared" si="0"/>
-        <v>0.26879845426743482</v>
+        <v>0.29653823649377603</v>
       </c>
       <c r="X47">
         <f t="shared" si="1"/>
@@ -4712,7 +4720,7 @@
       </c>
       <c r="Z47">
         <f t="shared" si="2"/>
-        <v>0.35194953667671192</v>
+        <v>0.35201017306822074</v>
       </c>
       <c r="AA47">
         <f t="shared" si="3"/>
@@ -4720,7 +4728,7 @@
       </c>
       <c r="AC47">
         <f t="shared" si="4"/>
-        <v>0.18633612062982821</v>
+        <v>0.18624944253013853</v>
       </c>
       <c r="AD47">
         <f t="shared" si="5"/>
@@ -4793,7 +4801,7 @@
       </c>
       <c r="W48">
         <f t="shared" si="0"/>
-        <v>0.22513195273922457</v>
+        <v>0.25761737680221192</v>
       </c>
       <c r="X48">
         <f t="shared" si="1"/>
@@ -4801,7 +4809,7 @@
       </c>
       <c r="Z48">
         <f t="shared" si="2"/>
-        <v>0.25159871697934438</v>
+        <v>0.2516835313686987</v>
       </c>
       <c r="AA48">
         <f t="shared" si="3"/>
@@ -4809,7 +4817,7 @@
       </c>
       <c r="AC48">
         <f t="shared" si="4"/>
-        <v>0.39317059178122016</v>
+        <v>0.39321165960609739</v>
       </c>
       <c r="AD48">
         <f t="shared" si="5"/>
@@ -4882,7 +4890,7 @@
       </c>
       <c r="W49">
         <f t="shared" si="0"/>
-        <v>0.2254766967410203</v>
+        <v>0.25791870319834975</v>
       </c>
       <c r="X49">
         <f t="shared" si="1"/>
@@ -4890,7 +4898,7 @@
       </c>
       <c r="Z49">
         <f t="shared" si="2"/>
-        <v>0.24906549866892691</v>
+        <v>0.24915117540113627</v>
       </c>
       <c r="AA49">
         <f t="shared" si="3"/>
@@ -4898,7 +4906,7 @@
       </c>
       <c r="AC49">
         <f t="shared" si="4"/>
-        <v>0.41211774898822562</v>
+        <v>0.41215692889930727</v>
       </c>
       <c r="AD49">
         <f t="shared" si="5"/>
@@ -4971,7 +4979,7 @@
       </c>
       <c r="W50">
         <f t="shared" si="0"/>
-        <v>9.6922309705446658E-2</v>
+        <v>0.15835482564454711</v>
       </c>
       <c r="X50">
         <f t="shared" si="1"/>
@@ -4979,7 +4987,7 @@
       </c>
       <c r="Z50">
         <f t="shared" si="2"/>
-        <v>0.10471875462318221</v>
+        <v>0.1049223672359558</v>
       </c>
       <c r="AA50">
         <f t="shared" si="3"/>
@@ -4987,7 +4995,7 @@
       </c>
       <c r="AC50">
         <f t="shared" si="4"/>
-        <v>0.25825431546507649</v>
+        <v>0.25831683349120271</v>
       </c>
       <c r="AD50">
         <f t="shared" si="5"/>
@@ -5060,7 +5068,7 @@
       </c>
       <c r="W51">
         <f t="shared" si="0"/>
-        <v>7.0749919194168148E-2</v>
+        <v>0.14383277704423886</v>
       </c>
       <c r="X51">
         <f t="shared" si="1"/>
@@ -5068,7 +5076,7 @@
       </c>
       <c r="Z51">
         <f t="shared" si="2"/>
-        <v>0.15024552649005984</v>
+        <v>0.15038751213728418</v>
       </c>
       <c r="AA51">
         <f t="shared" si="3"/>
@@ -5076,7 +5084,7 @@
       </c>
       <c r="AC51">
         <f t="shared" si="4"/>
-        <v>0.46371638957147593</v>
+        <v>0.46375121020412585</v>
       </c>
       <c r="AD51">
         <f t="shared" si="5"/>
@@ -5149,7 +5157,7 @@
       </c>
       <c r="W52">
         <f t="shared" si="0"/>
-        <v>0.20064199587597359</v>
+        <v>0.15676381541292556</v>
       </c>
       <c r="X52">
         <f t="shared" si="1"/>
@@ -5157,7 +5165,7 @@
       </c>
       <c r="Z52">
         <f t="shared" si="2"/>
-        <v>6.2384441269421581E-2</v>
+        <v>6.2725625457738049E-2</v>
       </c>
       <c r="AA52">
         <f t="shared" si="3"/>
@@ -5165,7 +5173,7 @@
       </c>
       <c r="AC52">
         <f t="shared" si="4"/>
-        <v>0.19816347926657829</v>
+        <v>0.19808197673299074</v>
       </c>
       <c r="AD52">
         <f t="shared" si="5"/>
@@ -5238,7 +5246,7 @@
       </c>
       <c r="W53">
         <f t="shared" si="0"/>
-        <v>0.25075553330917338</v>
+        <v>0.21724645175213231</v>
       </c>
       <c r="X53">
         <f t="shared" si="1"/>
@@ -5246,7 +5254,7 @@
       </c>
       <c r="Z53">
         <f t="shared" si="2"/>
-        <v>0.20840145124276233</v>
+        <v>0.20850383799022973</v>
       </c>
       <c r="AA53">
         <f t="shared" si="3"/>
@@ -5254,7 +5262,7 @@
       </c>
       <c r="AC53">
         <f t="shared" si="4"/>
-        <v>0.28837748614483738</v>
+        <v>0.28832148637697708</v>
       </c>
       <c r="AD53">
         <f t="shared" si="5"/>
@@ -5327,7 +5335,7 @@
       </c>
       <c r="W54">
         <f t="shared" si="0"/>
-        <v>0.13047249110311757</v>
+        <v>3.6616311233884397E-2</v>
       </c>
       <c r="X54">
         <f t="shared" si="1"/>
@@ -5335,7 +5343,7 @@
       </c>
       <c r="Z54">
         <f t="shared" si="2"/>
-        <v>7.0858890077614811E-2</v>
+        <v>7.1159453901769254E-2</v>
       </c>
       <c r="AA54">
         <f t="shared" si="3"/>
@@ -5343,7 +5351,7 @@
       </c>
       <c r="AC54">
         <f t="shared" si="4"/>
-        <v>0.25130173309592219</v>
+        <v>0.25136598032669538</v>
       </c>
       <c r="AD54">
         <f t="shared" si="5"/>
@@ -5416,7 +5424,7 @@
       </c>
       <c r="W55">
         <f t="shared" si="0"/>
-        <v>0.20092362896728153</v>
+        <v>0.23675434814097546</v>
       </c>
       <c r="X55">
         <f t="shared" si="1"/>
@@ -5424,7 +5432,7 @@
       </c>
       <c r="Z55">
         <f t="shared" si="2"/>
-        <v>0.28395611465184883</v>
+        <v>0.28403126698435938</v>
       </c>
       <c r="AA55">
         <f t="shared" si="3"/>
@@ -5432,7 +5440,7 @@
       </c>
       <c r="AC55">
         <f t="shared" si="4"/>
-        <v>0.25972901631984757</v>
+        <v>0.25966683829455228</v>
       </c>
       <c r="AD55">
         <f t="shared" si="5"/>
@@ -5479,8 +5487,8 @@
       <c r="N56">
         <v>1.5</v>
       </c>
-      <c r="O56" s="2">
-        <v>0.18129698568660679</v>
+      <c r="O56" s="3">
+        <v>0.18336699048901794</v>
       </c>
       <c r="P56" s="2">
         <v>0.19099610670736755</v>
@@ -5489,7 +5497,7 @@
         <v>0.19518522752802789</v>
       </c>
       <c r="R56" s="2">
-        <v>0.21748578610502381</v>
+        <v>0.19158722448236082</v>
       </c>
       <c r="S56" s="2">
         <v>0.20573761111095779</v>
@@ -5505,15 +5513,15 @@
       </c>
       <c r="W56">
         <f t="shared" si="0"/>
-        <v>0.43615992258531611</v>
+        <v>0.19210271880380458</v>
       </c>
       <c r="X56">
         <f t="shared" si="1"/>
-        <v>0.18149630815709439</v>
+        <v>4.3846601345555458E-2</v>
       </c>
       <c r="Z56">
         <f t="shared" si="2"/>
-        <v>0.22360836190909861</v>
+        <v>0.22351289434639762</v>
       </c>
       <c r="AA56">
         <f t="shared" si="3"/>
@@ -5521,7 +5529,7 @@
       </c>
       <c r="AC56">
         <f t="shared" si="4"/>
-        <v>1.3144575411389121</v>
+        <v>1.3144452565429907</v>
       </c>
       <c r="AD56">
         <f t="shared" si="5"/>
@@ -5568,7 +5576,7 @@
       <c r="N57">
         <v>1.5</v>
       </c>
-      <c r="O57" s="2">
+      <c r="O57" s="3">
         <v>0.1862587071923007</v>
       </c>
       <c r="P57" s="2">
@@ -5594,7 +5602,7 @@
       </c>
       <c r="W57">
         <f t="shared" si="0"/>
-        <v>0.18050152875610354</v>
+        <v>0.12999417370410901</v>
       </c>
       <c r="X57">
         <f t="shared" si="1"/>
@@ -5602,7 +5610,7 @@
       </c>
       <c r="Z57">
         <f t="shared" si="2"/>
-        <v>0.37008196653314529</v>
+        <v>0.37002429160323186</v>
       </c>
       <c r="AA57">
         <f t="shared" si="3"/>
@@ -5610,7 +5618,7 @@
       </c>
       <c r="AC57">
         <f t="shared" si="4"/>
-        <v>0.27944201426168841</v>
+        <v>0.27949979310048906</v>
       </c>
       <c r="AD57">
         <f t="shared" si="5"/>
@@ -5666,8 +5674,8 @@
       <c r="Q58" s="2">
         <v>0.23650374574269012</v>
       </c>
-      <c r="R58" s="2">
-        <v>0.2183841137481439</v>
+      <c r="R58" s="3">
+        <v>0.21328708482603681</v>
       </c>
       <c r="S58" s="2">
         <v>0.25393777744964369</v>
@@ -5683,15 +5691,15 @@
       </c>
       <c r="W58">
         <f t="shared" si="0"/>
-        <v>0.16822316847668567</v>
+        <v>0.10487650229999465</v>
       </c>
       <c r="X58">
         <f t="shared" si="1"/>
-        <v>1.9559864499800812E-2</v>
+        <v>-4.0559339609389389E-3</v>
       </c>
       <c r="Z58">
         <f t="shared" si="2"/>
-        <v>0.18046219443982203</v>
+        <v>0.18034388829530543</v>
       </c>
       <c r="AA58">
         <f t="shared" si="3"/>
@@ -5699,7 +5707,7 @@
       </c>
       <c r="AC58">
         <f t="shared" si="4"/>
-        <v>0.15587108445244727</v>
+        <v>0.15597464530162736</v>
       </c>
       <c r="AD58">
         <f t="shared" si="5"/>
@@ -5756,7 +5764,7 @@
         <v>0.23650374574269012</v>
       </c>
       <c r="R59" s="2">
-        <v>0.21202652435153646</v>
+        <v>0.21026524351536</v>
       </c>
       <c r="S59" s="2">
         <v>0.25948159289629552</v>
@@ -5772,15 +5780,15 @@
       </c>
       <c r="W59">
         <f t="shared" si="0"/>
-        <v>0.11788149409770576</v>
+        <v>0.10063716781382424</v>
       </c>
       <c r="X59">
         <f t="shared" si="1"/>
-        <v>5.1568767381728808E-3</v>
+        <v>-3.1846927718459776E-3</v>
       </c>
       <c r="Z59">
         <f t="shared" si="2"/>
-        <v>0.23267611211410238</v>
+        <v>0.23258436656827952</v>
       </c>
       <c r="AA59">
         <f t="shared" si="3"/>
@@ -5788,7 +5796,7 @@
       </c>
       <c r="AC59">
         <f t="shared" si="4"/>
-        <v>0.11706246275234028</v>
+        <v>0.11720032079405572</v>
       </c>
       <c r="AD59">
         <f t="shared" si="5"/>
@@ -5844,7 +5852,7 @@
       <c r="Q60" s="2">
         <v>0.23162891486208251</v>
       </c>
-      <c r="R60" s="2">
+      <c r="R60" s="3">
         <v>0.24047038871930182</v>
       </c>
       <c r="S60" s="2">
@@ -5861,7 +5869,7 @@
       </c>
       <c r="W60">
         <f t="shared" si="0"/>
-        <v>0.24142585822931595</v>
+        <v>0.27197198699137776</v>
       </c>
       <c r="X60">
         <f t="shared" si="1"/>
@@ -5869,7 +5877,7 @@
       </c>
       <c r="Z60">
         <f t="shared" si="2"/>
-        <v>0.14557206271225256</v>
+        <v>0.14542537559082827</v>
       </c>
       <c r="AA60">
         <f t="shared" si="3"/>
@@ -5877,7 +5885,7 @@
       </c>
       <c r="AC60">
         <f t="shared" si="4"/>
-        <v>0.12112029526565667</v>
+        <v>0.12125353988163134</v>
       </c>
       <c r="AD60">
         <f t="shared" si="5"/>
@@ -5933,8 +5941,8 @@
       <c r="Q61" s="2">
         <v>0.23162891486208251</v>
       </c>
-      <c r="R61" s="2">
-        <v>0.2298096309043437</v>
+      <c r="R61" s="3">
+        <v>0.23880963090434401</v>
       </c>
       <c r="S61" s="2">
         <v>0.24052690047140909</v>
@@ -5950,15 +5958,15 @@
       </c>
       <c r="W61">
         <f t="shared" si="0"/>
-        <v>0.32177486284664397</v>
+        <v>0.28441236579608192</v>
       </c>
       <c r="X61">
         <f t="shared" si="1"/>
-        <v>-0.11227823227251107</v>
+        <v>-7.394724704398245E-2</v>
       </c>
       <c r="Z61">
         <f t="shared" si="2"/>
-        <v>0.14557206271225256</v>
+        <v>0.14542537559082827</v>
       </c>
       <c r="AA61">
         <f t="shared" si="3"/>
@@ -5966,7 +5974,7 @@
       </c>
       <c r="AC61">
         <f t="shared" si="4"/>
-        <v>0.12112029526565667</v>
+        <v>0.12125353988163134</v>
       </c>
       <c r="AD61">
         <f t="shared" si="5"/>
@@ -6039,7 +6047,7 @@
       </c>
       <c r="W62">
         <f t="shared" si="0"/>
-        <v>0.25472064619585727</v>
+        <v>0.22181138589386859</v>
       </c>
       <c r="X62">
         <f t="shared" si="1"/>
@@ -6047,7 +6055,7 @@
       </c>
       <c r="Z62">
         <f t="shared" si="2"/>
-        <v>0.17778187042357557</v>
+        <v>0.17790188033821211</v>
       </c>
       <c r="AA62">
         <f t="shared" si="3"/>
@@ -6055,7 +6063,7 @@
       </c>
       <c r="AC62">
         <f t="shared" si="4"/>
-        <v>0.1592980050220002</v>
+        <v>0.15919660610516384</v>
       </c>
       <c r="AD62">
         <f t="shared" si="5"/>
@@ -6128,7 +6136,7 @@
       </c>
       <c r="W63">
         <f t="shared" si="0"/>
-        <v>0.25472064619585727</v>
+        <v>0.22181138589386859</v>
       </c>
       <c r="X63">
         <f t="shared" si="1"/>
@@ -6136,7 +6144,7 @@
       </c>
       <c r="Z63">
         <f t="shared" si="2"/>
-        <v>0.17778187042357557</v>
+        <v>0.17790188033821211</v>
       </c>
       <c r="AA63">
         <f t="shared" si="3"/>
@@ -6144,7 +6152,7 @@
       </c>
       <c r="AC63">
         <f t="shared" si="4"/>
-        <v>0.16143285673102789</v>
+        <v>0.16133279959064142</v>
       </c>
       <c r="AD63">
         <f t="shared" si="5"/>
@@ -6217,7 +6225,7 @@
       </c>
       <c r="W64">
         <f t="shared" si="0"/>
-        <v>0.16217657354350862</v>
+        <v>0.20489889626981758</v>
       </c>
       <c r="X64">
         <f t="shared" si="1"/>
@@ -6225,7 +6233,7 @@
       </c>
       <c r="Z64">
         <f t="shared" si="2"/>
-        <v>0.14371319856045653</v>
+        <v>0.14386163149722628</v>
       </c>
       <c r="AA64">
         <f t="shared" si="3"/>
@@ -6233,7 +6241,7 @@
       </c>
       <c r="AC64">
         <f t="shared" si="4"/>
-        <v>8.6754643745943466E-2</v>
+        <v>8.6568315236575183E-2</v>
       </c>
       <c r="AD64">
         <f t="shared" si="5"/>
@@ -6280,8 +6288,8 @@
       <c r="N65">
         <v>1.5</v>
       </c>
-      <c r="O65" s="2">
-        <v>0.20500534883720928</v>
+      <c r="O65" s="3">
+        <v>0.201005348837209</v>
       </c>
       <c r="P65" s="2">
         <v>0.21198293460440829</v>
@@ -6306,15 +6314,15 @@
       </c>
       <c r="W65">
         <f t="shared" si="0"/>
-        <v>0.24996022413950311</v>
+        <v>0.24181934418673343</v>
       </c>
       <c r="X65">
         <f t="shared" si="1"/>
-        <v>-7.1219283564405184E-2</v>
+        <v>-5.1533448449160003E-2</v>
       </c>
       <c r="Z65">
         <f t="shared" si="2"/>
-        <v>0.11533863956833929</v>
+        <v>0.11515344632666777</v>
       </c>
       <c r="AA65">
         <f t="shared" si="3"/>
@@ -6322,7 +6330,7 @@
       </c>
       <c r="AC65">
         <f t="shared" si="4"/>
-        <v>8.6754643745943466E-2</v>
+        <v>8.6568315236575183E-2</v>
       </c>
       <c r="AD65">
         <f t="shared" si="5"/>
@@ -6378,8 +6386,8 @@
       <c r="Q66" s="2">
         <v>0.22787521514249912</v>
       </c>
-      <c r="R66" s="2">
-        <v>0.22679848620548801</v>
+      <c r="R66" s="3">
+        <v>0.23679848620548799</v>
       </c>
       <c r="S66" s="2">
         <v>0.23419967204223915</v>
@@ -6395,15 +6403,15 @@
       </c>
       <c r="W66">
         <f t="shared" si="0"/>
-        <v>0.5018510498453489</v>
+        <v>0.5277920644026165</v>
       </c>
       <c r="X66">
         <f t="shared" si="1"/>
-        <v>0.24311530631834433</v>
+        <v>0.28550761002011754</v>
       </c>
       <c r="Z66">
         <f t="shared" si="2"/>
-        <v>0.17057225622398012</v>
+        <v>0.17044708567990419</v>
       </c>
       <c r="AA66">
         <f t="shared" si="3"/>
@@ -6411,7 +6419,7 @@
       </c>
       <c r="AC66">
         <f t="shared" si="4"/>
-        <v>0.24828011508617676</v>
+        <v>0.24834514401492069</v>
       </c>
       <c r="AD66">
         <f t="shared" si="5"/>
@@ -6484,7 +6492,7 @@
       </c>
       <c r="W67">
         <f t="shared" ref="W67:W130" si="6">SQRT(ABS(X67-$Y$2))</f>
-        <v>0.53834787494818759</v>
+        <v>0.52358009680941187</v>
       </c>
       <c r="X67">
         <f t="shared" ref="X67:X130" si="7">(R67-O67)/(0.5*(O67+R67))</f>
@@ -6492,7 +6500,7 @@
       </c>
       <c r="Z67">
         <f t="shared" ref="Z67:Z130" si="8">SQRT(ABS(AA67-$AB$2))</f>
-        <v>0.22420370016239946</v>
+        <v>0.22410848620689175</v>
       </c>
       <c r="AA67">
         <f t="shared" ref="AA67:AA130" si="9">(S67-P67)/(0.5*(P67+S67))</f>
@@ -6500,7 +6508,7 @@
       </c>
       <c r="AC67">
         <f t="shared" ref="AC67:AC130" si="10">SQRT(ABS(AD67-$AE$2))</f>
-        <v>0.35911925975484443</v>
+        <v>0.35916422112378332</v>
       </c>
       <c r="AD67">
         <f t="shared" ref="AD67:AD130" si="11">(T67-Q67)/(0.5*(Q67+T67))</f>
@@ -6569,7 +6577,7 @@
       </c>
       <c r="W68">
         <f t="shared" si="6"/>
-        <v>0.12040469205451784</v>
+        <v>0.17372278651639131</v>
       </c>
       <c r="X68">
         <f t="shared" si="7"/>
@@ -6638,7 +6646,7 @@
       </c>
       <c r="W69">
         <f t="shared" si="6"/>
-        <v>9.5200868129366498E-2</v>
+        <v>0.15730709449627955</v>
       </c>
       <c r="X69">
         <f t="shared" si="7"/>
@@ -6711,7 +6719,7 @@
       </c>
       <c r="W70">
         <f t="shared" si="6"/>
-        <v>0.35212313522147803</v>
+        <v>0.37372853656695748</v>
       </c>
       <c r="X70">
         <f t="shared" si="7"/>
@@ -6719,7 +6727,7 @@
       </c>
       <c r="Z70">
         <f t="shared" si="8"/>
-        <v>0.20510307303637718</v>
+        <v>0.2049989877838399</v>
       </c>
       <c r="AA70">
         <f t="shared" si="9"/>
@@ -6727,7 +6735,7 @@
       </c>
       <c r="AC70">
         <f t="shared" si="10"/>
-        <v>0.45842609743091234</v>
+        <v>0.458461319867143</v>
       </c>
       <c r="AD70">
         <f t="shared" si="11"/>
@@ -6800,7 +6808,7 @@
       </c>
       <c r="W71">
         <f t="shared" si="6"/>
-        <v>0.36713705845716404</v>
+        <v>0.38790712339277228</v>
       </c>
       <c r="X71">
         <f t="shared" si="7"/>
@@ -6808,7 +6816,7 @@
       </c>
       <c r="Z71">
         <f t="shared" si="8"/>
-        <v>0.22915559126181356</v>
+        <v>0.22906243565889375</v>
       </c>
       <c r="AA71">
         <f t="shared" si="9"/>
@@ -6816,7 +6824,7 @@
       </c>
       <c r="AC71">
         <f t="shared" si="10"/>
-        <v>0.45842609743091234</v>
+        <v>0.458461319867143</v>
       </c>
       <c r="AD71">
         <f t="shared" si="11"/>
@@ -6872,8 +6880,8 @@
       <c r="Q72" s="2">
         <v>0.21686605109323856</v>
       </c>
-      <c r="R72" s="2">
-        <v>0.21012830490066739</v>
+      <c r="R72" s="3">
+        <v>0.208128304900667</v>
       </c>
       <c r="S72" s="2">
         <v>0.24130031408872868</v>
@@ -6889,15 +6897,15 @@
       </c>
       <c r="W72">
         <f t="shared" si="6"/>
-        <v>0.1983318805839788</v>
+        <v>0.1187065706612174</v>
       </c>
       <c r="X72">
         <f t="shared" si="7"/>
-        <v>3.0596364943443068E-2</v>
+        <v>2.1034396691888443E-2</v>
       </c>
       <c r="Z72">
         <f t="shared" si="8"/>
-        <v>0.18247429606597765</v>
+        <v>0.18259122186277352</v>
       </c>
       <c r="AA72">
         <f t="shared" si="9"/>
@@ -6905,7 +6913,7 @@
       </c>
       <c r="AC72">
         <f t="shared" si="10"/>
-        <v>6.8988723324981946E-2</v>
+        <v>6.8754264867165835E-2</v>
       </c>
       <c r="AD72">
         <f t="shared" si="11"/>
@@ -6962,7 +6970,7 @@
         <v>0.21498716300321818</v>
       </c>
       <c r="R73" s="2">
-        <v>0.21012830490066739</v>
+        <v>0.210128304900667</v>
       </c>
       <c r="S73" s="2">
         <v>0.24130031408872868</v>
@@ -6978,15 +6986,15 @@
       </c>
       <c r="W73">
         <f t="shared" si="6"/>
-        <v>0.1983318805839788</v>
+        <v>0.15379602780858606</v>
       </c>
       <c r="X73">
         <f t="shared" si="7"/>
-        <v>3.0596364943443068E-2</v>
+        <v>3.0596364943441218E-2</v>
       </c>
       <c r="Z73">
         <f t="shared" si="8"/>
-        <v>0.33839296590080697</v>
+        <v>0.33845603104053451</v>
       </c>
       <c r="AA73">
         <f t="shared" si="9"/>
@@ -6994,7 +7002,7 @@
       </c>
       <c r="AC73">
         <f t="shared" si="10"/>
-        <v>0.11602060102139829</v>
+        <v>0.1158813395365275</v>
       </c>
       <c r="AD73">
         <f t="shared" si="11"/>
@@ -7041,8 +7049,8 @@
       <c r="N74">
         <v>1.5</v>
       </c>
-      <c r="O74" s="2">
-        <v>0.18536823606610767</v>
+      <c r="O74" s="3">
+        <v>0.188368236066108</v>
       </c>
       <c r="P74" s="2">
         <v>0.22060848626068816</v>
@@ -7067,15 +7075,15 @@
       </c>
       <c r="W74">
         <f t="shared" si="6"/>
-        <v>0.53336577675727559</v>
+        <v>0.50302122420942352</v>
       </c>
       <c r="X74">
         <f t="shared" si="7"/>
-        <v>0.27573988190335735</v>
+        <v>0.25997349877888898</v>
       </c>
       <c r="Z74">
         <f t="shared" si="8"/>
-        <v>0.27173252861514402</v>
+        <v>0.27165397389144436</v>
       </c>
       <c r="AA74">
         <f t="shared" si="9"/>
@@ -7083,7 +7091,7 @@
       </c>
       <c r="AC74">
         <f t="shared" si="10"/>
-        <v>0.27884082809782113</v>
+        <v>0.27889873148306921</v>
       </c>
       <c r="AD74">
         <f t="shared" si="11"/>
@@ -7156,7 +7164,7 @@
       </c>
       <c r="W75">
         <f t="shared" si="6"/>
-        <v>0.50591177304703749</v>
+        <v>0.49016773192583862</v>
       </c>
       <c r="X75">
         <f t="shared" si="7"/>
@@ -7164,7 +7172,7 @@
       </c>
       <c r="Z75">
         <f t="shared" si="8"/>
-        <v>0.20617879958485089</v>
+        <v>0.20607525766496954</v>
       </c>
       <c r="AA75">
         <f t="shared" si="9"/>
@@ -7172,7 +7180,7 @@
       </c>
       <c r="AC75">
         <f t="shared" si="10"/>
-        <v>0.23605775506929857</v>
+        <v>0.23612615004895893</v>
       </c>
       <c r="AD75">
         <f t="shared" si="11"/>
@@ -7228,8 +7236,8 @@
       <c r="Q76" s="2">
         <v>0.1959834187095314</v>
       </c>
-      <c r="R76" s="2">
-        <v>0.17752710937629379</v>
+      <c r="R76" s="3">
+        <v>0.17702710937629401</v>
       </c>
       <c r="S76" s="2">
         <v>0.21750270032126476</v>
@@ -7245,15 +7253,15 @@
       </c>
       <c r="W76">
         <f t="shared" si="6"/>
-        <v>0.19797729601839661</v>
+        <v>0.24020002941852756</v>
       </c>
       <c r="X76">
         <f t="shared" si="7"/>
-        <v>-4.793417965129039E-2</v>
+        <v>-5.0752907358919651E-2</v>
       </c>
       <c r="Z76">
         <f t="shared" si="8"/>
-        <v>0.19458813913379722</v>
+        <v>0.1944784263484963</v>
       </c>
       <c r="AA76">
         <f t="shared" si="9"/>
@@ -7261,7 +7269,7 @@
       </c>
       <c r="AC76">
         <f t="shared" si="10"/>
-        <v>0.23135221422215124</v>
+        <v>0.23128240749548082</v>
       </c>
       <c r="AD76">
         <f t="shared" si="11"/>
@@ -7334,7 +7342,7 @@
       </c>
       <c r="W77">
         <f t="shared" si="6"/>
-        <v>0.29880040754110077</v>
+        <v>0.3239814813118248</v>
       </c>
       <c r="X77">
         <f t="shared" si="7"/>
@@ -7342,7 +7350,7 @@
       </c>
       <c r="Z77">
         <f t="shared" si="8"/>
-        <v>0.29291336103889881</v>
+        <v>0.29284048814762237</v>
       </c>
       <c r="AA77">
         <f t="shared" si="9"/>
@@ -7350,7 +7358,7 @@
       </c>
       <c r="AC77">
         <f t="shared" si="10"/>
-        <v>0.23135221422215124</v>
+        <v>0.23128240749548082</v>
       </c>
       <c r="AD77">
         <f t="shared" si="11"/>
@@ -7423,7 +7431,7 @@
       </c>
       <c r="W78">
         <f t="shared" si="6"/>
-        <v>0.15353916660183123</v>
+        <v>8.8836698466953884E-2</v>
       </c>
       <c r="X78">
         <f t="shared" si="7"/>
@@ -7431,7 +7439,7 @@
       </c>
       <c r="Z78">
         <f t="shared" si="8"/>
-        <v>0.37811153510063422</v>
+        <v>0.37816797663568058</v>
       </c>
       <c r="AA78">
         <f t="shared" si="9"/>
@@ -7439,7 +7447,7 @@
       </c>
       <c r="AC78">
         <f t="shared" si="10"/>
-        <v>0.11532664572092123</v>
+        <v>0.11546657621071732</v>
       </c>
       <c r="AD78">
         <f t="shared" si="11"/>
@@ -7512,7 +7520,7 @@
       </c>
       <c r="W79">
         <f t="shared" si="6"/>
-        <v>0.15353916660183123</v>
+        <v>8.8836698466953884E-2</v>
       </c>
       <c r="X79">
         <f t="shared" si="7"/>
@@ -7520,7 +7528,7 @@
       </c>
       <c r="Z79">
         <f t="shared" si="8"/>
-        <v>0.37811153510063422</v>
+        <v>0.37816797663568058</v>
       </c>
       <c r="AA79">
         <f t="shared" si="9"/>
@@ -7528,7 +7536,7 @@
       </c>
       <c r="AC79">
         <f t="shared" si="10"/>
-        <v>0.11532664572092123</v>
+        <v>0.11546657621071732</v>
       </c>
       <c r="AD79">
         <f t="shared" si="11"/>
@@ -7601,7 +7609,7 @@
       </c>
       <c r="W80">
         <f t="shared" si="6"/>
-        <v>0.22310763071261916</v>
+        <v>0.25585021314916828</v>
       </c>
       <c r="X80">
         <f t="shared" si="7"/>
@@ -7609,7 +7617,7 @@
       </c>
       <c r="Z80">
         <f t="shared" si="8"/>
-        <v>0.21497184998610583</v>
+        <v>0.2150711088524335</v>
       </c>
       <c r="AA80">
         <f t="shared" si="9"/>
@@ -7617,7 +7625,7 @@
       </c>
       <c r="AC80">
         <f t="shared" si="10"/>
-        <v>0.19706181792078165</v>
+        <v>0.19714374220560443</v>
       </c>
       <c r="AD80">
         <f t="shared" si="11"/>
@@ -7690,7 +7698,7 @@
       </c>
       <c r="W81">
         <f t="shared" si="6"/>
-        <v>0.22310763071261916</v>
+        <v>0.25585021314916828</v>
       </c>
       <c r="X81">
         <f t="shared" si="7"/>
@@ -7698,7 +7706,7 @@
       </c>
       <c r="Z81">
         <f t="shared" si="8"/>
-        <v>0.21497184998610583</v>
+        <v>0.2150711088524335</v>
       </c>
       <c r="AA81">
         <f t="shared" si="9"/>
@@ -7706,7 +7714,7 @@
       </c>
       <c r="AC81">
         <f t="shared" si="10"/>
-        <v>0.19706181792078165</v>
+        <v>0.19714374220560443</v>
       </c>
       <c r="AD81">
         <f t="shared" si="11"/>
@@ -7779,7 +7787,7 @@
       </c>
       <c r="W82">
         <f t="shared" si="6"/>
-        <v>0.12573567062845303</v>
+        <v>1.1275734216024551E-2</v>
       </c>
       <c r="X82">
         <f t="shared" si="7"/>
@@ -7787,7 +7795,7 @@
       </c>
       <c r="Z82">
         <f t="shared" si="8"/>
-        <v>0.22800795930990236</v>
+        <v>0.22791433463496669</v>
       </c>
       <c r="AA82">
         <f t="shared" si="9"/>
@@ -7795,7 +7803,7 @@
       </c>
       <c r="AC82">
         <f t="shared" si="10"/>
-        <v>0.16038423749540853</v>
+        <v>0.16028352575482327</v>
       </c>
       <c r="AD82">
         <f t="shared" si="11"/>
@@ -7868,7 +7876,7 @@
       </c>
       <c r="W83">
         <f t="shared" si="6"/>
-        <v>0.12573567062845303</v>
+        <v>1.1275734216024551E-2</v>
       </c>
       <c r="X83">
         <f t="shared" si="7"/>
@@ -7876,7 +7884,7 @@
       </c>
       <c r="Z83">
         <f t="shared" si="8"/>
-        <v>0.22800795930990236</v>
+        <v>0.22791433463496669</v>
       </c>
       <c r="AA83">
         <f t="shared" si="9"/>
@@ -7884,7 +7892,7 @@
       </c>
       <c r="AC83">
         <f t="shared" si="10"/>
-        <v>0.16038423749540853</v>
+        <v>0.16028352575482327</v>
       </c>
       <c r="AD83">
         <f t="shared" si="11"/>
@@ -7940,8 +7948,8 @@
       <c r="Q84" s="2">
         <v>0.22807463216014662</v>
       </c>
-      <c r="R84" s="2">
-        <v>0.19675056174410324</v>
+      <c r="R84" s="3">
+        <v>0.19475056174410299</v>
       </c>
       <c r="S84" s="2">
         <v>0.2556045929266556</v>
@@ -7957,15 +7965,15 @@
       </c>
       <c r="W84">
         <f t="shared" si="6"/>
-        <v>0.29532641724857361</v>
+        <v>0.33629016773597736</v>
       </c>
       <c r="X84">
         <f t="shared" si="7"/>
-        <v>-9.5956862637413168E-2</v>
+        <v>-0.10614793014214995</v>
       </c>
       <c r="Z84">
         <f t="shared" si="8"/>
-        <v>0.23705454841790349</v>
+        <v>0.23696449807734835</v>
       </c>
       <c r="AA84">
         <f t="shared" si="9"/>
@@ -7973,7 +7981,7 @@
       </c>
       <c r="AC84">
         <f t="shared" si="10"/>
-        <v>0.27937238913533397</v>
+        <v>0.27943018237078643</v>
       </c>
       <c r="AD84">
         <f t="shared" si="11"/>
@@ -8046,7 +8054,7 @@
       </c>
       <c r="W85">
         <f t="shared" si="6"/>
-        <v>0.29532641724857361</v>
+        <v>0.32078031331606843</v>
       </c>
       <c r="X85">
         <f t="shared" si="7"/>
@@ -8054,7 +8062,7 @@
       </c>
       <c r="Z85">
         <f t="shared" si="8"/>
-        <v>0.23705454841790349</v>
+        <v>0.23696449807734835</v>
       </c>
       <c r="AA85">
         <f t="shared" si="9"/>
@@ -8062,7 +8070,7 @@
       </c>
       <c r="AC85">
         <f t="shared" si="10"/>
-        <v>0.27937238913533397</v>
+        <v>0.27943018237078643</v>
       </c>
       <c r="AD85">
         <f t="shared" si="11"/>
@@ -8135,7 +8143,7 @@
       </c>
       <c r="W86">
         <f t="shared" si="6"/>
-        <v>0.15916701419508547</v>
+        <v>0.20252519619557202</v>
       </c>
       <c r="X86">
         <f t="shared" si="7"/>
@@ -8143,7 +8151,7 @@
       </c>
       <c r="Z86">
         <f t="shared" si="8"/>
-        <v>0.18617633673659981</v>
+        <v>0.18629093895631726</v>
       </c>
       <c r="AA86">
         <f t="shared" si="9"/>
@@ -8151,7 +8159,7 @@
       </c>
       <c r="AC86">
         <f t="shared" si="10"/>
-        <v>0.34956439151333818</v>
+        <v>0.34961058168006998</v>
       </c>
       <c r="AD86">
         <f t="shared" si="11"/>
@@ -8224,7 +8232,7 @@
       </c>
       <c r="W87">
         <f t="shared" si="6"/>
-        <v>0.15916701419508547</v>
+        <v>0.20252519619557202</v>
       </c>
       <c r="X87">
         <f t="shared" si="7"/>
@@ -8232,7 +8240,7 @@
       </c>
       <c r="Z87">
         <f t="shared" si="8"/>
-        <v>0.18617633673659981</v>
+        <v>0.18629093895631726</v>
       </c>
       <c r="AA87">
         <f t="shared" si="9"/>
@@ -8240,7 +8248,7 @@
       </c>
       <c r="AC87">
         <f t="shared" si="10"/>
-        <v>0.32806638555567114</v>
+        <v>0.32811560209802393</v>
       </c>
       <c r="AD87">
         <f t="shared" si="11"/>
@@ -8313,7 +8321,7 @@
       </c>
       <c r="W88">
         <f t="shared" si="6"/>
-        <v>0.21735268704712596</v>
+        <v>0.25084757772974864</v>
       </c>
       <c r="X88">
         <f t="shared" si="7"/>
@@ -8321,7 +8329,7 @@
       </c>
       <c r="Z88">
         <f t="shared" si="8"/>
-        <v>9.9957017539860221E-2</v>
+        <v>9.97432693413315E-2</v>
       </c>
       <c r="AA88">
         <f t="shared" si="9"/>
@@ -8329,7 +8337,7 @@
       </c>
       <c r="AC88">
         <f t="shared" si="10"/>
-        <v>0.15796874039391209</v>
+        <v>0.15786648768200515</v>
       </c>
       <c r="AD88">
         <f t="shared" si="11"/>
@@ -8402,7 +8410,7 @@
       </c>
       <c r="W89">
         <f t="shared" si="6"/>
-        <v>0.21735268704712596</v>
+        <v>0.25084757772974864</v>
       </c>
       <c r="X89">
         <f t="shared" si="7"/>
@@ -8410,7 +8418,7 @@
       </c>
       <c r="Z89">
         <f t="shared" si="8"/>
-        <v>9.9957017539860221E-2</v>
+        <v>9.97432693413315E-2</v>
       </c>
       <c r="AA89">
         <f t="shared" si="9"/>
@@ -8418,7 +8426,7 @@
       </c>
       <c r="AC89">
         <f t="shared" si="10"/>
-        <v>0.10517312069098629</v>
+        <v>0.10532654140560813</v>
       </c>
       <c r="AD89">
         <f t="shared" si="11"/>
@@ -8494,7 +8502,7 @@
       </c>
       <c r="W90">
         <f t="shared" si="6"/>
-        <v>0.18045492446072617</v>
+        <v>0.21965039596687003</v>
       </c>
       <c r="X90">
         <f t="shared" si="7"/>
@@ -8502,7 +8510,7 @@
       </c>
       <c r="Z90">
         <f t="shared" si="8"/>
-        <v>0.40427290927140275</v>
+        <v>0.40422011280266262</v>
       </c>
       <c r="AA90">
         <f t="shared" si="9"/>
@@ -8510,7 +8518,7 @@
       </c>
       <c r="AC90">
         <f t="shared" si="10"/>
-        <v>0.30566736811625667</v>
+        <v>0.30561453650396386</v>
       </c>
       <c r="AD90">
         <f t="shared" si="11"/>
@@ -8586,7 +8594,7 @@
       </c>
       <c r="W91">
         <f t="shared" si="6"/>
-        <v>0.19588926200588139</v>
+        <v>0.23249713902645178</v>
       </c>
       <c r="X91">
         <f t="shared" si="7"/>
@@ -8594,7 +8602,7 @@
       </c>
       <c r="Z91">
         <f t="shared" si="8"/>
-        <v>0.39506279091893176</v>
+        <v>0.39500876343707753</v>
       </c>
       <c r="AA91">
         <f t="shared" si="9"/>
@@ -8602,7 +8610,7 @@
       </c>
       <c r="AC91">
         <f t="shared" si="10"/>
-        <v>0.27321453835464432</v>
+        <v>0.27315543003893389</v>
       </c>
       <c r="AD91">
         <f t="shared" si="11"/>
@@ -8678,7 +8686,7 @@
       </c>
       <c r="W92">
         <f t="shared" si="6"/>
-        <v>0.34274559975098817</v>
+        <v>0.31904894524569138</v>
       </c>
       <c r="X92">
         <f t="shared" si="7"/>
@@ -8686,7 +8694,7 @@
       </c>
       <c r="Z92">
         <f t="shared" si="8"/>
-        <v>0.31295835459515092</v>
+        <v>0.31289015026737055</v>
       </c>
       <c r="AA92">
         <f t="shared" si="9"/>
@@ -8694,7 +8702,7 @@
       </c>
       <c r="AC92">
         <f t="shared" si="10"/>
-        <v>0.12871631329214245</v>
+        <v>0.12884170255048433</v>
       </c>
       <c r="AD92">
         <f t="shared" si="11"/>
@@ -8770,7 +8778,7 @@
       </c>
       <c r="W93">
         <f t="shared" si="6"/>
-        <v>0.34274559975098817</v>
+        <v>0.31904894524569138</v>
       </c>
       <c r="X93">
         <f t="shared" si="7"/>
@@ -8778,7 +8786,7 @@
       </c>
       <c r="Z93">
         <f t="shared" si="8"/>
-        <v>0.29473665484792533</v>
+        <v>0.29466423287256727</v>
       </c>
       <c r="AA93">
         <f t="shared" si="9"/>
@@ -8786,7 +8794,7 @@
       </c>
       <c r="AC93">
         <f t="shared" si="10"/>
-        <v>0.10883631836075239</v>
+        <v>0.10868785206147252</v>
       </c>
       <c r="AD93">
         <f t="shared" si="11"/>
@@ -8859,7 +8867,7 @@
       </c>
       <c r="W94">
         <f t="shared" si="6"/>
-        <v>6.8454894665802304E-2</v>
+        <v>0.14271786605040901</v>
       </c>
       <c r="X94">
         <f t="shared" si="7"/>
@@ -8867,7 +8875,7 @@
       </c>
       <c r="Z94">
         <f t="shared" si="8"/>
-        <v>0.26666485299860349</v>
+        <v>0.26674487699173027</v>
       </c>
       <c r="AA94">
         <f t="shared" si="9"/>
@@ -8875,7 +8883,7 @@
       </c>
       <c r="AC94">
         <f t="shared" si="10"/>
-        <v>0.21661775170227562</v>
+        <v>0.2165431950996434</v>
       </c>
       <c r="AD94">
         <f t="shared" si="11"/>
@@ -8948,7 +8956,7 @@
       </c>
       <c r="W95">
         <f t="shared" si="6"/>
-        <v>6.8454894665802304E-2</v>
+        <v>0.14271786605040901</v>
       </c>
       <c r="X95">
         <f t="shared" si="7"/>
@@ -8956,7 +8964,7 @@
       </c>
       <c r="Z95">
         <f t="shared" si="8"/>
-        <v>0.26666485299860349</v>
+        <v>0.26674487699173027</v>
       </c>
       <c r="AA95">
         <f t="shared" si="9"/>
@@ -8964,7 +8972,7 @@
       </c>
       <c r="AC95">
         <f t="shared" si="10"/>
-        <v>0.21661775170227562</v>
+        <v>0.2165431950996434</v>
       </c>
       <c r="AD95">
         <f t="shared" si="11"/>
@@ -9037,7 +9045,7 @@
       </c>
       <c r="W96">
         <f t="shared" si="6"/>
-        <v>0.18282183645281869</v>
+        <v>0.13319724921222956</v>
       </c>
       <c r="X96">
         <f t="shared" si="7"/>
@@ -9045,7 +9053,7 @@
       </c>
       <c r="Z96">
         <f t="shared" si="8"/>
-        <v>0.10723121047258413</v>
+        <v>0.10743006132355208</v>
       </c>
       <c r="AA96">
         <f t="shared" si="9"/>
@@ -9053,7 +9061,7 @@
       </c>
       <c r="AC96">
         <f t="shared" si="10"/>
-        <v>0.42205662403507566</v>
+        <v>0.42209488139572565</v>
       </c>
       <c r="AD96">
         <f t="shared" si="11"/>
@@ -9100,8 +9108,8 @@
       <c r="N97">
         <v>1.5</v>
       </c>
-      <c r="O97" s="2">
-        <v>0.22993021303109423</v>
+      <c r="O97" s="3">
+        <v>0.23593021303109399</v>
       </c>
       <c r="P97" s="2">
         <v>0.23261508253799151</v>
@@ -9126,15 +9134,15 @@
       </c>
       <c r="W97">
         <f t="shared" si="6"/>
-        <v>0.18282183645281869</v>
+        <v>8.9540223796499202E-2</v>
       </c>
       <c r="X97">
         <f t="shared" si="7"/>
-        <v>2.4684653971446629E-2</v>
+        <v>-1.0743049037853184E-3</v>
       </c>
       <c r="Z97">
         <f t="shared" si="8"/>
-        <v>0.10723121047258413</v>
+        <v>0.10743006132355208</v>
       </c>
       <c r="AA97">
         <f t="shared" si="9"/>
@@ -9142,7 +9150,7 @@
       </c>
       <c r="AC97">
         <f t="shared" si="10"/>
-        <v>0.42205662403507566</v>
+        <v>0.42209488139572565</v>
       </c>
       <c r="AD97">
         <f t="shared" si="11"/>
@@ -9189,8 +9197,8 @@
       <c r="N98">
         <v>1.5</v>
       </c>
-      <c r="O98" s="2">
-        <v>0.23460379763081055</v>
+      <c r="O98" s="3">
+        <v>0.23647113861304161</v>
       </c>
       <c r="P98" s="2">
         <v>0.25396907737125951</v>
@@ -9198,8 +9206,8 @@
       <c r="Q98" s="2">
         <v>0.24668491532300357</v>
       </c>
-      <c r="R98" s="2">
-        <v>0.22379798671332921</v>
+      <c r="R98" s="3">
+        <v>0.23329989125574774</v>
       </c>
       <c r="S98" s="2">
         <v>0.25530545529065629</v>
@@ -9215,15 +9223,15 @@
       </c>
       <c r="W98">
         <f t="shared" si="6"/>
-        <v>0.19597555577741194</v>
+        <v>0.1429838934579612</v>
       </c>
       <c r="X98">
         <f t="shared" si="7"/>
-        <v>-4.7145588374800061E-2</v>
+        <v>-1.3501247014655758E-2</v>
       </c>
       <c r="Z98">
         <f t="shared" si="8"/>
-        <v>0.13807783474612409</v>
+        <v>0.1382323190312037</v>
       </c>
       <c r="AA98">
         <f t="shared" si="9"/>
@@ -9231,7 +9239,7 @@
       </c>
       <c r="AC98">
         <f t="shared" si="10"/>
-        <v>0.25418811749189701</v>
+        <v>0.2542516353588723</v>
       </c>
       <c r="AD98">
         <f t="shared" si="11"/>
@@ -9278,7 +9286,7 @@
       <c r="N99">
         <v>1.5</v>
       </c>
-      <c r="O99" s="2">
+      <c r="O99" s="3">
         <v>0.23460379763081055</v>
       </c>
       <c r="P99" s="2">
@@ -9287,8 +9295,8 @@
       <c r="Q99" s="2">
         <v>0.24668491532300357</v>
       </c>
-      <c r="R99" s="2">
-        <v>0.20941289592291853</v>
+      <c r="R99" s="3">
+        <v>0.22853681020539968</v>
       </c>
       <c r="S99" s="2">
         <v>0.25533441072483293</v>
@@ -9304,15 +9312,15 @@
       </c>
       <c r="W99">
         <f t="shared" si="6"/>
-        <v>0.3236187480859849</v>
+        <v>0.18205076058319233</v>
       </c>
       <c r="X99">
         <f t="shared" si="7"/>
-        <v>-0.11346826402527471</v>
+        <v>-2.6199332655176977E-2</v>
       </c>
       <c r="Z99">
         <f t="shared" si="8"/>
-        <v>0.13766655661551824</v>
+        <v>0.13782150190351364</v>
       </c>
       <c r="AA99">
         <f t="shared" si="9"/>
@@ -9320,7 +9328,7 @@
       </c>
       <c r="AC99">
         <f t="shared" si="10"/>
-        <v>0.22058992531416186</v>
+        <v>0.22066311463109103</v>
       </c>
       <c r="AD99">
         <f t="shared" si="11"/>
@@ -9393,7 +9401,7 @@
       </c>
       <c r="W100">
         <f t="shared" si="6"/>
-        <v>0.23142518167027462</v>
+        <v>0.19461577023674934</v>
       </c>
       <c r="X100">
         <f t="shared" si="7"/>
@@ -9401,7 +9409,7 @@
       </c>
       <c r="Z100">
         <f t="shared" si="8"/>
-        <v>0.11129851143336605</v>
+        <v>0.11149010818834842</v>
       </c>
       <c r="AA100">
         <f t="shared" si="9"/>
@@ -9409,7 +9417,7 @@
       </c>
       <c r="AC100">
         <f t="shared" si="10"/>
-        <v>0.15295439236647551</v>
+        <v>0.15284878519507844</v>
       </c>
       <c r="AD100">
         <f t="shared" si="11"/>
@@ -9482,7 +9490,7 @@
       </c>
       <c r="W101">
         <f t="shared" si="6"/>
-        <v>0.23142518167027462</v>
+        <v>0.19461577023674934</v>
       </c>
       <c r="X101">
         <f t="shared" si="7"/>
@@ -9490,7 +9498,7 @@
       </c>
       <c r="Z101">
         <f t="shared" si="8"/>
-        <v>0.11129851143336605</v>
+        <v>0.11149010818834842</v>
       </c>
       <c r="AA101">
         <f t="shared" si="9"/>
@@ -9498,7 +9506,7 @@
       </c>
       <c r="AC101">
         <f t="shared" si="10"/>
-        <v>0.15295439236647551</v>
+        <v>0.15284878519507844</v>
       </c>
       <c r="AD101">
         <f t="shared" si="11"/>
@@ -9571,7 +9579,7 @@
       </c>
       <c r="W102">
         <f t="shared" si="6"/>
-        <v>0.28917536002896521</v>
+        <v>0.31512649132397302</v>
       </c>
       <c r="X102">
         <f t="shared" si="7"/>
@@ -9579,7 +9587,7 @@
       </c>
       <c r="Z102">
         <f t="shared" si="8"/>
-        <v>0.25685363117325521</v>
+        <v>0.25677052453566412</v>
       </c>
       <c r="AA102">
         <f t="shared" si="9"/>
@@ -9587,7 +9595,7 @@
       </c>
       <c r="AC102">
         <f t="shared" si="10"/>
-        <v>0.22424694476828971</v>
+        <v>0.2241749255142641</v>
       </c>
       <c r="AD102">
         <f t="shared" si="11"/>
@@ -9634,8 +9642,8 @@
       <c r="N103">
         <v>1.5</v>
       </c>
-      <c r="O103" s="2">
-        <v>0.2065296667154268</v>
+      <c r="O103" s="3">
+        <v>0.214529666715427</v>
       </c>
       <c r="P103" s="2">
         <v>0.19320474236030233</v>
@@ -9660,15 +9668,15 @@
       </c>
       <c r="W103">
         <f t="shared" si="6"/>
-        <v>0.18393725096959868</v>
+        <v>0.29577364982703386</v>
       </c>
       <c r="X103">
         <f t="shared" si="7"/>
-        <v>-4.2572082206787688E-2</v>
+        <v>-8.0538905158262994E-2</v>
       </c>
       <c r="Z103">
         <f t="shared" si="8"/>
-        <v>0.25685363117325521</v>
+        <v>0.25677052453566412</v>
       </c>
       <c r="AA103">
         <f t="shared" si="9"/>
@@ -9676,7 +9684,7 @@
       </c>
       <c r="AC103">
         <f t="shared" si="10"/>
-        <v>0.22424694476828971</v>
+        <v>0.2241749255142641</v>
       </c>
       <c r="AD103">
         <f t="shared" si="11"/>
@@ -9749,7 +9757,7 @@
       </c>
       <c r="W104">
         <f t="shared" si="6"/>
-        <v>0.35590035303965839</v>
+        <v>0.37728951480266432</v>
       </c>
       <c r="X104">
         <f t="shared" si="7"/>
@@ -9757,7 +9765,7 @@
       </c>
       <c r="Z104">
         <f t="shared" si="8"/>
-        <v>0.24242523540662239</v>
+        <v>0.24233718077379246</v>
       </c>
       <c r="AA104">
         <f t="shared" si="9"/>
@@ -9765,7 +9773,7 @@
       </c>
       <c r="AC104">
         <f t="shared" si="10"/>
-        <v>0.4703879210037788</v>
+        <v>0.47035359169211277</v>
       </c>
       <c r="AD104">
         <f t="shared" si="11"/>
@@ -9821,8 +9829,8 @@
       <c r="Q105" s="2">
         <v>0.17007569447971119</v>
       </c>
-      <c r="R105" s="2">
-        <v>0.19250292743529165</v>
+      <c r="R105" s="3">
+        <v>0.192102927435292</v>
       </c>
       <c r="S105" s="2">
         <v>0.20738623019005406</v>
@@ -9838,15 +9846,15 @@
       </c>
       <c r="W105">
         <f t="shared" si="6"/>
-        <v>0.35590035303965839</v>
+        <v>0.38002335410341326</v>
       </c>
       <c r="X105">
         <f t="shared" si="7"/>
-        <v>-0.13540423120628803</v>
+        <v>-0.13747460289026639</v>
       </c>
       <c r="Z105">
         <f t="shared" si="8"/>
-        <v>0.24242523540662239</v>
+        <v>0.24233718077379246</v>
       </c>
       <c r="AA105">
         <f t="shared" si="9"/>
@@ -9854,7 +9862,7 @@
       </c>
       <c r="AC105">
         <f t="shared" si="10"/>
-        <v>0.51341042007383331</v>
+        <v>0.51337896765625624</v>
       </c>
       <c r="AD105">
         <f t="shared" si="11"/>
@@ -9927,7 +9935,7 @@
       </c>
       <c r="W106">
         <f t="shared" si="6"/>
-        <v>0.34552687748967642</v>
+        <v>0.36752025761043733</v>
       </c>
       <c r="X106">
         <f t="shared" si="7"/>
@@ -9935,7 +9943,7 @@
       </c>
       <c r="Z106">
         <f t="shared" si="8"/>
-        <v>0.42014966912823276</v>
+        <v>0.42009886799656693</v>
       </c>
       <c r="AA106">
         <f t="shared" si="9"/>
@@ -9943,7 +9951,7 @@
       </c>
       <c r="AC106">
         <f t="shared" si="10"/>
-        <v>0.28602534875224572</v>
+        <v>0.28596888837818929</v>
       </c>
       <c r="AD106">
         <f t="shared" si="11"/>
@@ -10016,7 +10024,7 @@
       </c>
       <c r="W107">
         <f t="shared" si="6"/>
-        <v>0.34552687748967642</v>
+        <v>0.36752025761043733</v>
       </c>
       <c r="X107">
         <f t="shared" si="7"/>
@@ -10024,7 +10032,7 @@
       </c>
       <c r="Z107">
         <f t="shared" si="8"/>
-        <v>0.42014966912823276</v>
+        <v>0.42009886799656693</v>
       </c>
       <c r="AA107">
         <f t="shared" si="9"/>
@@ -10032,7 +10040,7 @@
       </c>
       <c r="AC107">
         <f t="shared" si="10"/>
-        <v>0.28602534875224572</v>
+        <v>0.28596888837818929</v>
       </c>
       <c r="AD107">
         <f t="shared" si="11"/>
@@ -10105,7 +10113,7 @@
       </c>
       <c r="W108">
         <f t="shared" si="6"/>
-        <v>0.23528284271959224</v>
+        <v>0.26653392422820921</v>
       </c>
       <c r="X108">
         <f t="shared" si="7"/>
@@ -10113,7 +10121,7 @@
       </c>
       <c r="Z108">
         <f t="shared" si="8"/>
-        <v>0.11929062881989069</v>
+        <v>0.11946940905860153</v>
       </c>
       <c r="AA108">
         <f t="shared" si="9"/>
@@ -10121,7 +10129,7 @@
       </c>
       <c r="AC108">
         <f t="shared" si="10"/>
-        <v>0.33746570453330493</v>
+        <v>0.3375135504609354</v>
       </c>
       <c r="AD108">
         <f t="shared" si="11"/>
@@ -10194,7 +10202,7 @@
       </c>
       <c r="W109">
         <f t="shared" si="6"/>
-        <v>0.23528284271959224</v>
+        <v>0.26653392422820921</v>
       </c>
       <c r="X109">
         <f t="shared" si="7"/>
@@ -10202,7 +10210,7 @@
       </c>
       <c r="Z109">
         <f t="shared" si="8"/>
-        <v>0.11929062881989069</v>
+        <v>0.11946940905860153</v>
       </c>
       <c r="AA109">
         <f t="shared" si="9"/>
@@ -10210,7 +10218,7 @@
       </c>
       <c r="AC109">
         <f t="shared" si="10"/>
-        <v>0.33746570453330493</v>
+        <v>0.3375135504609354</v>
       </c>
       <c r="AD109">
         <f t="shared" si="11"/>
@@ -10283,7 +10291,7 @@
       </c>
       <c r="W110">
         <f t="shared" si="6"/>
-        <v>0.17539891737289398</v>
+        <v>0.1228106816580174</v>
       </c>
       <c r="X110">
         <f t="shared" si="7"/>
@@ -10291,7 +10299,7 @@
       </c>
       <c r="Z110">
         <f t="shared" si="8"/>
-        <v>7.8851954650378434E-2</v>
+        <v>7.9122160794254479E-2</v>
       </c>
       <c r="AA110">
         <f t="shared" si="9"/>
@@ -10299,7 +10307,7 @@
       </c>
       <c r="AC110">
         <f t="shared" si="10"/>
-        <v>9.0476089166250301E-2</v>
+        <v>9.0654386101312212E-2</v>
       </c>
       <c r="AD110">
         <f t="shared" si="11"/>
@@ -10372,7 +10380,7 @@
       </c>
       <c r="W111">
         <f t="shared" si="6"/>
-        <v>0.17539891737289398</v>
+        <v>0.1228106816580174</v>
       </c>
       <c r="X111">
         <f t="shared" si="7"/>
@@ -10380,7 +10388,7 @@
       </c>
       <c r="Z111">
         <f t="shared" si="8"/>
-        <v>7.8851954650378434E-2</v>
+        <v>7.9122160794254479E-2</v>
       </c>
       <c r="AA111">
         <f t="shared" si="9"/>
@@ -10388,7 +10396,7 @@
       </c>
       <c r="AC111">
         <f t="shared" si="10"/>
-        <v>9.0476089166250301E-2</v>
+        <v>9.0654386101312212E-2</v>
       </c>
       <c r="AD111">
         <f t="shared" si="11"/>
@@ -10461,7 +10469,7 @@
       </c>
       <c r="W112">
         <f t="shared" si="6"/>
-        <v>0.3695534864808937</v>
+        <v>0.347688743970678</v>
       </c>
       <c r="X112">
         <f t="shared" si="7"/>
@@ -10469,7 +10477,7 @@
       </c>
       <c r="Z112">
         <f t="shared" si="8"/>
-        <v>0.18686180842066025</v>
+        <v>0.18674755652932384</v>
       </c>
       <c r="AA112">
         <f t="shared" si="9"/>
@@ -10477,7 +10485,7 @@
       </c>
       <c r="AC112">
         <f t="shared" si="10"/>
-        <v>0.24761980369588948</v>
+        <v>0.24768500598739795</v>
       </c>
       <c r="AD112">
         <f t="shared" si="11"/>
@@ -10550,7 +10558,7 @@
       </c>
       <c r="W113">
         <f t="shared" si="6"/>
-        <v>0.3695534864808937</v>
+        <v>0.347688743970678</v>
       </c>
       <c r="X113">
         <f t="shared" si="7"/>
@@ -10558,7 +10566,7 @@
       </c>
       <c r="Z113">
         <f t="shared" si="8"/>
-        <v>0.18686180842066025</v>
+        <v>0.18674755652932384</v>
       </c>
       <c r="AA113">
         <f t="shared" si="9"/>
@@ -10566,7 +10574,7 @@
       </c>
       <c r="AC113">
         <f t="shared" si="10"/>
-        <v>0.24761980369588948</v>
+        <v>0.24768500598739795</v>
       </c>
       <c r="AD113">
         <f t="shared" si="11"/>
@@ -10639,7 +10647,7 @@
       </c>
       <c r="W114">
         <f t="shared" si="6"/>
-        <v>0.28332618915998281</v>
+        <v>0.30976772935571384</v>
       </c>
       <c r="X114">
         <f t="shared" si="7"/>
@@ -10647,7 +10655,7 @@
       </c>
       <c r="Z114">
         <f t="shared" si="8"/>
-        <v>9.407467279274051E-2</v>
+        <v>9.3847527854998225E-2</v>
       </c>
       <c r="AA114">
         <f t="shared" si="9"/>
@@ -10655,7 +10663,7 @@
       </c>
       <c r="AC114">
         <f t="shared" si="10"/>
-        <v>0.25939375093438699</v>
+        <v>0.25945599440444095</v>
       </c>
       <c r="AD114">
         <f t="shared" si="11"/>
@@ -10728,7 +10736,7 @@
       </c>
       <c r="W115">
         <f t="shared" si="6"/>
-        <v>0.28332618915998281</v>
+        <v>0.30976772935571384</v>
       </c>
       <c r="X115">
         <f t="shared" si="7"/>
@@ -10736,7 +10744,7 @@
       </c>
       <c r="Z115">
         <f t="shared" si="8"/>
-        <v>9.407467279274051E-2</v>
+        <v>9.3847527854998225E-2</v>
       </c>
       <c r="AA115">
         <f t="shared" si="9"/>
@@ -10744,7 +10752,7 @@
       </c>
       <c r="AC115">
         <f t="shared" si="10"/>
-        <v>0.25939375093438699</v>
+        <v>0.25945599440444095</v>
       </c>
       <c r="AD115">
         <f t="shared" si="11"/>
@@ -10817,7 +10825,7 @@
       </c>
       <c r="W116">
         <f t="shared" si="6"/>
-        <v>0.31424766544593358</v>
+        <v>0.33828081814447564</v>
       </c>
       <c r="X116">
         <f t="shared" si="7"/>
@@ -10825,7 +10833,7 @@
       </c>
       <c r="Z116">
         <f t="shared" si="8"/>
-        <v>0.28154381594006417</v>
+        <v>0.28146799945557971</v>
       </c>
       <c r="AA116">
         <f t="shared" si="9"/>
@@ -10833,7 +10841,7 @@
       </c>
       <c r="AC116">
         <f t="shared" si="10"/>
-        <v>0.23411641839742542</v>
+        <v>0.23418538035459188</v>
       </c>
       <c r="AD116">
         <f t="shared" si="11"/>
@@ -10906,7 +10914,7 @@
       </c>
       <c r="W117">
         <f t="shared" si="6"/>
-        <v>0.31424766544593358</v>
+        <v>0.33828081814447564</v>
       </c>
       <c r="X117">
         <f t="shared" si="7"/>
@@ -10914,7 +10922,7 @@
       </c>
       <c r="Z117">
         <f t="shared" si="8"/>
-        <v>0.28154381594006417</v>
+        <v>0.28146799945557971</v>
       </c>
       <c r="AA117">
         <f t="shared" si="9"/>
@@ -10922,7 +10930,7 @@
       </c>
       <c r="AC117">
         <f t="shared" si="10"/>
-        <v>0.23411641839742542</v>
+        <v>0.23418538035459188</v>
       </c>
       <c r="AD117">
         <f t="shared" si="11"/>
@@ -10995,7 +11003,7 @@
       </c>
       <c r="W118">
         <f t="shared" si="6"/>
-        <v>0.12011317576989218</v>
+        <v>3.542797895375048E-2</v>
       </c>
       <c r="X118">
         <f t="shared" si="7"/>
@@ -11003,7 +11011,7 @@
       </c>
       <c r="Z118">
         <f t="shared" si="8"/>
-        <v>0.20607157717187274</v>
+        <v>0.20596798135034625</v>
       </c>
       <c r="AA118">
         <f t="shared" si="9"/>
@@ -11011,7 +11019,7 @@
       </c>
       <c r="AC118">
         <f t="shared" si="10"/>
-        <v>0.25348497776082723</v>
+        <v>0.25354867177525026</v>
       </c>
       <c r="AD118">
         <f t="shared" si="11"/>
@@ -11084,7 +11092,7 @@
       </c>
       <c r="W119">
         <f t="shared" si="6"/>
-        <v>0.12011317576989218</v>
+        <v>3.542797895375048E-2</v>
       </c>
       <c r="X119">
         <f t="shared" si="7"/>
@@ -11092,7 +11100,7 @@
       </c>
       <c r="Z119">
         <f t="shared" si="8"/>
-        <v>0.20607157717187274</v>
+        <v>0.20596798135034625</v>
       </c>
       <c r="AA119">
         <f t="shared" si="9"/>
@@ -11100,7 +11108,7 @@
       </c>
       <c r="AC119">
         <f t="shared" si="10"/>
-        <v>0.25348497776082723</v>
+        <v>0.25354867177525026</v>
       </c>
       <c r="AD119">
         <f t="shared" si="11"/>
@@ -11173,7 +11181,7 @@
       </c>
       <c r="W120">
         <f t="shared" si="6"/>
-        <v>0.21118385538805398</v>
+        <v>0.17004794644536611</v>
       </c>
       <c r="X120">
         <f t="shared" si="7"/>
@@ -11181,7 +11189,7 @@
       </c>
       <c r="Z120">
         <f t="shared" si="8"/>
-        <v>0.28601594405721731</v>
+        <v>0.28594131334659345</v>
       </c>
       <c r="AA120">
         <f t="shared" si="9"/>
@@ -11189,7 +11197,7 @@
       </c>
       <c r="AC120">
         <f t="shared" si="10"/>
-        <v>0.28941848017884697</v>
+        <v>0.28947426772965523</v>
       </c>
       <c r="AD120">
         <f t="shared" si="11"/>
@@ -11262,7 +11270,7 @@
       </c>
       <c r="W121">
         <f t="shared" si="6"/>
-        <v>0.21118385538805398</v>
+        <v>0.17004794644536611</v>
       </c>
       <c r="X121">
         <f t="shared" si="7"/>
@@ -11270,7 +11278,7 @@
       </c>
       <c r="Z121">
         <f t="shared" si="8"/>
-        <v>0.1231503645091315</v>
+        <v>0.12297693565122457</v>
       </c>
       <c r="AA121">
         <f t="shared" si="9"/>
@@ -11278,7 +11286,7 @@
       </c>
       <c r="AC121">
         <f t="shared" si="10"/>
-        <v>0.30230478608555261</v>
+        <v>0.3023581960172706</v>
       </c>
       <c r="AD121">
         <f t="shared" si="11"/>
@@ -11351,7 +11359,7 @@
       </c>
       <c r="W122">
         <f t="shared" si="6"/>
-        <v>0.46319232566593127</v>
+        <v>0.47982230798712405</v>
       </c>
       <c r="X122">
         <f t="shared" si="7"/>
@@ -11359,7 +11367,7 @@
       </c>
       <c r="Z122">
         <f t="shared" si="8"/>
-        <v>0.2846159516150909</v>
+        <v>0.28454095370824434</v>
       </c>
       <c r="AA122">
         <f t="shared" si="9"/>
@@ -11367,7 +11375,7 @@
       </c>
       <c r="AC122">
         <f t="shared" si="10"/>
-        <v>0.31692020921895736</v>
+        <v>0.31697115644798696</v>
       </c>
       <c r="AD122">
         <f t="shared" si="11"/>
@@ -11440,7 +11448,7 @@
       </c>
       <c r="W123">
         <f t="shared" si="6"/>
-        <v>0.49758867797873829</v>
+        <v>0.51310506637423192</v>
       </c>
       <c r="X123">
         <f t="shared" si="7"/>
@@ -11448,7 +11456,7 @@
       </c>
       <c r="Z123">
         <f t="shared" si="8"/>
-        <v>0.2846159516150909</v>
+        <v>0.28454095370824434</v>
       </c>
       <c r="AA123">
         <f t="shared" si="9"/>
@@ -11456,7 +11464,7 @@
       </c>
       <c r="AC123">
         <f t="shared" si="10"/>
-        <v>0.36074134734477931</v>
+        <v>0.36078610656830068</v>
       </c>
       <c r="AD123">
         <f t="shared" si="11"/>
@@ -11529,7 +11537,7 @@
       </c>
       <c r="W124">
         <f t="shared" si="6"/>
-        <v>0.13521211146086728</v>
+        <v>5.0990179441041339E-2</v>
       </c>
       <c r="X124">
         <f t="shared" si="7"/>
@@ -11537,7 +11545,7 @@
       </c>
       <c r="Z124">
         <f t="shared" si="8"/>
-        <v>0.17365841157055209</v>
+        <v>0.17378126908782138</v>
       </c>
       <c r="AA124">
         <f t="shared" si="9"/>
@@ -11545,7 +11553,7 @@
       </c>
       <c r="AC124">
         <f t="shared" si="10"/>
-        <v>0.19019973211183586</v>
+        <v>0.19011481553742099</v>
       </c>
       <c r="AD124">
         <f t="shared" si="11"/>
@@ -11618,7 +11626,7 @@
       </c>
       <c r="W125">
         <f t="shared" si="6"/>
-        <v>0.13521211146086728</v>
+        <v>5.0990179441041339E-2</v>
       </c>
       <c r="X125">
         <f t="shared" si="7"/>
@@ -11626,7 +11634,7 @@
       </c>
       <c r="Z125">
         <f t="shared" si="8"/>
-        <v>0.17365841157055209</v>
+        <v>0.17378126908782138</v>
       </c>
       <c r="AA125">
         <f t="shared" si="9"/>
@@ -11634,7 +11642,7 @@
       </c>
       <c r="AC125">
         <f t="shared" si="10"/>
-        <v>0.19019973211183586</v>
+        <v>0.19011481553742099</v>
       </c>
       <c r="AD125">
         <f t="shared" si="11"/>
@@ -11690,8 +11698,8 @@
       <c r="Q126" s="2">
         <v>0.22822945630633867</v>
       </c>
-      <c r="R126" s="2">
-        <v>0.19770938179996581</v>
+      <c r="R126" s="3">
+        <v>0.200709381799966</v>
       </c>
       <c r="S126" s="2">
         <v>0.24704761183545948</v>
@@ -11707,15 +11715,15 @@
       </c>
       <c r="W126">
         <f t="shared" si="6"/>
-        <v>0.36173673518138522</v>
+        <v>0.36268682543643771</v>
       </c>
       <c r="X126">
         <f t="shared" si="7"/>
-        <v>-0.1395926354922222</v>
+        <v>-0.1245985865714192</v>
       </c>
       <c r="Z126">
         <f t="shared" si="8"/>
-        <v>8.1292707679944509E-2</v>
+        <v>8.1029739882159224E-2</v>
       </c>
       <c r="AA126">
         <f t="shared" si="9"/>
@@ -11723,7 +11731,7 @@
       </c>
       <c r="AC126">
         <f t="shared" si="10"/>
-        <v>0.16526410469125971</v>
+        <v>0.1653617830938883</v>
       </c>
       <c r="AD126">
         <f t="shared" si="11"/>
@@ -11796,7 +11804,7 @@
       </c>
       <c r="W127">
         <f t="shared" si="6"/>
-        <v>0.33237474320184413</v>
+        <v>0.3551834548578639</v>
       </c>
       <c r="X127">
         <f t="shared" si="7"/>
@@ -11804,7 +11812,7 @@
       </c>
       <c r="Z127">
         <f t="shared" si="8"/>
-        <v>0.105428441422662</v>
+        <v>0.10563068605939374</v>
       </c>
       <c r="AA127">
         <f t="shared" si="9"/>
@@ -11812,7 +11820,7 @@
       </c>
       <c r="AC127">
         <f t="shared" si="10"/>
-        <v>0.23947038176605567</v>
+        <v>0.2395378023439452</v>
       </c>
       <c r="AD127">
         <f t="shared" si="11"/>
@@ -11885,7 +11893,7 @@
       </c>
       <c r="W128">
         <f t="shared" si="6"/>
-        <v>7.8087700633047624E-2</v>
+        <v>9.7901111822695536E-2</v>
       </c>
       <c r="X128">
         <f t="shared" si="7"/>
@@ -11893,7 +11901,7 @@
       </c>
       <c r="Z128">
         <f t="shared" si="8"/>
-        <v>0.16369074111016188</v>
+        <v>0.16382107404653581</v>
       </c>
       <c r="AA128">
         <f t="shared" si="9"/>
@@ -11901,7 +11909,7 @@
       </c>
       <c r="AC128">
         <f t="shared" si="10"/>
-        <v>0.4372797319179248</v>
+        <v>0.43731665753181492</v>
       </c>
       <c r="AD128">
         <f t="shared" si="11"/>
@@ -11974,7 +11982,7 @@
       </c>
       <c r="W129">
         <f t="shared" si="6"/>
-        <v>7.8087700633047624E-2</v>
+        <v>9.7901111822695536E-2</v>
       </c>
       <c r="X129">
         <f t="shared" si="7"/>
@@ -11982,7 +11990,7 @@
       </c>
       <c r="Z129">
         <f t="shared" si="8"/>
-        <v>0.16369074111016188</v>
+        <v>0.16382107404653581</v>
       </c>
       <c r="AA129">
         <f t="shared" si="9"/>
@@ -11990,7 +11998,7 @@
       </c>
       <c r="AC129">
         <f t="shared" si="10"/>
-        <v>0.3710624589411054</v>
+        <v>0.37110597333377165</v>
       </c>
       <c r="AD129">
         <f t="shared" si="11"/>
@@ -12063,7 +12071,7 @@
       </c>
       <c r="W130">
         <f t="shared" si="6"/>
-        <v>0.42424913912325912</v>
+        <v>0.4053455505621717</v>
       </c>
       <c r="X130">
         <f t="shared" si="7"/>
@@ -12071,7 +12079,7 @@
       </c>
       <c r="Z130">
         <f t="shared" si="8"/>
-        <v>0.14782698131679109</v>
+        <v>0.1479712876939355</v>
       </c>
       <c r="AA130">
         <f t="shared" si="9"/>
@@ -12079,7 +12087,7 @@
       </c>
       <c r="AC130">
         <f t="shared" si="10"/>
-        <v>0.31010672816884405</v>
+        <v>0.31015879459427204</v>
       </c>
       <c r="AD130">
         <f t="shared" si="11"/>
@@ -12152,7 +12160,7 @@
       </c>
       <c r="W131">
         <f t="shared" ref="W131:W194" si="12">SQRT(ABS(X131-$Y$2))</f>
-        <v>0.42424913912325912</v>
+        <v>0.4053455505621717</v>
       </c>
       <c r="X131">
         <f t="shared" ref="X131:X194" si="13">(R131-O131)/(0.5*(O131+R131))</f>
@@ -12160,7 +12168,7 @@
       </c>
       <c r="Z131">
         <f t="shared" ref="Z131:Z193" si="14">SQRT(ABS(AA131-$AB$2))</f>
-        <v>0.14782698131679109</v>
+        <v>0.1479712876939355</v>
       </c>
       <c r="AA131">
         <f t="shared" ref="AA131:AA193" si="15">(S131-P131)/(0.5*(P131+S131))</f>
@@ -12168,7 +12176,7 @@
       </c>
       <c r="AC131">
         <f t="shared" ref="AC131:AC193" si="16">SQRT(ABS(AD131-$AE$2))</f>
-        <v>0.31010672816884405</v>
+        <v>0.31015879459427204</v>
       </c>
       <c r="AD131">
         <f t="shared" ref="AD131:AD193" si="17">(T131-Q131)/(0.5*(Q131+T131))</f>
@@ -12241,7 +12249,7 @@
       </c>
       <c r="W132">
         <f t="shared" si="12"/>
-        <v>0.10839911450750642</v>
+        <v>0.16562815193163236</v>
       </c>
       <c r="X132">
         <f t="shared" si="13"/>
@@ -12249,7 +12257,7 @@
       </c>
       <c r="Z132">
         <f t="shared" si="14"/>
-        <v>0.13711450608518572</v>
+        <v>0.13727007450843376</v>
       </c>
       <c r="AA132">
         <f t="shared" si="15"/>
@@ -12257,7 +12265,7 @@
       </c>
       <c r="AC132">
         <f t="shared" si="16"/>
-        <v>0.21614296382821768</v>
+        <v>0.2162176584394363</v>
       </c>
       <c r="AD132">
         <f t="shared" si="17"/>
@@ -12330,7 +12338,7 @@
       </c>
       <c r="W133">
         <f t="shared" si="12"/>
-        <v>0.10839911450750642</v>
+        <v>0.16562815193163236</v>
       </c>
       <c r="X133">
         <f t="shared" si="13"/>
@@ -12338,7 +12346,7 @@
       </c>
       <c r="Z133">
         <f t="shared" si="14"/>
-        <v>0.13711450608518572</v>
+        <v>0.13727007450843376</v>
       </c>
       <c r="AA133">
         <f t="shared" si="15"/>
@@ -12346,7 +12354,7 @@
       </c>
       <c r="AC133">
         <f t="shared" si="16"/>
-        <v>0.21614296382821768</v>
+        <v>0.2162176584394363</v>
       </c>
       <c r="AD133">
         <f t="shared" si="17"/>
@@ -12419,7 +12427,7 @@
       </c>
       <c r="W134">
         <f t="shared" si="12"/>
-        <v>0.11632398565309361</v>
+        <v>4.6379381712731704E-2</v>
       </c>
       <c r="X134">
         <f t="shared" si="13"/>
@@ -12427,7 +12435,7 @@
       </c>
       <c r="Z134">
         <f t="shared" si="14"/>
-        <v>0.19009267744039388</v>
+        <v>0.18998036856446801</v>
       </c>
       <c r="AA134">
         <f t="shared" si="15"/>
@@ -12435,7 +12443,7 @@
       </c>
       <c r="AC134">
         <f t="shared" si="16"/>
-        <v>0.18185547524836243</v>
+        <v>0.18176666049972215</v>
       </c>
       <c r="AD134">
         <f t="shared" si="17"/>
@@ -12491,8 +12499,8 @@
       <c r="Q135" s="2">
         <v>0.22332646590840091</v>
       </c>
-      <c r="R135" s="2">
-        <v>0.21953071693926332</v>
+      <c r="R135" s="3">
+        <v>0.21853071693926299</v>
       </c>
       <c r="S135" s="2">
         <v>0.24976113766083941</v>
@@ -12508,15 +12516,15 @@
       </c>
       <c r="W135">
         <f t="shared" si="12"/>
-        <v>0.11632398565309361</v>
+        <v>8.1954960117619241E-2</v>
       </c>
       <c r="X135">
         <f t="shared" si="13"/>
-        <v>4.7920997256865718E-3</v>
+        <v>2.2653128586128473E-4</v>
       </c>
       <c r="Z135">
         <f t="shared" si="14"/>
-        <v>0.19009267744039388</v>
+        <v>0.18998036856446801</v>
       </c>
       <c r="AA135">
         <f t="shared" si="15"/>
@@ -12524,7 +12532,7 @@
       </c>
       <c r="AC135">
         <f t="shared" si="16"/>
-        <v>0.18185547524836243</v>
+        <v>0.18176666049972215</v>
       </c>
       <c r="AD135">
         <f t="shared" si="17"/>
@@ -12597,7 +12605,7 @@
       </c>
       <c r="W136">
         <f t="shared" si="12"/>
-        <v>0.33701783181562739</v>
+        <v>0.31288768316351173</v>
       </c>
       <c r="X136">
         <f t="shared" si="13"/>
@@ -12605,7 +12613,7 @@
       </c>
       <c r="Z136">
         <f t="shared" si="14"/>
-        <v>0.1119452970790147</v>
+        <v>0.11175448072244054</v>
       </c>
       <c r="AA136">
         <f t="shared" si="15"/>
@@ -12613,7 +12621,7 @@
       </c>
       <c r="AC136">
         <f t="shared" si="16"/>
-        <v>0.39934166466629811</v>
+        <v>0.39938209793008572</v>
       </c>
       <c r="AD136">
         <f t="shared" si="17"/>
@@ -12686,7 +12694,7 @@
       </c>
       <c r="W137">
         <f t="shared" si="12"/>
-        <v>0.33701783181562739</v>
+        <v>0.31288768316351173</v>
       </c>
       <c r="X137">
         <f t="shared" si="13"/>
@@ -12694,7 +12702,7 @@
       </c>
       <c r="Z137">
         <f t="shared" si="14"/>
-        <v>0.1119452970790147</v>
+        <v>0.11175448072244054</v>
       </c>
       <c r="AA137">
         <f t="shared" si="15"/>
@@ -12702,7 +12710,7 @@
       </c>
       <c r="AC137">
         <f t="shared" si="16"/>
-        <v>0.39934166466629811</v>
+        <v>0.39938209793008572</v>
       </c>
       <c r="AD137">
         <f t="shared" si="17"/>
@@ -12775,7 +12783,7 @@
       </c>
       <c r="W138">
         <f t="shared" si="12"/>
-        <v>0.20060927330444833</v>
+        <v>0.23648762593847325</v>
       </c>
       <c r="X138">
         <f t="shared" si="13"/>
@@ -12783,7 +12791,7 @@
       </c>
       <c r="Z138">
         <f t="shared" si="14"/>
-        <v>9.6584360801675678E-2</v>
+        <v>9.6805084205504363E-2</v>
       </c>
       <c r="AA138">
         <f t="shared" si="15"/>
@@ -12791,7 +12799,7 @@
       </c>
       <c r="AC138">
         <f t="shared" si="16"/>
-        <v>0.23073143872143501</v>
+        <v>0.23080141209067553</v>
       </c>
       <c r="AD138">
         <f t="shared" si="17"/>
@@ -12864,7 +12872,7 @@
       </c>
       <c r="W139">
         <f t="shared" si="12"/>
-        <v>0.20060927330444833</v>
+        <v>0.23648762593847325</v>
       </c>
       <c r="X139">
         <f t="shared" si="13"/>
@@ -12872,7 +12880,7 @@
       </c>
       <c r="Z139">
         <f t="shared" si="14"/>
-        <v>9.6584360801675678E-2</v>
+        <v>9.6805084205504363E-2</v>
       </c>
       <c r="AA139">
         <f t="shared" si="15"/>
@@ -12880,7 +12888,7 @@
       </c>
       <c r="AC139">
         <f t="shared" si="16"/>
-        <v>0.23073143872143501</v>
+        <v>0.23080141209067553</v>
       </c>
       <c r="AD139">
         <f t="shared" si="17"/>
@@ -12953,7 +12961,7 @@
       </c>
       <c r="W140">
         <f t="shared" si="12"/>
-        <v>0.334874355760931</v>
+        <v>0.35752363674668419</v>
       </c>
       <c r="X140">
         <f t="shared" si="13"/>
@@ -12961,7 +12969,7 @@
       </c>
       <c r="Z140">
         <f t="shared" si="14"/>
-        <v>0.31401290083845046</v>
+        <v>0.31394492561022869</v>
       </c>
       <c r="AA140">
         <f t="shared" si="15"/>
@@ -12969,7 +12977,7 @@
       </c>
       <c r="AC140">
         <f t="shared" si="16"/>
-        <v>0.1915977554258734</v>
+        <v>0.19168201504788943</v>
       </c>
       <c r="AD140">
         <f t="shared" si="17"/>
@@ -13042,7 +13050,7 @@
       </c>
       <c r="W141">
         <f t="shared" si="12"/>
-        <v>0.334874355760931</v>
+        <v>0.35752363674668419</v>
       </c>
       <c r="X141">
         <f t="shared" si="13"/>
@@ -13050,7 +13058,7 @@
       </c>
       <c r="Z141">
         <f t="shared" si="14"/>
-        <v>0.31401290083845046</v>
+        <v>0.31394492561022869</v>
       </c>
       <c r="AA141">
         <f t="shared" si="15"/>
@@ -13058,7 +13066,7 @@
       </c>
       <c r="AC141">
         <f t="shared" si="16"/>
-        <v>0.1915977554258734</v>
+        <v>0.19168201504788943</v>
       </c>
       <c r="AD141">
         <f t="shared" si="17"/>
@@ -13131,7 +13139,7 @@
       </c>
       <c r="W142">
         <f t="shared" si="12"/>
-        <v>5.6597480403820552E-2</v>
+        <v>0.13742485755618322</v>
       </c>
       <c r="X142">
         <f t="shared" si="13"/>
@@ -13139,7 +13147,7 @@
       </c>
       <c r="Z142">
         <f t="shared" si="14"/>
-        <v>0.30891163910578973</v>
+        <v>0.30884254110866782</v>
       </c>
       <c r="AA142">
         <f t="shared" si="15"/>
@@ -13147,7 +13155,7 @@
       </c>
       <c r="AC142">
         <f t="shared" si="16"/>
-        <v>0.21930124511394716</v>
+        <v>0.21937486436944881</v>
       </c>
       <c r="AD142">
         <f t="shared" si="17"/>
@@ -13220,7 +13228,7 @@
       </c>
       <c r="W143">
         <f t="shared" si="12"/>
-        <v>5.6597480403820552E-2</v>
+        <v>0.13742485755618322</v>
       </c>
       <c r="X143">
         <f t="shared" si="13"/>
@@ -13228,7 +13236,7 @@
       </c>
       <c r="Z143">
         <f t="shared" si="14"/>
-        <v>0.30891163910578973</v>
+        <v>0.30884254110866782</v>
       </c>
       <c r="AA143">
         <f t="shared" si="15"/>
@@ -13236,7 +13244,7 @@
       </c>
       <c r="AC143">
         <f t="shared" si="16"/>
-        <v>0.21930124511394716</v>
+        <v>0.21937486436944881</v>
       </c>
       <c r="AD143">
         <f t="shared" si="17"/>
@@ -13283,8 +13291,8 @@
       <c r="N144">
         <v>1.5</v>
       </c>
-      <c r="O144" s="2">
-        <v>0.23063687044253944</v>
+      <c r="O144" s="3">
+        <v>0.23003687044253901</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" s="2"/>
@@ -13301,11 +13309,11 @@
       </c>
       <c r="W144">
         <f t="shared" si="12"/>
-        <v>0.35135900052824343</v>
+        <v>0.36951554797828867</v>
       </c>
       <c r="X144">
         <f t="shared" si="13"/>
-        <v>-0.13219231716474072</v>
+        <v>-0.12959859342395311</v>
       </c>
     </row>
     <row r="145" spans="1:30" x14ac:dyDescent="0.25">
@@ -13366,7 +13374,7 @@
       </c>
       <c r="W145">
         <f t="shared" si="12"/>
-        <v>0.28881831996647622</v>
+        <v>0.31479888601221928</v>
       </c>
       <c r="X145">
         <f t="shared" si="13"/>
@@ -13439,7 +13447,7 @@
       </c>
       <c r="W146">
         <f t="shared" si="12"/>
-        <v>7.8290625971517647E-2</v>
+        <v>9.7738910221386893E-2</v>
       </c>
       <c r="X146">
         <f t="shared" si="13"/>
@@ -13447,7 +13455,7 @@
       </c>
       <c r="Z146">
         <f t="shared" si="14"/>
-        <v>0.11737949581548957</v>
+        <v>0.11719752753932997</v>
       </c>
       <c r="AA146">
         <f t="shared" si="15"/>
@@ -13455,7 +13463,7 @@
       </c>
       <c r="AC146">
         <f t="shared" si="16"/>
-        <v>0.20990368869841236</v>
+        <v>0.20982674643765864</v>
       </c>
       <c r="AD146">
         <f t="shared" si="17"/>
@@ -13502,8 +13510,8 @@
       <c r="N147">
         <v>1.5</v>
       </c>
-      <c r="O147" s="2">
-        <v>0.28589077564459953</v>
+      <c r="O147" s="3">
+        <v>0.28489077564460003</v>
       </c>
       <c r="P147" s="2">
         <v>0.33951301777720122</v>
@@ -13528,15 +13536,15 @@
       </c>
       <c r="W147">
         <f t="shared" si="12"/>
-        <v>7.8290625971517647E-2</v>
+        <v>7.777483549506857E-2</v>
       </c>
       <c r="X147">
         <f t="shared" si="13"/>
-        <v>-2.6097477975224833E-3</v>
+        <v>8.9422173745686495E-4</v>
       </c>
       <c r="Z147">
         <f t="shared" si="14"/>
-        <v>0.19793567645573742</v>
+        <v>0.19804347399133579</v>
       </c>
       <c r="AA147">
         <f t="shared" si="15"/>
@@ -13544,7 +13552,7 @@
       </c>
       <c r="AC147">
         <f t="shared" si="16"/>
-        <v>0.2951584405917872</v>
+        <v>0.29510372760097264</v>
       </c>
       <c r="AD147">
         <f t="shared" si="17"/>
@@ -13617,7 +13625,7 @@
       </c>
       <c r="W148">
         <f t="shared" si="12"/>
-        <v>0.31088021820118156</v>
+        <v>0.3351549294805175</v>
       </c>
       <c r="X148">
         <f t="shared" si="13"/>
@@ -13625,7 +13633,7 @@
       </c>
       <c r="Z148">
         <f t="shared" si="14"/>
-        <v>0.32808205817508074</v>
+        <v>0.32801699852268407</v>
       </c>
       <c r="AA148">
         <f t="shared" si="15"/>
@@ -13633,7 +13641,7 @@
       </c>
       <c r="AC148">
         <f t="shared" si="16"/>
-        <v>0.18041154689580333</v>
+        <v>0.18032202096457917</v>
       </c>
       <c r="AD148">
         <f t="shared" si="17"/>
@@ -13706,7 +13714,7 @@
       </c>
       <c r="W149">
         <f t="shared" si="12"/>
-        <v>0.31088021820118156</v>
+        <v>0.3351549294805175</v>
       </c>
       <c r="X149">
         <f t="shared" si="13"/>
@@ -13714,7 +13722,7 @@
       </c>
       <c r="Z149">
         <f t="shared" si="14"/>
-        <v>0.32808205817508074</v>
+        <v>0.32801699852268407</v>
       </c>
       <c r="AA149">
         <f t="shared" si="15"/>
@@ -13722,7 +13730,7 @@
       </c>
       <c r="AC149">
         <f t="shared" si="16"/>
-        <v>0.18041154689580333</v>
+        <v>0.18032202096457917</v>
       </c>
       <c r="AD149">
         <f t="shared" si="17"/>
@@ -13795,7 +13803,7 @@
       </c>
       <c r="W150">
         <f t="shared" si="12"/>
-        <v>0.24904694813598763</v>
+        <v>0.21527207364071382</v>
       </c>
       <c r="X150">
         <f t="shared" si="13"/>
@@ -13803,7 +13811,7 @@
       </c>
       <c r="Z150">
         <f t="shared" si="14"/>
-        <v>7.7055944161611462E-2</v>
+        <v>7.6778466734305523E-2</v>
       </c>
       <c r="AA150">
         <f t="shared" si="15"/>
@@ -13811,7 +13819,7 @@
       </c>
       <c r="AC150">
         <f t="shared" si="16"/>
-        <v>0.1415109519458175</v>
+        <v>0.14162501378357562</v>
       </c>
       <c r="AD150">
         <f t="shared" si="17"/>
@@ -13884,7 +13892,7 @@
       </c>
       <c r="W151">
         <f t="shared" si="12"/>
-        <v>0.24904694813598763</v>
+        <v>0.21527207364071382</v>
       </c>
       <c r="X151">
         <f t="shared" si="13"/>
@@ -13892,7 +13900,7 @@
       </c>
       <c r="Z151">
         <f t="shared" si="14"/>
-        <v>7.7055944161611462E-2</v>
+        <v>7.6778466734305523E-2</v>
       </c>
       <c r="AA151">
         <f t="shared" si="15"/>
@@ -13900,7 +13908,7 @@
       </c>
       <c r="AC151">
         <f t="shared" si="16"/>
-        <v>0.1415109519458175</v>
+        <v>0.14162501378357562</v>
       </c>
       <c r="AD151">
         <f t="shared" si="17"/>
@@ -13973,7 +13981,7 @@
       </c>
       <c r="W152">
         <f t="shared" si="12"/>
-        <v>0.28862852814873258</v>
+        <v>0.26004636235684458</v>
       </c>
       <c r="X152">
         <f t="shared" si="13"/>
@@ -13981,7 +13989,7 @@
       </c>
       <c r="Z152">
         <f t="shared" si="14"/>
-        <v>9.0378026917144597E-2</v>
+        <v>9.0613869390963761E-2</v>
       </c>
       <c r="AA152">
         <f t="shared" si="15"/>
@@ -13989,7 +13997,7 @@
       </c>
       <c r="AC152">
         <f t="shared" si="16"/>
-        <v>0.24724135499134878</v>
+        <v>0.24717603566966526</v>
       </c>
       <c r="AD152">
         <f t="shared" si="17"/>
@@ -14062,7 +14070,7 @@
       </c>
       <c r="W153">
         <f t="shared" si="12"/>
-        <v>0.28862852814873258</v>
+        <v>0.26004636235684458</v>
       </c>
       <c r="X153">
         <f t="shared" si="13"/>
@@ -14070,7 +14078,7 @@
       </c>
       <c r="Z153">
         <f t="shared" si="14"/>
-        <v>9.0378026917144597E-2</v>
+        <v>9.0613869390963761E-2</v>
       </c>
       <c r="AA153">
         <f t="shared" si="15"/>
@@ -14078,7 +14086,7 @@
       </c>
       <c r="AC153">
         <f t="shared" si="16"/>
-        <v>0.24724135499134878</v>
+        <v>0.24717603566966526</v>
       </c>
       <c r="AD153">
         <f t="shared" si="17"/>
@@ -14151,7 +14159,7 @@
       </c>
       <c r="W154">
         <f t="shared" si="12"/>
-        <v>8.9266508583548995E-2</v>
+        <v>8.7828282071207409E-2</v>
       </c>
       <c r="X154">
         <f t="shared" si="13"/>
@@ -14159,7 +14167,7 @@
       </c>
       <c r="Z154">
         <f t="shared" si="14"/>
-        <v>0.15446082250409249</v>
+        <v>0.15459893681784262</v>
       </c>
       <c r="AA154">
         <f t="shared" si="15"/>
@@ -14167,7 +14175,7 @@
       </c>
       <c r="AC154">
         <f t="shared" si="16"/>
-        <v>0.17726378709005269</v>
+        <v>0.17735485677616511</v>
       </c>
       <c r="AD154">
         <f t="shared" si="17"/>
@@ -14224,7 +14232,7 @@
         <v>0.20838251501443483</v>
       </c>
       <c r="R155" s="2">
-        <v>0.2021104532275515</v>
+        <v>0.202110453227552</v>
       </c>
       <c r="S155" s="2">
         <v>0.22273580597706991</v>
@@ -14240,15 +14248,15 @@
       </c>
       <c r="W155">
         <f t="shared" si="12"/>
-        <v>8.9266508583548995E-2</v>
+        <v>8.7828282071193337E-2</v>
       </c>
       <c r="X155">
         <f t="shared" si="13"/>
-        <v>-7.7066035783772944E-4</v>
+        <v>-7.7066035783525735E-4</v>
       </c>
       <c r="Z155">
         <f t="shared" si="14"/>
-        <v>0.15446082250409249</v>
+        <v>0.15459893681784262</v>
       </c>
       <c r="AA155">
         <f t="shared" si="15"/>
@@ -14256,7 +14264,7 @@
       </c>
       <c r="AC155">
         <f t="shared" si="16"/>
-        <v>0.17726378709005269</v>
+        <v>0.17735485677616511</v>
       </c>
       <c r="AD155">
         <f t="shared" si="17"/>
@@ -14329,7 +14337,7 @@
       </c>
       <c r="W156">
         <f t="shared" si="12"/>
-        <v>0.14672578685016321</v>
+        <v>7.6460053887785956E-2</v>
       </c>
       <c r="X156">
         <f t="shared" si="13"/>
@@ -14337,7 +14345,7 @@
       </c>
       <c r="Z156">
         <f t="shared" si="14"/>
-        <v>0.12849418476358421</v>
+        <v>0.12832797801528548</v>
       </c>
       <c r="AA156">
         <f t="shared" si="15"/>
@@ -14345,7 +14353,7 @@
       </c>
       <c r="AC156">
         <f t="shared" si="16"/>
-        <v>0.13845577556097718</v>
+        <v>0.13857235220193889</v>
       </c>
       <c r="AD156">
         <f t="shared" si="17"/>
@@ -14418,7 +14426,7 @@
       </c>
       <c r="W157">
         <f t="shared" si="12"/>
-        <v>0.14672578685016321</v>
+        <v>7.6460053887785956E-2</v>
       </c>
       <c r="X157">
         <f t="shared" si="13"/>
@@ -14426,7 +14434,7 @@
       </c>
       <c r="Z157">
         <f t="shared" si="14"/>
-        <v>0.12849418476358421</v>
+        <v>0.12832797801528548</v>
       </c>
       <c r="AA157">
         <f t="shared" si="15"/>
@@ -14434,7 +14442,7 @@
       </c>
       <c r="AC157">
         <f t="shared" si="16"/>
-        <v>0.13845577556097718</v>
+        <v>0.13857235220193889</v>
       </c>
       <c r="AD157">
         <f t="shared" si="17"/>
@@ -14507,7 +14515,7 @@
       </c>
       <c r="W158">
         <f t="shared" si="12"/>
-        <v>0.18932122600971735</v>
+        <v>0.14198665406138028</v>
       </c>
       <c r="X158">
         <f t="shared" si="13"/>
@@ -14515,7 +14523,7 @@
       </c>
       <c r="Z158">
         <f t="shared" si="14"/>
-        <v>1.3487288902087377E-2</v>
+        <v>1.1799211217782527E-2</v>
       </c>
       <c r="AA158">
         <f t="shared" si="15"/>
@@ -14523,7 +14531,7 @@
       </c>
       <c r="AC158">
         <f t="shared" si="16"/>
-        <v>0.78062911517144262</v>
+        <v>0.78060842965264143</v>
       </c>
       <c r="AD158">
         <f t="shared" si="17"/>
@@ -14596,7 +14604,7 @@
       </c>
       <c r="W159">
         <f t="shared" si="12"/>
-        <v>0.18932122600971735</v>
+        <v>0.14198665406138028</v>
       </c>
       <c r="X159">
         <f t="shared" si="13"/>
@@ -14604,7 +14612,7 @@
       </c>
       <c r="Z159">
         <f t="shared" si="14"/>
-        <v>1.3487288902087377E-2</v>
+        <v>1.1799211217782527E-2</v>
       </c>
       <c r="AA159">
         <f t="shared" si="15"/>
@@ -14612,7 +14620,7 @@
       </c>
       <c r="AC159">
         <f t="shared" si="16"/>
-        <v>0.78062911517144262</v>
+        <v>0.78060842965264143</v>
       </c>
       <c r="AD159">
         <f t="shared" si="17"/>
@@ -14685,7 +14693,7 @@
       </c>
       <c r="W160">
         <f t="shared" si="12"/>
-        <v>0.31739964295187756</v>
+        <v>0.29165084717809914</v>
       </c>
       <c r="X160">
         <f t="shared" si="13"/>
@@ -14693,7 +14701,7 @@
       </c>
       <c r="Z160">
         <f t="shared" si="14"/>
-        <v>0.30817203055105424</v>
+        <v>0.30824127885558483</v>
       </c>
       <c r="AA160">
         <f t="shared" si="15"/>
@@ -14701,7 +14709,7 @@
       </c>
       <c r="AC160">
         <f t="shared" si="16"/>
-        <v>0.14380118306857334</v>
+        <v>0.14391342974339766</v>
       </c>
       <c r="AD160">
         <f t="shared" si="17"/>
@@ -14774,7 +14782,7 @@
       </c>
       <c r="W161">
         <f t="shared" si="12"/>
-        <v>0.31739964295187756</v>
+        <v>0.29165084717809914</v>
       </c>
       <c r="X161">
         <f t="shared" si="13"/>
@@ -14782,7 +14790,7 @@
       </c>
       <c r="Z161">
         <f t="shared" si="14"/>
-        <v>0.30817203055105424</v>
+        <v>0.30824127885558483</v>
       </c>
       <c r="AA161">
         <f t="shared" si="15"/>
@@ -14790,7 +14798,7 @@
       </c>
       <c r="AC161">
         <f t="shared" si="16"/>
-        <v>0.14380118306857334</v>
+        <v>0.14391342974339766</v>
       </c>
       <c r="AD161">
         <f t="shared" si="17"/>
@@ -14863,7 +14871,7 @@
       </c>
       <c r="W162">
         <f t="shared" si="12"/>
-        <v>0.17251268879086867</v>
+        <v>0.1186520590111217</v>
       </c>
       <c r="X162">
         <f t="shared" si="13"/>
@@ -14871,7 +14879,7 @@
       </c>
       <c r="Z162">
         <f t="shared" si="14"/>
-        <v>0.29896912128366482</v>
+        <v>0.29889772482332511</v>
       </c>
       <c r="AA162">
         <f t="shared" si="15"/>
@@ -14879,7 +14887,7 @@
       </c>
       <c r="AC162">
         <f t="shared" si="16"/>
-        <v>0.2849035544215755</v>
+        <v>0.28484687169330319</v>
       </c>
       <c r="AD162">
         <f t="shared" si="17"/>
@@ -14952,7 +14960,7 @@
       </c>
       <c r="W163">
         <f t="shared" si="12"/>
-        <v>0.17251268879086867</v>
+        <v>0.1186520590111217</v>
       </c>
       <c r="X163">
         <f t="shared" si="13"/>
@@ -14960,7 +14968,7 @@
       </c>
       <c r="Z163">
         <f t="shared" si="14"/>
-        <v>0.29896912128366482</v>
+        <v>0.29889772482332511</v>
       </c>
       <c r="AA163">
         <f t="shared" si="15"/>
@@ -14968,7 +14976,7 @@
       </c>
       <c r="AC163">
         <f t="shared" si="16"/>
-        <v>0.2849035544215755</v>
+        <v>0.28484687169330319</v>
       </c>
       <c r="AD163">
         <f t="shared" si="17"/>
@@ -15041,7 +15049,7 @@
       </c>
       <c r="W164">
         <f t="shared" si="12"/>
-        <v>0.36006659126948393</v>
+        <v>0.33758796403626301</v>
       </c>
       <c r="X164">
         <f t="shared" si="13"/>
@@ -15049,7 +15057,7 @@
       </c>
       <c r="Z164">
         <f t="shared" si="14"/>
-        <v>0.33959420771939025</v>
+        <v>0.33965704982103184</v>
       </c>
       <c r="AA164">
         <f t="shared" si="15"/>
@@ -15057,7 +15065,7 @@
       </c>
       <c r="AC164">
         <f t="shared" si="16"/>
-        <v>0.19746339095773688</v>
+        <v>0.19754514870559226</v>
       </c>
       <c r="AD164">
         <f t="shared" si="17"/>
@@ -15130,7 +15138,7 @@
       </c>
       <c r="W165">
         <f t="shared" si="12"/>
-        <v>0.36006659126948393</v>
+        <v>0.33758796403626301</v>
       </c>
       <c r="X165">
         <f t="shared" si="13"/>
@@ -15138,7 +15146,7 @@
       </c>
       <c r="Z165">
         <f t="shared" si="14"/>
-        <v>0.33959420771939025</v>
+        <v>0.33965704982103184</v>
       </c>
       <c r="AA165">
         <f t="shared" si="15"/>
@@ -15146,7 +15154,7 @@
       </c>
       <c r="AC165">
         <f t="shared" si="16"/>
-        <v>0.19746339095773688</v>
+        <v>0.19754514870559226</v>
       </c>
       <c r="AD165">
         <f t="shared" si="17"/>
@@ -15219,7 +15227,7 @@
       </c>
       <c r="W166">
         <f t="shared" si="12"/>
-        <v>0.14084084188862997</v>
+        <v>0.18846341668921973</v>
       </c>
       <c r="X166">
         <f t="shared" si="13"/>
@@ -15227,7 +15235,7 @@
       </c>
       <c r="Z166">
         <f t="shared" si="14"/>
-        <v>0.2082665691775015</v>
+        <v>0.20836902220227826</v>
       </c>
       <c r="AA166">
         <f t="shared" si="15"/>
@@ -15235,7 +15243,7 @@
       </c>
       <c r="AC166">
         <f t="shared" si="16"/>
-        <v>7.3133097318356197E-2</v>
+        <v>7.3353561140292775E-2</v>
       </c>
       <c r="AD166">
         <f t="shared" si="17"/>
@@ -15308,7 +15316,7 @@
       </c>
       <c r="W167">
         <f t="shared" si="12"/>
-        <v>0.14084084188862997</v>
+        <v>0.18846341668921973</v>
       </c>
       <c r="X167">
         <f t="shared" si="13"/>
@@ -15316,7 +15324,7 @@
       </c>
       <c r="Z167">
         <f t="shared" si="14"/>
-        <v>0.2082665691775015</v>
+        <v>0.20836902220227826</v>
       </c>
       <c r="AA167">
         <f t="shared" si="15"/>
@@ -15324,7 +15332,7 @@
       </c>
       <c r="AC167">
         <f t="shared" si="16"/>
-        <v>7.3133097318356197E-2</v>
+        <v>7.3353561140292775E-2</v>
       </c>
       <c r="AD167">
         <f t="shared" si="17"/>
@@ -15397,7 +15405,7 @@
       </c>
       <c r="W168">
         <f t="shared" si="12"/>
-        <v>0.23936758285381282</v>
+        <v>0.27014654616995076</v>
       </c>
       <c r="X168">
         <f t="shared" si="13"/>
@@ -15405,7 +15413,7 @@
       </c>
       <c r="Z168">
         <f t="shared" si="14"/>
-        <v>0.28853420754962023</v>
+        <v>0.28846022836731028</v>
       </c>
       <c r="AA168">
         <f t="shared" si="15"/>
@@ -15413,7 +15421,7 @@
       </c>
       <c r="AC168">
         <f t="shared" si="16"/>
-        <v>0.23398008188772298</v>
+        <v>0.23391105940420823</v>
       </c>
       <c r="AD168">
         <f t="shared" si="17"/>
@@ -15486,7 +15494,7 @@
       </c>
       <c r="W169">
         <f t="shared" si="12"/>
-        <v>0.23936758285381282</v>
+        <v>0.27014654616995076</v>
       </c>
       <c r="X169">
         <f t="shared" si="13"/>
@@ -15494,7 +15502,7 @@
       </c>
       <c r="Z169">
         <f t="shared" si="14"/>
-        <v>0.28853420754962023</v>
+        <v>0.28846022836731028</v>
       </c>
       <c r="AA169">
         <f t="shared" si="15"/>
@@ -15502,7 +15510,7 @@
       </c>
       <c r="AC169">
         <f t="shared" si="16"/>
-        <v>0.23398008188772298</v>
+        <v>0.23391105940420823</v>
       </c>
       <c r="AD169">
         <f t="shared" si="17"/>
@@ -15575,7 +15583,7 @@
       </c>
       <c r="W170">
         <f t="shared" si="12"/>
-        <v>0.20439649130691626</v>
+        <v>0.16154135375284528</v>
       </c>
       <c r="X170">
         <f t="shared" si="13"/>
@@ -15583,7 +15591,7 @@
       </c>
       <c r="Z170">
         <f t="shared" si="14"/>
-        <v>0.1963493801014386</v>
+        <v>0.19624065198029864</v>
       </c>
       <c r="AA170">
         <f t="shared" si="15"/>
@@ -15591,7 +15599,7 @@
       </c>
       <c r="AC170">
         <f t="shared" si="16"/>
-        <v>2.6860071200468294E-2</v>
+        <v>2.7454661416246598E-2</v>
       </c>
       <c r="AD170">
         <f t="shared" si="17"/>
@@ -15664,7 +15672,7 @@
       </c>
       <c r="W171">
         <f t="shared" si="12"/>
-        <v>0.161752466567229</v>
+        <v>0.10237941079292329</v>
       </c>
       <c r="X171">
         <f t="shared" si="13"/>
@@ -15672,7 +15680,7 @@
       </c>
       <c r="Z171">
         <f t="shared" si="14"/>
-        <v>8.6012715646060278E-2</v>
+        <v>8.6260494024649248E-2</v>
       </c>
       <c r="AA171">
         <f t="shared" si="15"/>
@@ -15680,7 +15688,7 @@
       </c>
       <c r="AC171">
         <f t="shared" si="16"/>
-        <v>0.25471477441207607</v>
+        <v>0.25465137206621974</v>
       </c>
       <c r="AD171">
         <f t="shared" si="17"/>
@@ -15736,8 +15744,8 @@
       <c r="Q172" s="2">
         <v>0.17003761239436077</v>
       </c>
-      <c r="R172" s="2">
-        <v>0.22222707455881299</v>
+      <c r="R172" s="3">
+        <v>0.22122707455881299</v>
       </c>
       <c r="S172" s="2">
         <v>0.22920190875142835</v>
@@ -15753,15 +15761,15 @@
       </c>
       <c r="W172">
         <f t="shared" si="12"/>
-        <v>0.47797486212416063</v>
+        <v>0.45642187948845975</v>
       </c>
       <c r="X172">
         <f t="shared" si="13"/>
-        <v>0.21972079891007582</v>
+        <v>0.2152640788495199</v>
       </c>
       <c r="Z172">
         <f t="shared" si="14"/>
-        <v>0.18567960371733747</v>
+        <v>0.18556462394557038</v>
       </c>
       <c r="AA172">
         <f t="shared" si="15"/>
@@ -15769,7 +15777,7 @@
       </c>
       <c r="AC172">
         <f t="shared" si="16"/>
-        <v>0.34026947503595423</v>
+        <v>0.34022201667831165</v>
       </c>
       <c r="AD172">
         <f t="shared" si="17"/>
@@ -15842,7 +15850,7 @@
       </c>
       <c r="W173">
         <f t="shared" si="12"/>
-        <v>0.47797486212416063</v>
+        <v>0.46127828058161807</v>
       </c>
       <c r="X173">
         <f t="shared" si="13"/>
@@ -15850,7 +15858,7 @@
       </c>
       <c r="Z173">
         <f t="shared" si="14"/>
-        <v>0.18567960371733747</v>
+        <v>0.18556462394557038</v>
       </c>
       <c r="AA173">
         <f t="shared" si="15"/>
@@ -15858,7 +15866,7 @@
       </c>
       <c r="AC173">
         <f t="shared" si="16"/>
-        <v>0.34026947503595423</v>
+        <v>0.34022201667831165</v>
       </c>
       <c r="AD173">
         <f t="shared" si="17"/>
@@ -15914,8 +15922,8 @@
       <c r="Q174" s="2">
         <v>0.2165820081392589</v>
       </c>
-      <c r="R174" s="2">
-        <v>0.21689079841465236</v>
+      <c r="R174" s="3">
+        <v>0.215890798414652</v>
       </c>
       <c r="S174" s="2">
         <v>0.25798727919948777</v>
@@ -15931,15 +15939,15 @@
       </c>
       <c r="W174">
         <f t="shared" si="12"/>
-        <v>0.16436561846881476</v>
+        <v>8.1931432371594018E-2</v>
       </c>
       <c r="X174">
         <f t="shared" si="13"/>
-        <v>1.8276886622101425E-2</v>
+        <v>1.3655906384202929E-2</v>
       </c>
       <c r="Z174">
         <f t="shared" si="14"/>
-        <v>0.10569711167345459</v>
+        <v>0.10549499438145966</v>
       </c>
       <c r="AA174">
         <f t="shared" si="15"/>
@@ -15947,7 +15955,7 @@
       </c>
       <c r="AC174">
         <f t="shared" si="16"/>
-        <v>0.14124112774197209</v>
+        <v>0.14112675563916846</v>
       </c>
       <c r="AD174">
         <f t="shared" si="17"/>
@@ -16020,7 +16028,7 @@
       </c>
       <c r="W175">
         <f t="shared" si="12"/>
-        <v>0.16436561846881476</v>
+        <v>0.10646003873923578</v>
       </c>
       <c r="X175">
         <f t="shared" si="13"/>
@@ -16028,7 +16036,7 @@
       </c>
       <c r="Z175">
         <f t="shared" si="14"/>
-        <v>0.10569711167345459</v>
+        <v>0.10549499438145966</v>
       </c>
       <c r="AA175">
         <f t="shared" si="15"/>
@@ -16036,7 +16044,7 @@
       </c>
       <c r="AC175">
         <f t="shared" si="16"/>
-        <v>0.14124112774197209</v>
+        <v>0.14112675563916846</v>
       </c>
       <c r="AD175">
         <f t="shared" si="17"/>
@@ -16109,7 +16117,7 @@
       </c>
       <c r="W176">
         <f t="shared" si="12"/>
-        <v>0.1873196419018987</v>
+        <v>0.13930660987899735</v>
       </c>
       <c r="X176">
         <f t="shared" si="13"/>
@@ -16117,7 +16125,7 @@
       </c>
       <c r="Z176">
         <f t="shared" si="14"/>
-        <v>0.14392038567960669</v>
+        <v>0.14406860515300779</v>
       </c>
       <c r="AA176">
         <f t="shared" si="15"/>
@@ -16125,7 +16133,7 @@
       </c>
       <c r="AC176">
         <f t="shared" si="16"/>
-        <v>0.23017351378538525</v>
+        <v>0.23010334947523997</v>
       </c>
       <c r="AD176">
         <f t="shared" si="17"/>
@@ -16198,7 +16206,7 @@
       </c>
       <c r="W177">
         <f t="shared" si="12"/>
-        <v>0.1873196419018987</v>
+        <v>0.13930660987899735</v>
       </c>
       <c r="X177">
         <f t="shared" si="13"/>
@@ -16206,7 +16214,7 @@
       </c>
       <c r="Z177">
         <f t="shared" si="14"/>
-        <v>0.14392038567960669</v>
+        <v>0.14406860515300779</v>
       </c>
       <c r="AA177">
         <f t="shared" si="15"/>
@@ -16214,7 +16222,7 @@
       </c>
       <c r="AC177">
         <f t="shared" si="16"/>
-        <v>0.23017351378538525</v>
+        <v>0.23010334947523997</v>
       </c>
       <c r="AD177">
         <f t="shared" si="17"/>
@@ -16287,7 +16295,7 @@
       </c>
       <c r="W178">
         <f t="shared" si="12"/>
-        <v>0.22748984262867913</v>
+        <v>0.18991922444277409</v>
       </c>
       <c r="X178">
         <f t="shared" si="13"/>
@@ -16295,7 +16303,7 @@
       </c>
       <c r="Z178">
         <f t="shared" si="14"/>
-        <v>0.29647579625888643</v>
+        <v>0.29654777582019942</v>
       </c>
       <c r="AA178">
         <f t="shared" si="15"/>
@@ -16303,7 +16311,7 @@
       </c>
       <c r="AC178">
         <f t="shared" si="16"/>
-        <v>0.38189694098423665</v>
+        <v>0.38185465628237536</v>
       </c>
       <c r="AD178">
         <f t="shared" si="17"/>
@@ -16376,7 +16384,7 @@
       </c>
       <c r="W179">
         <f t="shared" si="12"/>
-        <v>0.22748984262867913</v>
+        <v>0.18991922444277409</v>
       </c>
       <c r="X179">
         <f t="shared" si="13"/>
@@ -16384,7 +16392,7 @@
       </c>
       <c r="Z179">
         <f t="shared" si="14"/>
-        <v>0.29647579625888643</v>
+        <v>0.29654777582019942</v>
       </c>
       <c r="AA179">
         <f t="shared" si="15"/>
@@ -16392,7 +16400,7 @@
       </c>
       <c r="AC179">
         <f t="shared" si="16"/>
-        <v>0.38189694098423665</v>
+        <v>0.38185465628237536</v>
       </c>
       <c r="AD179">
         <f t="shared" si="17"/>
@@ -16465,7 +16473,7 @@
       </c>
       <c r="W180">
         <f t="shared" si="12"/>
-        <v>0.24475600619473767</v>
+        <v>0.2102930951841312</v>
       </c>
       <c r="X180">
         <f t="shared" si="13"/>
@@ -16473,7 +16481,7 @@
       </c>
       <c r="Z180">
         <f t="shared" si="14"/>
-        <v>0.36019802126680656</v>
+        <v>0.36013876346202484</v>
       </c>
       <c r="AA180">
         <f t="shared" si="15"/>
@@ -16481,7 +16489,7 @@
       </c>
       <c r="AC180">
         <f t="shared" si="16"/>
-        <v>0.36426294273284288</v>
+        <v>0.36430726928923185</v>
       </c>
       <c r="AD180">
         <f t="shared" si="17"/>
@@ -16554,7 +16562,7 @@
       </c>
       <c r="W181">
         <f t="shared" si="12"/>
-        <v>0.24475600619473767</v>
+        <v>0.2102930951841312</v>
       </c>
       <c r="X181">
         <f t="shared" si="13"/>
@@ -16562,7 +16570,7 @@
       </c>
       <c r="Z181">
         <f t="shared" si="14"/>
-        <v>0.36019802126680656</v>
+        <v>0.36013876346202484</v>
       </c>
       <c r="AA181">
         <f t="shared" si="15"/>
@@ -16570,7 +16578,7 @@
       </c>
       <c r="AC181">
         <f t="shared" si="16"/>
-        <v>0.36426294273284288</v>
+        <v>0.36430726928923185</v>
       </c>
       <c r="AD181">
         <f t="shared" si="17"/>
@@ -16643,7 +16651,7 @@
       </c>
       <c r="W182">
         <f t="shared" si="12"/>
-        <v>0.40321391486968367</v>
+        <v>0.42221295317743734</v>
       </c>
       <c r="X182">
         <f t="shared" si="13"/>
@@ -16651,7 +16659,7 @@
       </c>
       <c r="Z182">
         <f t="shared" si="14"/>
-        <v>0.28824118855732145</v>
+        <v>0.28831522394334969</v>
       </c>
       <c r="AA182">
         <f t="shared" si="15"/>
@@ -16659,7 +16667,7 @@
       </c>
       <c r="AC182">
         <f t="shared" si="16"/>
-        <v>0.39223597572278129</v>
+        <v>0.39227714139341435</v>
       </c>
       <c r="AD182">
         <f t="shared" si="17"/>
@@ -16732,7 +16740,7 @@
       </c>
       <c r="W183">
         <f t="shared" si="12"/>
-        <v>0.40321391486968367</v>
+        <v>0.42221295317743734</v>
       </c>
       <c r="X183">
         <f t="shared" si="13"/>
@@ -16740,7 +16748,7 @@
       </c>
       <c r="Z183">
         <f t="shared" si="14"/>
-        <v>0.28824118855732145</v>
+        <v>0.28831522394334969</v>
       </c>
       <c r="AA183">
         <f t="shared" si="15"/>
@@ -16748,7 +16756,7 @@
       </c>
       <c r="AC183">
         <f t="shared" si="16"/>
-        <v>0.39223597572278129</v>
+        <v>0.39227714139341435</v>
       </c>
       <c r="AD183">
         <f t="shared" si="17"/>
@@ -16821,7 +16829,7 @@
       </c>
       <c r="W184">
         <f t="shared" si="12"/>
-        <v>0.12428803119810876</v>
+        <v>1.532324988944397E-2</v>
       </c>
       <c r="X184">
         <f t="shared" si="13"/>
@@ -16829,7 +16837,7 @@
       </c>
       <c r="Z184">
         <f t="shared" si="14"/>
-        <v>0.45798541728658032</v>
+        <v>0.45803201637410634</v>
       </c>
       <c r="AA184">
         <f t="shared" si="15"/>
@@ -16837,7 +16845,7 @@
       </c>
       <c r="AC184">
         <f t="shared" si="16"/>
-        <v>0.47577760036629202</v>
+        <v>0.47581153834148832</v>
       </c>
       <c r="AD184">
         <f t="shared" si="17"/>
@@ -16910,7 +16918,7 @@
       </c>
       <c r="W185">
         <f t="shared" si="12"/>
-        <v>0.12428803119810876</v>
+        <v>1.532324988944397E-2</v>
       </c>
       <c r="X185">
         <f t="shared" si="13"/>
@@ -16918,7 +16926,7 @@
       </c>
       <c r="Z185">
         <f t="shared" si="14"/>
-        <v>0.45798541728658032</v>
+        <v>0.45803201637410634</v>
       </c>
       <c r="AA185">
         <f t="shared" si="15"/>
@@ -16926,7 +16934,7 @@
       </c>
       <c r="AC185">
         <f t="shared" si="16"/>
-        <v>0.47577760036629202</v>
+        <v>0.47581153834148832</v>
       </c>
       <c r="AD185">
         <f t="shared" si="17"/>
@@ -16999,7 +17007,7 @@
       </c>
       <c r="W186">
         <f t="shared" si="12"/>
-        <v>0.2637145530054007</v>
+        <v>0.29193780528241747</v>
       </c>
       <c r="X186">
         <f t="shared" si="13"/>
@@ -17007,7 +17015,7 @@
       </c>
       <c r="Z186">
         <f t="shared" si="14"/>
-        <v>0.23647263797070947</v>
+        <v>0.2363823659502961</v>
       </c>
       <c r="AA186">
         <f t="shared" si="15"/>
@@ -17015,7 +17023,7 @@
       </c>
       <c r="AC186">
         <f t="shared" si="16"/>
-        <v>0.1185378809408377</v>
+        <v>0.11867402507090895</v>
       </c>
       <c r="AD186">
         <f t="shared" si="17"/>
@@ -17062,8 +17070,8 @@
       <c r="N187">
         <v>1.5</v>
       </c>
-      <c r="O187" s="2">
-        <v>0.20799612088000041</v>
+      <c r="O187" s="3">
+        <v>0.20699612088</v>
       </c>
       <c r="P187" s="2">
         <v>0.21787180598258987</v>
@@ -17088,15 +17096,15 @@
       </c>
       <c r="W187">
         <f t="shared" si="12"/>
-        <v>0.2637145530054007</v>
+        <v>0.28357581856068248</v>
       </c>
       <c r="X187">
         <f t="shared" si="13"/>
-        <v>-7.8284535379372855E-2</v>
+        <v>-7.3472098098619265E-2</v>
       </c>
       <c r="Z187">
         <f t="shared" si="14"/>
-        <v>0.18813794090696664</v>
+        <v>0.18802446445116325</v>
       </c>
       <c r="AA187">
         <f t="shared" si="15"/>
@@ -17104,7 +17112,7 @@
       </c>
       <c r="AC187">
         <f t="shared" si="16"/>
-        <v>0.21729241085112611</v>
+        <v>0.21736671047352465</v>
       </c>
       <c r="AD187">
         <f t="shared" si="17"/>
@@ -17177,7 +17185,7 @@
       </c>
       <c r="W188">
         <f t="shared" si="12"/>
-        <v>0.33966005843684799</v>
+        <v>0.36201004403690157</v>
       </c>
       <c r="X188">
         <f t="shared" si="13"/>
@@ -17185,7 +17193,7 @@
       </c>
       <c r="Z188">
         <f t="shared" si="14"/>
-        <v>0.20698934233957672</v>
+        <v>0.20709242723657717</v>
       </c>
       <c r="AA188">
         <f t="shared" si="15"/>
@@ -17193,7 +17201,7 @@
       </c>
       <c r="AC188">
         <f t="shared" si="16"/>
-        <v>9.5585095472738468E-2</v>
+        <v>9.5416012639105902E-2</v>
       </c>
       <c r="AD188">
         <f t="shared" si="17"/>
@@ -17266,7 +17274,7 @@
       </c>
       <c r="W189">
         <f t="shared" si="12"/>
-        <v>0.33670915683266289</v>
+        <v>0.35924277721512954</v>
       </c>
       <c r="X189">
         <f t="shared" si="13"/>
@@ -17274,7 +17282,7 @@
       </c>
       <c r="Z189">
         <f t="shared" si="14"/>
-        <v>8.8201857789873522E-2</v>
+        <v>8.8443503402746301E-2</v>
       </c>
       <c r="AA189">
         <f t="shared" si="15"/>
@@ -17282,7 +17290,7 @@
       </c>
       <c r="AC189">
         <f t="shared" si="16"/>
-        <v>0.14750369715417649</v>
+        <v>0.14761312842270338</v>
       </c>
       <c r="AD189">
         <f t="shared" si="17"/>
@@ -17355,7 +17363,7 @@
       </c>
       <c r="W190">
         <f t="shared" si="12"/>
-        <v>0.49507954977286633</v>
+        <v>0.51067218182468144</v>
       </c>
       <c r="X190">
         <f t="shared" si="13"/>
@@ -17363,7 +17371,7 @@
       </c>
       <c r="Z190">
         <f t="shared" si="14"/>
-        <v>0.10050119093278344</v>
+        <v>0.10028860255453392</v>
       </c>
       <c r="AA190">
         <f t="shared" si="15"/>
@@ -17371,7 +17379,7 @@
       </c>
       <c r="AC190">
         <f t="shared" si="16"/>
-        <v>0.35153143013932175</v>
+        <v>0.35157736187698913</v>
       </c>
       <c r="AD190">
         <f t="shared" si="17"/>
@@ -17444,7 +17452,7 @@
       </c>
       <c r="W191">
         <f t="shared" si="12"/>
-        <v>0.49507954977286633</v>
+        <v>0.51067218182468144</v>
       </c>
       <c r="X191">
         <f t="shared" si="13"/>
@@ -17452,7 +17460,7 @@
       </c>
       <c r="Z191">
         <f t="shared" si="14"/>
-        <v>0.10050119093278344</v>
+        <v>0.10028860255453392</v>
       </c>
       <c r="AA191">
         <f t="shared" si="15"/>
@@ -17460,7 +17468,7 @@
       </c>
       <c r="AC191">
         <f t="shared" si="16"/>
-        <v>0.35153143013932175</v>
+        <v>0.35157736187698913</v>
       </c>
       <c r="AD191">
         <f t="shared" si="17"/>
@@ -17533,7 +17541,7 @@
       </c>
       <c r="W192">
         <f t="shared" si="12"/>
-        <v>0.16288008737501911</v>
+        <v>0.20545617427950483</v>
       </c>
       <c r="X192">
         <f t="shared" si="13"/>
@@ -17541,7 +17549,7 @@
       </c>
       <c r="Z192">
         <f t="shared" si="14"/>
-        <v>0.17573606321701141</v>
+        <v>0.17585746925160714</v>
       </c>
       <c r="AA192">
         <f t="shared" si="15"/>
@@ -17549,7 +17557,7 @@
       </c>
       <c r="AC192">
         <f t="shared" si="16"/>
-        <v>0.18804996508519159</v>
+        <v>0.187964077312542</v>
       </c>
       <c r="AD192">
         <f t="shared" si="17"/>
@@ -17622,7 +17630,7 @@
       </c>
       <c r="W193">
         <f t="shared" si="12"/>
-        <v>0.16288008737501911</v>
+        <v>0.20545617427950483</v>
       </c>
       <c r="X193">
         <f t="shared" si="13"/>
@@ -17630,7 +17638,7 @@
       </c>
       <c r="Z193">
         <f t="shared" si="14"/>
-        <v>0.17573606321701141</v>
+        <v>0.17585746925160714</v>
       </c>
       <c r="AA193">
         <f t="shared" si="15"/>
@@ -17638,7 +17646,7 @@
       </c>
       <c r="AC193">
         <f t="shared" si="16"/>
-        <v>0.18804996508519159</v>
+        <v>0.187964077312542</v>
       </c>
       <c r="AD193">
         <f t="shared" si="17"/>
@@ -17692,8 +17700,8 @@
         <v>0.22619982529159471</v>
       </c>
       <c r="Q194" s="2"/>
-      <c r="R194" s="2">
-        <v>0.22429595514161596</v>
+      <c r="R194" s="3">
+        <v>0.22329595514161599</v>
       </c>
       <c r="S194" s="2">
         <v>0.19797352863368642</v>
@@ -17709,11 +17717,11 @@
       </c>
       <c r="W194">
         <f t="shared" si="12"/>
-        <v>0.36481475304596761</v>
+        <v>0.33608895637433173</v>
       </c>
       <c r="X194">
         <f t="shared" si="13"/>
-        <v>0.1243506341274558</v>
+        <v>0.11989893337052931</v>
       </c>
     </row>
     <row r="195" spans="1:30" x14ac:dyDescent="0.25">
@@ -17780,7 +17788,7 @@
       </c>
       <c r="W195">
         <f t="shared" ref="W195:W233" si="18">SQRT(ABS(X195-$Y$2))</f>
-        <v>0.36481475304596761</v>
+        <v>0.3426477598842782</v>
       </c>
       <c r="X195">
         <f t="shared" ref="X195:X233" si="19">(R195-O195)/(0.5*(O195+R195))</f>
@@ -17827,8 +17835,8 @@
       <c r="N196">
         <v>1.5</v>
       </c>
-      <c r="O196" s="2">
-        <v>0.19586725432493005</v>
+      <c r="O196" s="3">
+        <v>0.19486725432492999</v>
       </c>
       <c r="P196" s="2">
         <v>0.20737293641221252</v>
@@ -17853,15 +17861,15 @@
       </c>
       <c r="W196">
         <f t="shared" si="18"/>
-        <v>0.34498402709964332</v>
+        <v>0.32929310075245849</v>
       </c>
       <c r="X196">
         <f t="shared" si="19"/>
-        <v>0.11027480904135289</v>
+        <v>0.11537709297691064</v>
       </c>
       <c r="Z196">
         <f t="shared" ref="Z196:Z233" si="20">SQRT(ABS(AA196-$AB$2))</f>
-        <v>0.14853595816552412</v>
+        <v>0.14839220091225755</v>
       </c>
       <c r="AA196">
         <f t="shared" ref="AA196:AA233" si="21">(S196-P196)/(0.5*(P196+S196))</f>
@@ -17869,7 +17877,7 @@
       </c>
       <c r="AC196">
         <f t="shared" ref="AC196:AC233" si="22">SQRT(ABS(AD196-$AE$2))</f>
-        <v>0.35179870785895279</v>
+        <v>0.35184460470471235</v>
       </c>
       <c r="AD196">
         <f t="shared" ref="AD196:AD233" si="23">(T196-Q196)/(0.5*(Q196+T196))</f>
@@ -17942,7 +17950,7 @@
       </c>
       <c r="W197">
         <f t="shared" si="18"/>
-        <v>0.34498402709964332</v>
+        <v>0.32145242613427427</v>
       </c>
       <c r="X197">
         <f t="shared" si="19"/>
@@ -17950,7 +17958,7 @@
       </c>
       <c r="Z197">
         <f t="shared" si="20"/>
-        <v>0.12096916216935949</v>
+        <v>0.12079260167489675</v>
       </c>
       <c r="AA197">
         <f t="shared" si="21"/>
@@ -17958,7 +17966,7 @@
       </c>
       <c r="AC197">
         <f t="shared" si="22"/>
-        <v>0.44693967492728104</v>
+        <v>0.44697580251361502</v>
       </c>
       <c r="AD197">
         <f t="shared" si="23"/>
@@ -18031,7 +18039,7 @@
       </c>
       <c r="W198">
         <f t="shared" si="18"/>
-        <v>0.27464226034414801</v>
+        <v>0.30184547015520902</v>
       </c>
       <c r="X198">
         <f t="shared" si="19"/>
@@ -18039,7 +18047,7 @@
       </c>
       <c r="Z198">
         <f t="shared" si="20"/>
-        <v>0.28032453979473465</v>
+        <v>0.28040066545515951</v>
       </c>
       <c r="AA198">
         <f t="shared" si="21"/>
@@ -18047,7 +18055,7 @@
       </c>
       <c r="AC198">
         <f t="shared" si="22"/>
-        <v>0.4777226157608902</v>
+        <v>0.47775641556970605</v>
       </c>
       <c r="AD198">
         <f t="shared" si="23"/>
@@ -18120,7 +18128,7 @@
       </c>
       <c r="W199">
         <f t="shared" si="18"/>
-        <v>0.16410467673930765</v>
+        <v>0.20642834498679938</v>
       </c>
       <c r="X199">
         <f t="shared" si="19"/>
@@ -18128,7 +18136,7 @@
       </c>
       <c r="Z199">
         <f t="shared" si="20"/>
-        <v>0.35756183233704081</v>
+        <v>0.35762151713898399</v>
       </c>
       <c r="AA199">
         <f t="shared" si="21"/>
@@ -18136,7 +18144,7 @@
       </c>
       <c r="AC199">
         <f t="shared" si="22"/>
-        <v>0.422838942093335</v>
+        <v>0.42287712867829258</v>
       </c>
       <c r="AD199">
         <f t="shared" si="23"/>
@@ -18209,7 +18217,7 @@
       </c>
       <c r="W200">
         <f t="shared" si="18"/>
-        <v>0.10797734391390727</v>
+        <v>6.3428778070952888E-2</v>
       </c>
       <c r="X200">
         <f t="shared" si="19"/>
@@ -18217,7 +18225,7 @@
       </c>
       <c r="Z200">
         <f t="shared" si="20"/>
-        <v>0.18769696909191702</v>
+        <v>0.18781064342272663</v>
       </c>
       <c r="AA200">
         <f t="shared" si="21"/>
@@ -18225,7 +18233,7 @@
       </c>
       <c r="AC200">
         <f t="shared" si="22"/>
-        <v>0.14919088718186305</v>
+        <v>0.14908261404176168</v>
       </c>
       <c r="AD200">
         <f t="shared" si="23"/>
@@ -18298,7 +18306,7 @@
       </c>
       <c r="W201">
         <f t="shared" si="18"/>
-        <v>0.10797734391390727</v>
+        <v>6.3428778070952888E-2</v>
       </c>
       <c r="X201">
         <f t="shared" si="19"/>
@@ -18306,7 +18314,7 @@
       </c>
       <c r="Z201">
         <f t="shared" si="20"/>
-        <v>0.18769696909191702</v>
+        <v>0.18781064342272663</v>
       </c>
       <c r="AA201">
         <f t="shared" si="21"/>
@@ -18314,7 +18322,7 @@
       </c>
       <c r="AC201">
         <f t="shared" si="22"/>
-        <v>0.14919088718186305</v>
+        <v>0.14908261404176168</v>
       </c>
       <c r="AD201">
         <f t="shared" si="23"/>
@@ -18387,7 +18395,7 @@
       </c>
       <c r="W202">
         <f t="shared" si="18"/>
-        <v>7.5075307438317196E-2</v>
+        <v>0.14600896709871708</v>
       </c>
       <c r="X202">
         <f t="shared" si="19"/>
@@ -18395,7 +18403,7 @@
       </c>
       <c r="Z202">
         <f t="shared" si="20"/>
-        <v>0.18196641215074086</v>
+        <v>0.18184908461261706</v>
       </c>
       <c r="AA202">
         <f t="shared" si="21"/>
@@ -18403,7 +18411,7 @@
       </c>
       <c r="AC202">
         <f t="shared" si="22"/>
-        <v>0.30772380583429998</v>
+        <v>0.30777627537828917</v>
       </c>
       <c r="AD202">
         <f t="shared" si="23"/>
@@ -18476,7 +18484,7 @@
       </c>
       <c r="W203">
         <f t="shared" si="18"/>
-        <v>7.5075307438317196E-2</v>
+        <v>0.14600896709871708</v>
       </c>
       <c r="X203">
         <f t="shared" si="19"/>
@@ -18484,7 +18492,7 @@
       </c>
       <c r="Z203">
         <f t="shared" si="20"/>
-        <v>0.18196641215074086</v>
+        <v>0.18184908461261706</v>
       </c>
       <c r="AA203">
         <f t="shared" si="21"/>
@@ -18492,7 +18500,7 @@
       </c>
       <c r="AC203">
         <f t="shared" si="22"/>
-        <v>0.30772380583429998</v>
+        <v>0.30777627537828917</v>
       </c>
       <c r="AD203">
         <f t="shared" si="23"/>
@@ -18565,7 +18573,7 @@
       </c>
       <c r="W204">
         <f t="shared" si="18"/>
-        <v>0.16784986820475559</v>
+        <v>0.11176431259609404</v>
       </c>
       <c r="X204">
         <f t="shared" si="19"/>
@@ -18573,7 +18581,7 @@
       </c>
       <c r="Z204">
         <f t="shared" si="20"/>
-        <v>0.10511548824392038</v>
+        <v>0.10491225043907522</v>
       </c>
       <c r="AA204">
         <f t="shared" si="21"/>
@@ -18581,7 +18589,7 @@
       </c>
       <c r="AC204">
         <f t="shared" si="22"/>
-        <v>0.11182769950791104</v>
+        <v>0.111683209877963</v>
       </c>
       <c r="AD204">
         <f t="shared" si="23"/>
@@ -18654,7 +18662,7 @@
       </c>
       <c r="W205">
         <f t="shared" si="18"/>
-        <v>0.25156501141744347</v>
+        <v>0.21818028848450557</v>
       </c>
       <c r="X205">
         <f t="shared" si="19"/>
@@ -18662,7 +18670,7 @@
       </c>
       <c r="Z205">
         <f t="shared" si="20"/>
-        <v>0.12361814864851643</v>
+        <v>0.12379067918003048</v>
       </c>
       <c r="AA205">
         <f t="shared" si="21"/>
@@ -18670,7 +18678,7 @@
       </c>
       <c r="AC205">
         <f t="shared" si="22"/>
-        <v>0.26199872044002898</v>
+        <v>0.26193708119246112</v>
       </c>
       <c r="AD205">
         <f t="shared" si="23"/>
@@ -18743,7 +18751,7 @@
       </c>
       <c r="W206">
         <f t="shared" si="18"/>
-        <v>0.28023304932613374</v>
+        <v>0.30694116475458244</v>
       </c>
       <c r="X206">
         <f t="shared" si="19"/>
@@ -18751,7 +18759,7 @@
       </c>
       <c r="Z206">
         <f t="shared" si="20"/>
-        <v>0.10712237817082015</v>
+        <v>0.10732143067225078</v>
       </c>
       <c r="AA206">
         <f t="shared" si="21"/>
@@ -18759,7 +18767,7 @@
       </c>
       <c r="AC206">
         <f t="shared" si="22"/>
-        <v>0.25669174880201351</v>
+        <v>0.25675464730287262</v>
       </c>
       <c r="AD206">
         <f t="shared" si="23"/>
@@ -18832,7 +18840,7 @@
       </c>
       <c r="W207">
         <f t="shared" si="18"/>
-        <v>0.28023304932613374</v>
+        <v>0.30694116475458244</v>
       </c>
       <c r="X207">
         <f t="shared" si="19"/>
@@ -18840,7 +18848,7 @@
       </c>
       <c r="Z207">
         <f t="shared" si="20"/>
-        <v>0.10712237817082015</v>
+        <v>0.10732143067225078</v>
       </c>
       <c r="AA207">
         <f t="shared" si="21"/>
@@ -18848,7 +18856,7 @@
       </c>
       <c r="AC207">
         <f t="shared" si="22"/>
-        <v>0.37229491617988331</v>
+        <v>0.37233828653789131</v>
       </c>
       <c r="AD207">
         <f t="shared" si="23"/>
@@ -18904,8 +18912,8 @@
       <c r="Q208" s="2">
         <v>0.24797838271499772</v>
       </c>
-      <c r="R208" s="2">
-        <v>0.23007650445684824</v>
+      <c r="R208" s="3">
+        <v>0.23107650445684799</v>
       </c>
       <c r="S208" s="2">
         <v>0.2954426683694345</v>
@@ -18921,15 +18929,15 @@
       </c>
       <c r="W208">
         <f t="shared" si="18"/>
-        <v>0.20867303069161866</v>
+        <v>0.17943688394281371</v>
       </c>
       <c r="X208">
         <f t="shared" si="19"/>
-        <v>3.4805263825490658E-2</v>
+        <v>3.9140742092848638E-2</v>
       </c>
       <c r="Z208">
         <f t="shared" si="20"/>
-        <v>0.28443301616135297</v>
+        <v>0.28435797000625457</v>
       </c>
       <c r="AA208">
         <f t="shared" si="21"/>
@@ -18937,7 +18945,7 @@
       </c>
       <c r="AC208">
         <f t="shared" si="22"/>
-        <v>0.37199344391716221</v>
+        <v>0.37195003334959442</v>
       </c>
       <c r="AD208">
         <f t="shared" si="23"/>
@@ -19010,7 +19018,7 @@
       </c>
       <c r="W209">
         <f t="shared" si="18"/>
-        <v>0.20867303069161866</v>
+        <v>0.16691949272553164</v>
       </c>
       <c r="X209">
         <f t="shared" si="19"/>
@@ -19018,7 +19026,7 @@
       </c>
       <c r="Z209">
         <f t="shared" si="20"/>
-        <v>0.17106437628125212</v>
+        <v>0.17118909547357372</v>
       </c>
       <c r="AA209">
         <f t="shared" si="21"/>
@@ -19026,7 +19034,7 @@
       </c>
       <c r="AC209">
         <f t="shared" si="22"/>
-        <v>0.2976731669725019</v>
+        <v>0.29761891627860704</v>
       </c>
       <c r="AD209">
         <f t="shared" si="23"/>
@@ -19099,7 +19107,7 @@
       </c>
       <c r="W210">
         <f t="shared" si="18"/>
-        <v>0.14773709887170283</v>
+        <v>7.8383248827481586E-2</v>
       </c>
       <c r="X210">
         <f t="shared" si="19"/>
@@ -19107,7 +19115,7 @@
       </c>
       <c r="Z210">
         <f t="shared" si="20"/>
-        <v>0.22031034779298309</v>
+        <v>0.22021345047044388</v>
       </c>
       <c r="AA210">
         <f t="shared" si="21"/>
@@ -19115,7 +19123,7 @@
       </c>
       <c r="AC210">
         <f t="shared" si="22"/>
-        <v>0.20712597031517196</v>
+        <v>0.20720391547359335</v>
       </c>
       <c r="AD210">
         <f t="shared" si="23"/>
@@ -19188,7 +19196,7 @@
       </c>
       <c r="W211">
         <f t="shared" si="18"/>
-        <v>0.14773709887170283</v>
+        <v>7.8383248827481586E-2</v>
       </c>
       <c r="X211">
         <f t="shared" si="19"/>
@@ -19196,7 +19204,7 @@
       </c>
       <c r="Z211">
         <f t="shared" si="20"/>
-        <v>0.22031034779298309</v>
+        <v>0.22021345047044388</v>
       </c>
       <c r="AA211">
         <f t="shared" si="21"/>
@@ -19204,7 +19212,7 @@
       </c>
       <c r="AC211">
         <f t="shared" si="22"/>
-        <v>0.20712597031517196</v>
+        <v>0.20720391547359335</v>
       </c>
       <c r="AD211">
         <f t="shared" si="23"/>
@@ -19277,7 +19285,7 @@
       </c>
       <c r="W212">
         <f t="shared" si="18"/>
-        <v>0.35726767039455237</v>
+        <v>0.33460106339172641</v>
       </c>
       <c r="X212">
         <f t="shared" si="19"/>
@@ -19285,7 +19293,7 @@
       </c>
       <c r="Z212">
         <f t="shared" si="20"/>
-        <v>0.15817369670230605</v>
+        <v>0.15803870649909338</v>
       </c>
       <c r="AA212">
         <f t="shared" si="21"/>
@@ -19293,7 +19301,7 @@
       </c>
       <c r="AC212">
         <f t="shared" si="22"/>
-        <v>0.28344664091407795</v>
+        <v>0.28350360359977922</v>
       </c>
       <c r="AD212">
         <f t="shared" si="23"/>
@@ -19366,7 +19374,7 @@
       </c>
       <c r="W213">
         <f t="shared" si="18"/>
-        <v>0.35726767039455237</v>
+        <v>0.33460106339172641</v>
       </c>
       <c r="X213">
         <f t="shared" si="19"/>
@@ -19374,7 +19382,7 @@
       </c>
       <c r="Z213">
         <f t="shared" si="20"/>
-        <v>0.15817369670230605</v>
+        <v>0.15803870649909338</v>
       </c>
       <c r="AA213">
         <f t="shared" si="21"/>
@@ -19382,7 +19390,7 @@
       </c>
       <c r="AC213">
         <f t="shared" si="22"/>
-        <v>0.28344664091407795</v>
+        <v>0.28350360359977922</v>
       </c>
       <c r="AD213">
         <f t="shared" si="23"/>
@@ -19438,8 +19446,8 @@
       <c r="Q214" s="2">
         <v>0.31286173401630241</v>
       </c>
-      <c r="R214" s="2">
-        <v>0.21243227217566532</v>
+      <c r="R214" s="3">
+        <v>0.21143227217566499</v>
       </c>
       <c r="S214" s="2">
         <v>0.3433907509401764</v>
@@ -19455,15 +19463,15 @@
       </c>
       <c r="W214">
         <f t="shared" si="18"/>
-        <v>0.39600934007040323</v>
+        <v>0.42094055761861554</v>
       </c>
       <c r="X214">
         <f t="shared" si="19"/>
-        <v>-0.16556256733553082</v>
+        <v>-0.17024780627452915</v>
       </c>
       <c r="Z214">
         <f t="shared" si="20"/>
-        <v>0.2124684855334768</v>
+        <v>0.21256891334683856</v>
       </c>
       <c r="AA214">
         <f t="shared" si="21"/>
@@ -19471,7 +19479,7 @@
       </c>
       <c r="AC214">
         <f t="shared" si="22"/>
-        <v>4.6133133592224936E-2</v>
+        <v>4.6481835415832992E-2</v>
       </c>
       <c r="AD214">
         <f t="shared" si="23"/>
@@ -19544,7 +19552,7 @@
       </c>
       <c r="W215">
         <f t="shared" si="18"/>
-        <v>0.39600934007040323</v>
+        <v>0.41533807206813178</v>
       </c>
       <c r="X215">
         <f t="shared" si="19"/>
@@ -19552,7 +19560,7 @@
       </c>
       <c r="Z215">
         <f t="shared" si="20"/>
-        <v>0.2124684855334768</v>
+        <v>0.21256891334683856</v>
       </c>
       <c r="AA215">
         <f t="shared" si="21"/>
@@ -19560,7 +19568,7 @@
       </c>
       <c r="AC215">
         <f t="shared" si="22"/>
-        <v>4.6133133592224936E-2</v>
+        <v>4.6481835415832992E-2</v>
       </c>
       <c r="AD215">
         <f t="shared" si="23"/>
@@ -19607,8 +19615,8 @@
       <c r="N216">
         <v>1.5</v>
       </c>
-      <c r="O216" s="2">
-        <v>0.21946619658361394</v>
+      <c r="O216" s="3">
+        <v>0.21846619658361399</v>
       </c>
       <c r="P216" s="2">
         <v>0.2660856198459991</v>
@@ -19633,15 +19641,15 @@
       </c>
       <c r="W216">
         <f t="shared" si="18"/>
-        <v>0.29875152235242924</v>
+        <v>0.31682538936366894</v>
       </c>
       <c r="X216">
         <f t="shared" si="19"/>
-        <v>-9.7991642020428593E-2</v>
+        <v>-9.3435180571698598E-2</v>
       </c>
       <c r="Z216">
         <f t="shared" si="20"/>
-        <v>0.22952957126757365</v>
+        <v>0.22962253735825386</v>
       </c>
       <c r="AA216">
         <f t="shared" si="21"/>
@@ -19649,7 +19657,7 @@
       </c>
       <c r="AC216">
         <f t="shared" si="22"/>
-        <v>0.26633496817690699</v>
+        <v>0.26639558983282846</v>
       </c>
       <c r="AD216">
         <f t="shared" si="23"/>
@@ -19722,7 +19730,7 @@
       </c>
       <c r="W217">
         <f t="shared" si="18"/>
-        <v>0.29875152235242924</v>
+        <v>0.32393639621717479</v>
       </c>
       <c r="X217">
         <f t="shared" si="19"/>
@@ -19730,7 +19738,7 @@
       </c>
       <c r="Z217">
         <f t="shared" si="20"/>
-        <v>0.22952957126757365</v>
+        <v>0.22962253735825386</v>
       </c>
       <c r="AA217">
         <f t="shared" si="21"/>
@@ -19738,7 +19746,7 @@
       </c>
       <c r="AC217">
         <f t="shared" si="22"/>
-        <v>0.26633496817690699</v>
+        <v>0.26639558983282846</v>
       </c>
       <c r="AD217">
         <f t="shared" si="23"/>
@@ -19811,7 +19819,7 @@
       </c>
       <c r="W218">
         <f t="shared" si="18"/>
-        <v>5.5174383869516563E-2</v>
+        <v>0.1368449097396654</v>
       </c>
       <c r="X218">
         <f t="shared" si="19"/>
@@ -19819,7 +19827,7 @@
       </c>
       <c r="Z218">
         <f t="shared" si="20"/>
-        <v>0.26967105237461281</v>
+        <v>0.26959189697070762</v>
       </c>
       <c r="AA218">
         <f t="shared" si="21"/>
@@ -19827,7 +19835,7 @@
       </c>
       <c r="AC218">
         <f t="shared" si="22"/>
-        <v>0.30735140908534753</v>
+        <v>0.30740394219224837</v>
       </c>
       <c r="AD218">
         <f t="shared" si="23"/>
@@ -19900,7 +19908,7 @@
       </c>
       <c r="W219">
         <f t="shared" si="18"/>
-        <v>5.5174383869516563E-2</v>
+        <v>0.1368449097396654</v>
       </c>
       <c r="X219">
         <f t="shared" si="19"/>
@@ -19908,7 +19916,7 @@
       </c>
       <c r="Z219">
         <f t="shared" si="20"/>
-        <v>0.26967105237461281</v>
+        <v>0.26959189697070762</v>
       </c>
       <c r="AA219">
         <f t="shared" si="21"/>
@@ -19916,7 +19924,7 @@
       </c>
       <c r="AC219">
         <f t="shared" si="22"/>
-        <v>0.30735140908534753</v>
+        <v>0.30740394219224837</v>
       </c>
       <c r="AD219">
         <f t="shared" si="23"/>
@@ -19989,7 +19997,7 @@
       </c>
       <c r="W220">
         <f t="shared" si="18"/>
-        <v>0.18392439254240975</v>
+        <v>0.2225095477914843</v>
       </c>
       <c r="X220">
         <f t="shared" si="19"/>
@@ -19997,7 +20005,7 @@
       </c>
       <c r="Z220">
         <f t="shared" si="20"/>
-        <v>0.16662187692545294</v>
+        <v>0.16649373649958804</v>
       </c>
       <c r="AA220">
         <f t="shared" si="21"/>
@@ -20005,7 +20013,7 @@
       </c>
       <c r="AC220">
         <f t="shared" si="22"/>
-        <v>8.5762105515505491E-2</v>
+        <v>8.5573615874673575E-2</v>
       </c>
       <c r="AD220">
         <f t="shared" si="23"/>
@@ -20078,7 +20086,7 @@
       </c>
       <c r="W221">
         <f t="shared" si="18"/>
-        <v>0.18392439254240975</v>
+        <v>0.2225095477914843</v>
       </c>
       <c r="X221">
         <f t="shared" si="19"/>
@@ -20086,7 +20094,7 @@
       </c>
       <c r="Z221">
         <f t="shared" si="20"/>
-        <v>0.16662187692545294</v>
+        <v>0.16649373649958804</v>
       </c>
       <c r="AA221">
         <f t="shared" si="21"/>
@@ -20094,7 +20102,7 @@
       </c>
       <c r="AC221">
         <f t="shared" si="22"/>
-        <v>8.5762105515505491E-2</v>
+        <v>8.5573615874673575E-2</v>
       </c>
       <c r="AD221">
         <f t="shared" si="23"/>
@@ -20167,7 +20175,7 @@
       </c>
       <c r="W222">
         <f t="shared" si="18"/>
-        <v>0.14279144069099259</v>
+        <v>6.8608154386580397E-2</v>
       </c>
       <c r="X222">
         <f t="shared" si="19"/>
@@ -20175,7 +20183,7 @@
       </c>
       <c r="Z222">
         <f t="shared" si="20"/>
-        <v>0.31907387939937842</v>
+        <v>0.31900698258565213</v>
       </c>
       <c r="AA222">
         <f t="shared" si="21"/>
@@ -20183,7 +20191,7 @@
       </c>
       <c r="AC222">
         <f t="shared" si="22"/>
-        <v>0.46041458578925615</v>
+        <v>0.46044965611462757</v>
       </c>
       <c r="AD222">
         <f t="shared" si="23"/>
@@ -20256,7 +20264,7 @@
       </c>
       <c r="W223">
         <f t="shared" si="18"/>
-        <v>0.14279144069099259</v>
+        <v>6.8608154386580397E-2</v>
       </c>
       <c r="X223">
         <f t="shared" si="19"/>
@@ -20264,7 +20272,7 @@
       </c>
       <c r="Z223">
         <f t="shared" si="20"/>
-        <v>0.31907387939937842</v>
+        <v>0.31900698258565213</v>
       </c>
       <c r="AA223">
         <f t="shared" si="21"/>
@@ -20272,7 +20280,7 @@
       </c>
       <c r="AC223">
         <f t="shared" si="22"/>
-        <v>0.46041458578925615</v>
+        <v>0.46044965611462757</v>
       </c>
       <c r="AD223">
         <f t="shared" si="23"/>
@@ -20328,8 +20336,8 @@
       <c r="Q224" s="2">
         <v>0.31917581646548504</v>
       </c>
-      <c r="R224" s="2">
-        <v>0.23404832857570559</v>
+      <c r="R224" s="3">
+        <v>0.23304832857570601</v>
       </c>
       <c r="S224" s="2">
         <v>0.31299095910463698</v>
@@ -20345,15 +20353,15 @@
       </c>
       <c r="W224">
         <f t="shared" si="18"/>
-        <v>0.11061072589065959</v>
+        <v>0.1794387120601309</v>
       </c>
       <c r="X224">
         <f t="shared" si="19"/>
-        <v>-2.097390259459319E-2</v>
+        <v>-2.5255104612056718E-2</v>
       </c>
       <c r="Z224">
         <f t="shared" si="20"/>
-        <v>0.19443495226224192</v>
+        <v>0.19432515299017203</v>
       </c>
       <c r="AA224">
         <f t="shared" si="21"/>
@@ -20361,7 +20369,7 @@
       </c>
       <c r="AC224">
         <f t="shared" si="22"/>
-        <v>0.11886852248034931</v>
+        <v>0.1190042883481424</v>
       </c>
       <c r="AD224">
         <f t="shared" si="23"/>
@@ -20434,7 +20442,7 @@
       </c>
       <c r="W225">
         <f t="shared" si="18"/>
-        <v>0.11061072589065959</v>
+        <v>0.16708395903956499</v>
       </c>
       <c r="X225">
         <f t="shared" si="19"/>
@@ -20442,7 +20450,7 @@
       </c>
       <c r="Z225">
         <f t="shared" si="20"/>
-        <v>0.19443495226224192</v>
+        <v>0.19432515299017203</v>
       </c>
       <c r="AA225">
         <f t="shared" si="21"/>
@@ -20450,7 +20458,7 @@
       </c>
       <c r="AC225">
         <f t="shared" si="22"/>
-        <v>0.11886852248034931</v>
+        <v>0.1190042883481424</v>
       </c>
       <c r="AD225">
         <f t="shared" si="23"/>
@@ -20497,8 +20505,8 @@
       <c r="N226">
         <v>1.5</v>
       </c>
-      <c r="O226" s="2">
-        <v>0.17827233034578935</v>
+      <c r="O226" s="3">
+        <v>0.17727233034578899</v>
       </c>
       <c r="P226" s="2">
         <v>0.15843741990381766</v>
@@ -20523,15 +20531,15 @@
       </c>
       <c r="W226">
         <f t="shared" si="18"/>
-        <v>0.18644882057278259</v>
+        <v>0.21171354318453814</v>
       </c>
       <c r="X226">
         <f t="shared" si="19"/>
-        <v>-4.3502332605516225E-2</v>
+        <v>-3.7879477594009454E-2</v>
       </c>
       <c r="Z226">
         <f t="shared" si="20"/>
-        <v>0.12035760736461951</v>
+        <v>0.1201801484188191</v>
       </c>
       <c r="AA226">
         <f t="shared" si="21"/>
@@ -20539,7 +20547,7 @@
       </c>
       <c r="AC226">
         <f t="shared" si="22"/>
-        <v>0.25341776475948302</v>
+        <v>0.25335403783462018</v>
       </c>
       <c r="AD226">
         <f t="shared" si="23"/>
@@ -20612,7 +20620,7 @@
       </c>
       <c r="W227">
         <f t="shared" si="18"/>
-        <v>0.18644882057278259</v>
+        <v>0.22460071099455156</v>
       </c>
       <c r="X227">
         <f t="shared" si="19"/>
@@ -20620,7 +20628,7 @@
       </c>
       <c r="Z227">
         <f t="shared" si="20"/>
-        <v>0.12035760736461951</v>
+        <v>0.1201801484188191</v>
       </c>
       <c r="AA227">
         <f t="shared" si="21"/>
@@ -20628,7 +20636,7 @@
       </c>
       <c r="AC227">
         <f t="shared" si="22"/>
-        <v>0.25341776475948302</v>
+        <v>0.25335403783462018</v>
       </c>
       <c r="AD227">
         <f t="shared" si="23"/>
@@ -20701,7 +20709,7 @@
       </c>
       <c r="W228">
         <f t="shared" si="18"/>
-        <v>0.26494681811837673</v>
+        <v>0.29305141719044558</v>
       </c>
       <c r="X228">
         <f t="shared" si="19"/>
@@ -20709,7 +20717,7 @@
       </c>
       <c r="Z228">
         <f t="shared" si="20"/>
-        <v>0.21119602018800707</v>
+        <v>0.21129705279492098</v>
       </c>
       <c r="AA228">
         <f t="shared" si="21"/>
@@ -20717,7 +20725,7 @@
       </c>
       <c r="AC228">
         <f t="shared" si="22"/>
-        <v>0.27979991356556222</v>
+        <v>0.27985761851320506</v>
       </c>
       <c r="AD228">
         <f t="shared" si="23"/>
@@ -20790,7 +20798,7 @@
       </c>
       <c r="W229">
         <f t="shared" si="18"/>
-        <v>0.26494681811837673</v>
+        <v>0.29305141719044558</v>
       </c>
       <c r="X229">
         <f t="shared" si="19"/>
@@ -20798,7 +20806,7 @@
       </c>
       <c r="Z229">
         <f t="shared" si="20"/>
-        <v>0.21119602018800707</v>
+        <v>0.21129705279492098</v>
       </c>
       <c r="AA229">
         <f t="shared" si="21"/>
@@ -20806,7 +20814,7 @@
       </c>
       <c r="AC229">
         <f t="shared" si="22"/>
-        <v>0.27979991356556222</v>
+        <v>0.27985761851320506</v>
       </c>
       <c r="AD229">
         <f t="shared" si="23"/>
@@ -20862,8 +20870,8 @@
       <c r="Q230" s="2">
         <v>0.16232977906196946</v>
       </c>
-      <c r="R230" s="2">
-        <v>0.16524763772773648</v>
+      <c r="R230" s="3">
+        <v>0.16424763772773601</v>
       </c>
       <c r="S230" s="2">
         <v>0.17017572505535064</v>
@@ -20879,15 +20887,15 @@
       </c>
       <c r="W230">
         <f t="shared" si="18"/>
-        <v>0.17615903795861046</v>
+        <v>9.633456816932208E-2</v>
       </c>
       <c r="X230">
         <f t="shared" si="19"/>
-        <v>2.2292836741968605E-2</v>
+        <v>1.6223495798111606E-2</v>
       </c>
       <c r="Z230">
         <f t="shared" si="20"/>
-        <v>0.21449615120653626</v>
+        <v>0.21459563010225485</v>
       </c>
       <c r="AA230">
         <f t="shared" si="21"/>
@@ -20895,7 +20903,7 @@
       </c>
       <c r="AC230">
         <f t="shared" si="22"/>
-        <v>0.19283459439960382</v>
+        <v>0.19291831381661573</v>
       </c>
       <c r="AD230">
         <f t="shared" si="23"/>
@@ -20942,8 +20950,8 @@
       <c r="N231">
         <v>1.5</v>
       </c>
-      <c r="O231" s="2">
-        <v>0.16160440807975407</v>
+      <c r="O231" s="3">
+        <v>0.16060440807975401</v>
       </c>
       <c r="P231" s="2">
         <v>0.17390816599308065</v>
@@ -20968,15 +20976,15 @@
       </c>
       <c r="W231">
         <f t="shared" si="18"/>
-        <v>0.17615903795861046</v>
+        <v>0.14681913662958418</v>
       </c>
       <c r="X231">
         <f t="shared" si="19"/>
-        <v>2.2292836741968605E-2</v>
+        <v>2.8499005654398356E-2</v>
       </c>
       <c r="Z231">
         <f t="shared" si="20"/>
-        <v>0.21449615120653626</v>
+        <v>0.21459563010225485</v>
       </c>
       <c r="AA231">
         <f t="shared" si="21"/>
@@ -20984,7 +20992,7 @@
       </c>
       <c r="AC231">
         <f t="shared" si="22"/>
-        <v>0.19283459439960382</v>
+        <v>0.19291831381661573</v>
       </c>
       <c r="AD231">
         <f t="shared" si="23"/>
@@ -21057,7 +21065,7 @@
       </c>
       <c r="W232">
         <f t="shared" si="18"/>
-        <v>0.17860114877179617</v>
+        <v>0.21812997737331216</v>
       </c>
       <c r="X232">
         <f t="shared" si="19"/>
@@ -21065,7 +21073,7 @@
       </c>
       <c r="Z232">
         <f t="shared" si="20"/>
-        <v>0.30474299385097425</v>
+        <v>0.30467295043158721</v>
       </c>
       <c r="AA232">
         <f t="shared" si="21"/>
@@ -21073,7 +21081,7 @@
       </c>
       <c r="AC232">
         <f t="shared" si="22"/>
-        <v>0.16499464161202393</v>
+        <v>0.16509247944490604</v>
       </c>
       <c r="AD232">
         <f t="shared" si="23"/>
@@ -21129,8 +21137,8 @@
       <c r="Q233" s="2">
         <v>0.18980383205756232</v>
       </c>
-      <c r="R233" s="2">
-        <v>0.16141171196960152</v>
+      <c r="R233" s="3">
+        <v>0.16041171196960199</v>
       </c>
       <c r="S233" s="2">
         <v>0.20388347164652845</v>
@@ -21146,15 +21154,15 @@
       </c>
       <c r="W233">
         <f t="shared" si="18"/>
-        <v>0.17860114877179617</v>
+        <v>0.23193170800234869</v>
       </c>
       <c r="X233">
         <f t="shared" si="19"/>
-        <v>-4.0637540255139833E-2</v>
+        <v>-4.6849170403144888E-2</v>
       </c>
       <c r="Z233">
         <f t="shared" si="20"/>
-        <v>0.30474299385097425</v>
+        <v>0.30467295043158721</v>
       </c>
       <c r="AA233">
         <f t="shared" si="21"/>
@@ -21162,7 +21170,7 @@
       </c>
       <c r="AC233">
         <f t="shared" si="22"/>
-        <v>0.16499464161202393</v>
+        <v>0.16509247944490604</v>
       </c>
       <c r="AD233">
         <f t="shared" si="23"/>
